--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -1,32 +1,283 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321E24C-0191-487C-B84A-246ABE31D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>SG&amp;A as % of Revenue</t>
+  </si>
+  <si>
+    <t>R&amp;D as % of Revenue</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Operating Profit Margin</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Income Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>R&amp;D Expense</t>
+  </si>
+  <si>
+    <t>SG&amp;A Expense</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q3 2025</t>
+  </si>
+  <si>
+    <t>Q2 2025</t>
+  </si>
+  <si>
+    <t>Q1 2025</t>
+  </si>
+  <si>
+    <t>Q4 2024</t>
+  </si>
+  <si>
+    <t>Q3 2024</t>
+  </si>
+  <si>
+    <t>Q2 2024</t>
+  </si>
+  <si>
+    <t>Q1 2024</t>
+  </si>
+  <si>
+    <t>Q4 2023</t>
+  </si>
+  <si>
+    <t>Q3 2023</t>
+  </si>
+  <si>
+    <t>Q2 2023</t>
+  </si>
+  <si>
+    <t>Q1 2023</t>
+  </si>
+  <si>
+    <t>Q4 2022</t>
+  </si>
+  <si>
+    <t>Q3 2022</t>
+  </si>
+  <si>
+    <t>Q2 2022</t>
+  </si>
+  <si>
+    <t>Q1 2022</t>
+  </si>
+  <si>
+    <t>Q4 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q1 2021</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Q2 2020</t>
+  </si>
+  <si>
+    <t>Q1 2020</t>
+  </si>
+  <si>
+    <t>Q4 2019</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q1 2019</t>
+  </si>
+  <si>
+    <t>Q4 2018</t>
+  </si>
+  <si>
+    <t>Q3 2018</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Q1 2018</t>
+  </si>
+  <si>
+    <t>Q4 2017</t>
+  </si>
+  <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
+    <t>Q1 2017</t>
+  </si>
+  <si>
+    <t>Q4 2016</t>
+  </si>
+  <si>
+    <t>Q3 2016</t>
+  </si>
+  <si>
+    <t>Q2 2016</t>
+  </si>
+  <si>
+    <t>Q1 2016</t>
+  </si>
+  <si>
+    <t>Q4 2015</t>
+  </si>
+  <si>
+    <t>Q3 2015</t>
+  </si>
+  <si>
+    <t>Q2 2015</t>
+  </si>
+  <si>
+    <t>Q1 2015</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Revenue YoY Growth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibre"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +300,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +589,3738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1282.5429999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C3*C4</f>
+        <v>106194.56039999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <f>1394+6595</f>
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <f>3719+24607</f>
+        <v>28326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C5-C6+C7</f>
+        <v>126531.56039999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9159560F-DD3D-4E7F-8494-EDE11D0C09B0}">
+  <dimension ref="B2:DD53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BA34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AW49" sqref="AW49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="54" width="9.140625" style="1"/>
+    <col min="55" max="55" width="9.140625" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:108" s="6" customFormat="1" ht="12.75">
+      <c r="B2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY2" s="7">
+        <f>2015</f>
+        <v>2015</v>
+      </c>
+      <c r="AZ2" s="7">
+        <f>AY2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="BA2" s="7">
+        <f t="shared" ref="BA2:DD2" si="0">AZ2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="BB2" s="7">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="BC2" s="7">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="BD2" s="7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="BE2" s="7">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="BF2" s="7">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="BG2" s="7">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="BH2" s="7">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="BI2" s="7">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="BJ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="BK2" s="7">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="BL2" s="7">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="BM2" s="7">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="BN2" s="7">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="BO2" s="7">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="BP2" s="7">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="BQ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="BR2" s="7">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="BS2" s="7">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="BT2" s="7">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="BU2" s="7">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="BV2" s="7">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="BW2" s="7">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="BX2" s="7">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="BY2" s="7">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="BZ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="CA2" s="7">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="CB2" s="7">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="CC2" s="7">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="CD2" s="7">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="CE2" s="7">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="CF2" s="7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="CG2" s="7">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="CH2" s="7">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="CI2" s="7">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="CJ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="CK2" s="7">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="CL2" s="7">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="CM2" s="7">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="CN2" s="7">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="CO2" s="7">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="CP2" s="7">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="CQ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="CR2" s="7">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="CS2" s="7">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="CT2" s="7">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="CU2" s="7">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="CV2" s="7">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="CW2" s="7">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="CX2" s="7">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="CY2" s="7">
+        <f t="shared" si="0"/>
+        <v>2067</v>
+      </c>
+      <c r="CZ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2068</v>
+      </c>
+      <c r="DA2" s="7">
+        <f t="shared" si="0"/>
+        <v>2069</v>
+      </c>
+      <c r="DB2" s="7">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+      <c r="DC2" s="7">
+        <f t="shared" si="0"/>
+        <v>2071</v>
+      </c>
+      <c r="DD2" s="7">
+        <f t="shared" si="0"/>
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="3" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="4" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="5" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="6" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="7" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="8" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="9" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="10" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="11" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="12" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="13" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="14" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="15" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="16" spans="2:108" s="6" customFormat="1" ht="12.75"/>
+    <row r="17" s="6" customFormat="1" ht="12.75"/>
+    <row r="18" s="6" customFormat="1" ht="12.75"/>
+    <row r="19" s="6" customFormat="1" ht="12.75"/>
+    <row r="36" spans="2:60" s="2" customFormat="1" ht="15">
+      <c r="B36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4273</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4366</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4318</v>
+      </c>
+      <c r="F36" s="7">
+        <v>7304</v>
+      </c>
+      <c r="G36" s="7">
+        <v>7274</v>
+      </c>
+      <c r="H36" s="7">
+        <v>7058</v>
+      </c>
+      <c r="I36" s="7">
+        <v>6934</v>
+      </c>
+      <c r="J36" s="7">
+        <v>7567</v>
+      </c>
+      <c r="K36" s="7">
+        <v>7166</v>
+      </c>
+      <c r="L36" s="7">
+        <v>7345</v>
+      </c>
+      <c r="M36" s="7">
+        <v>7283</v>
+      </c>
+      <c r="N36" s="7">
+        <v>7916</v>
+      </c>
+      <c r="O36" s="7">
+        <v>7390</v>
+      </c>
+      <c r="P36" s="7">
+        <v>7050</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>7369</v>
+      </c>
+      <c r="R36" s="7">
+        <v>8144</v>
+      </c>
+      <c r="S36" s="7">
+        <v>7384</v>
+      </c>
+      <c r="T36" s="7">
+        <v>7481</v>
+      </c>
+      <c r="U36" s="7">
+        <v>7546</v>
+      </c>
+      <c r="V36" s="7">
+        <v>8146</v>
+      </c>
+      <c r="W36" s="7">
+        <v>7493</v>
+      </c>
+      <c r="X36" s="7">
+        <v>7706</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>7717</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>5997</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>6507</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>7647</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>7775</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>8188</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>7987</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>7847</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>7763</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>8089</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>7371</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>7585</v>
+      </c>
+      <c r="AK36" s="7">
+        <v>7727</v>
+      </c>
+      <c r="AL36" s="7">
+        <v>8544</v>
+      </c>
+      <c r="AM36" s="7">
+        <v>7702</v>
+      </c>
+      <c r="AN36" s="7">
+        <v>7984</v>
+      </c>
+      <c r="AO36" s="7">
+        <v>8089</v>
+      </c>
+      <c r="AP36" s="7">
+        <v>8589</v>
+      </c>
+      <c r="AQ36" s="7">
+        <v>7915</v>
+      </c>
+      <c r="AR36" s="7">
+        <v>8403</v>
+      </c>
+      <c r="AS36" s="7">
+        <v>8292</v>
+      </c>
+      <c r="AY36" s="2">
+        <f>SUM(C36:F36)</f>
+        <v>20261</v>
+      </c>
+      <c r="AZ36" s="2">
+        <f>SUM(G36:J36)</f>
+        <v>28833</v>
+      </c>
+      <c r="BA36" s="2">
+        <f>SUM(K36:N36)</f>
+        <v>29710</v>
+      </c>
+      <c r="BB36" s="2">
+        <f>SUM(O36:R36)</f>
+        <v>29953</v>
+      </c>
+      <c r="BC36" s="2">
+        <f>SUM(S36:V36)</f>
+        <v>30557</v>
+      </c>
+      <c r="BD36" s="2">
+        <f>SUM(W36:Z36)</f>
+        <v>28913</v>
+      </c>
+      <c r="BE36" s="2">
+        <f>SUM(AA36:AD36)</f>
+        <v>30117</v>
+      </c>
+      <c r="BF36" s="2">
+        <f>SUM(AE36:AH36)</f>
+        <v>31686</v>
+      </c>
+      <c r="BG36" s="2">
+        <f>SUM(AI36:AL36)</f>
+        <v>31227</v>
+      </c>
+      <c r="BH36" s="2">
+        <f>SUM(AM36:AP36)</f>
+        <v>32364</v>
+      </c>
+    </row>
+    <row r="37" spans="2:60">
+      <c r="B37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1105</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1142</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1128</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2934</v>
+      </c>
+      <c r="G37" s="6">
+        <v>2456</v>
+      </c>
+      <c r="H37" s="6">
+        <v>2182</v>
+      </c>
+      <c r="I37" s="6">
+        <v>2141</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2363</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2261</v>
+      </c>
+      <c r="L37" s="6">
+        <v>2326</v>
+      </c>
+      <c r="M37" s="6">
+        <v>2268</v>
+      </c>
+      <c r="N37" s="6">
+        <v>2439</v>
+      </c>
+      <c r="O37" s="6">
+        <v>2352</v>
+      </c>
+      <c r="P37" s="6">
+        <v>2123</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>2194</v>
+      </c>
+      <c r="R37" s="6">
+        <v>2398</v>
+      </c>
+      <c r="S37" s="6">
+        <v>2204</v>
+      </c>
+      <c r="T37" s="6">
+        <v>2203</v>
+      </c>
+      <c r="U37" s="6">
+        <v>2265</v>
+      </c>
+      <c r="V37" s="6">
+        <v>2483</v>
+      </c>
+      <c r="W37" s="6">
+        <v>2366</v>
+      </c>
+      <c r="X37" s="6">
+        <v>2394</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>2400</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>2264</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>2505</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>2705</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>2621</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>2652</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>2598</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>2497</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>2459</v>
+      </c>
+      <c r="AH37" s="6">
+        <v>2591</v>
+      </c>
+      <c r="AI37" s="6">
+        <v>2516</v>
+      </c>
+      <c r="AJ37" s="6">
+        <v>2535</v>
+      </c>
+      <c r="AK37" s="6">
+        <v>2689</v>
+      </c>
+      <c r="AL37" s="6">
+        <v>2979</v>
+      </c>
+      <c r="AM37" s="6">
+        <v>2628</v>
+      </c>
+      <c r="AN37" s="6">
+        <v>2761</v>
+      </c>
+      <c r="AO37" s="6">
+        <v>2782</v>
+      </c>
+      <c r="AP37" s="6">
+        <v>3045</v>
+      </c>
+      <c r="AQ37" s="6">
+        <v>2761</v>
+      </c>
+      <c r="AR37" s="6">
+        <v>2946</v>
+      </c>
+      <c r="AS37" s="6">
+        <v>2779</v>
+      </c>
+      <c r="AY37" s="1">
+        <f t="shared" ref="AY37:AY46" si="1">SUM(C37:F37)</f>
+        <v>6309</v>
+      </c>
+      <c r="AZ37" s="1">
+        <f t="shared" ref="AZ37:AZ46" si="2">SUM(G37:J37)</f>
+        <v>9142</v>
+      </c>
+      <c r="BA37" s="1">
+        <f t="shared" ref="BA37:BA46" si="3">SUM(K37:N37)</f>
+        <v>9294</v>
+      </c>
+      <c r="BB37" s="1">
+        <f t="shared" ref="BB37:BB46" si="4">SUM(O37:R37)</f>
+        <v>9067</v>
+      </c>
+      <c r="BC37" s="1">
+        <f t="shared" ref="BC37:BC46" si="5">SUM(S37:V37)</f>
+        <v>9155</v>
+      </c>
+      <c r="BD37" s="1">
+        <f t="shared" ref="BD37:BD46" si="6">SUM(W37:Z37)</f>
+        <v>9424</v>
+      </c>
+      <c r="BE37" s="1">
+        <f t="shared" ref="BE37:BE46" si="7">SUM(AA37:AD37)</f>
+        <v>10483</v>
+      </c>
+      <c r="BF37" s="1">
+        <f t="shared" ref="BF37:BF46" si="8">SUM(AE37:AH37)</f>
+        <v>10145</v>
+      </c>
+      <c r="BG37" s="1">
+        <f t="shared" ref="BG37:BG46" si="9">SUM(AI37:AL37)</f>
+        <v>10719</v>
+      </c>
+      <c r="BH37" s="1">
+        <f t="shared" ref="BH37:BH46" si="10">SUM(AM37:AP37)</f>
+        <v>11216</v>
+      </c>
+    </row>
+    <row r="38" spans="2:60">
+      <c r="B38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3168</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3224</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3190</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4370</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4818</v>
+      </c>
+      <c r="H38" s="6">
+        <v>4876</v>
+      </c>
+      <c r="I38" s="6">
+        <v>4793</v>
+      </c>
+      <c r="J38" s="6">
+        <v>5204</v>
+      </c>
+      <c r="K38" s="6">
+        <v>4905</v>
+      </c>
+      <c r="L38" s="6">
+        <v>5019</v>
+      </c>
+      <c r="M38" s="6">
+        <v>5015</v>
+      </c>
+      <c r="N38" s="6">
+        <v>5477</v>
+      </c>
+      <c r="O38" s="6">
+        <v>5038</v>
+      </c>
+      <c r="P38" s="6">
+        <v>4927</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>5175</v>
+      </c>
+      <c r="R38" s="6">
+        <v>5746</v>
+      </c>
+      <c r="S38" s="6">
+        <v>5180</v>
+      </c>
+      <c r="T38" s="6">
+        <v>5278</v>
+      </c>
+      <c r="U38" s="6">
+        <v>5281</v>
+      </c>
+      <c r="V38" s="6">
+        <v>5663</v>
+      </c>
+      <c r="W38" s="6">
+        <v>5127</v>
+      </c>
+      <c r="X38" s="6">
+        <v>5312</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>5317</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>3733</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>4002</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>4942</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>5154</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>5536</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>5389</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>5350</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>5304</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>5498</v>
+      </c>
+      <c r="AI38" s="6">
+        <v>4855</v>
+      </c>
+      <c r="AJ38" s="6">
+        <v>5050</v>
+      </c>
+      <c r="AK38" s="6">
+        <v>5038</v>
+      </c>
+      <c r="AL38" s="6">
+        <v>5565</v>
+      </c>
+      <c r="AM38" s="6">
+        <v>5074</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>5223</v>
+      </c>
+      <c r="AO38" s="6">
+        <v>5307</v>
+      </c>
+      <c r="AP38" s="6">
+        <v>5544</v>
+      </c>
+      <c r="AQ38" s="6">
+        <v>5154</v>
+      </c>
+      <c r="AR38" s="6">
+        <v>5457</v>
+      </c>
+      <c r="AS38" s="6">
+        <v>5513</v>
+      </c>
+      <c r="AY38" s="1">
+        <f t="shared" si="1"/>
+        <v>13952</v>
+      </c>
+      <c r="AZ38" s="1">
+        <f t="shared" si="2"/>
+        <v>19691</v>
+      </c>
+      <c r="BA38" s="1">
+        <f t="shared" si="3"/>
+        <v>20416</v>
+      </c>
+      <c r="BB38" s="1">
+        <f t="shared" si="4"/>
+        <v>20886</v>
+      </c>
+      <c r="BC38" s="1">
+        <f t="shared" si="5"/>
+        <v>21402</v>
+      </c>
+      <c r="BD38" s="1">
+        <f t="shared" si="6"/>
+        <v>19489</v>
+      </c>
+      <c r="BE38" s="1">
+        <f t="shared" si="7"/>
+        <v>19634</v>
+      </c>
+      <c r="BF38" s="1">
+        <f t="shared" si="8"/>
+        <v>21541</v>
+      </c>
+      <c r="BG38" s="1">
+        <f t="shared" si="9"/>
+        <v>20508</v>
+      </c>
+      <c r="BH38" s="1">
+        <f t="shared" si="10"/>
+        <v>21148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:60">
+      <c r="B39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1506</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1507</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1487</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2404</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2449</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2343</v>
+      </c>
+      <c r="I39" s="6">
+        <v>2317</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2360</v>
+      </c>
+      <c r="K39" s="6">
+        <v>2428</v>
+      </c>
+      <c r="L39" s="6">
+        <v>2416</v>
+      </c>
+      <c r="M39" s="6">
+        <v>2388</v>
+      </c>
+      <c r="N39" s="6">
+        <v>2786</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2580</v>
+      </c>
+      <c r="P39" s="6">
+        <v>2539</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>2523</v>
+      </c>
+      <c r="R39" s="6">
+        <v>2596</v>
+      </c>
+      <c r="S39" s="6">
+        <v>2597</v>
+      </c>
+      <c r="T39" s="6">
+        <v>2605</v>
+      </c>
+      <c r="U39" s="6">
+        <v>2596</v>
+      </c>
+      <c r="V39" s="6">
+        <v>2620</v>
+      </c>
+      <c r="W39" s="6">
+        <v>2543</v>
+      </c>
+      <c r="X39" s="6">
+        <v>2620</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>2587</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>2359</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>2417</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>2600</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>2537</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>2594</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>2547</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>2615</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>2561</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>2569</v>
+      </c>
+      <c r="AI39" s="6">
+        <v>2567</v>
+      </c>
+      <c r="AJ39" s="6">
+        <v>2617</v>
+      </c>
+      <c r="AK39" s="6">
+        <v>2615</v>
+      </c>
+      <c r="AL39" s="6">
+        <v>2616</v>
+      </c>
+      <c r="AM39" s="6">
+        <v>2613</v>
+      </c>
+      <c r="AN39" s="6">
+        <v>2686</v>
+      </c>
+      <c r="AO39" s="6">
+        <v>2673</v>
+      </c>
+      <c r="AP39" s="6">
+        <v>2764</v>
+      </c>
+      <c r="AQ39" s="6">
+        <v>2655</v>
+      </c>
+      <c r="AR39" s="6">
+        <v>2757</v>
+      </c>
+      <c r="AS39" s="6">
+        <v>2717</v>
+      </c>
+      <c r="AY39" s="1">
+        <f t="shared" si="1"/>
+        <v>6904</v>
+      </c>
+      <c r="AZ39" s="1">
+        <f t="shared" si="2"/>
+        <v>9469</v>
+      </c>
+      <c r="BA39" s="1">
+        <f t="shared" si="3"/>
+        <v>10018</v>
+      </c>
+      <c r="BB39" s="1">
+        <f t="shared" si="4"/>
+        <v>10238</v>
+      </c>
+      <c r="BC39" s="1">
+        <f t="shared" si="5"/>
+        <v>10418</v>
+      </c>
+      <c r="BD39" s="1">
+        <f t="shared" si="6"/>
+        <v>10109</v>
+      </c>
+      <c r="BE39" s="1">
+        <f t="shared" si="7"/>
+        <v>10148</v>
+      </c>
+      <c r="BF39" s="1">
+        <f t="shared" si="8"/>
+        <v>10292</v>
+      </c>
+      <c r="BG39" s="1">
+        <f t="shared" si="9"/>
+        <v>10415</v>
+      </c>
+      <c r="BH39" s="1">
+        <f t="shared" si="10"/>
+        <v>10736</v>
+      </c>
+    </row>
+    <row r="40" spans="2:60">
+      <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6">
+        <v>365</v>
+      </c>
+      <c r="D40" s="6">
+        <v>374</v>
+      </c>
+      <c r="E40" s="6">
+        <v>373</v>
+      </c>
+      <c r="F40" s="6">
+        <v>528</v>
+      </c>
+      <c r="G40" s="6">
+        <v>558</v>
+      </c>
+      <c r="H40" s="6">
+        <v>545</v>
+      </c>
+      <c r="I40" s="6">
+        <v>546</v>
+      </c>
+      <c r="J40" s="6">
+        <v>575</v>
+      </c>
+      <c r="K40" s="6">
+        <v>556</v>
+      </c>
+      <c r="L40" s="6">
+        <v>554</v>
+      </c>
+      <c r="M40" s="6">
+        <v>530</v>
+      </c>
+      <c r="N40" s="6">
+        <v>553</v>
+      </c>
+      <c r="O40" s="6">
+        <v>549</v>
+      </c>
+      <c r="P40" s="6">
+        <v>556</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>559</v>
+      </c>
+      <c r="R40" s="6">
+        <v>592</v>
+      </c>
+      <c r="S40" s="6">
+        <v>585</v>
+      </c>
+      <c r="T40" s="6">
+        <v>590</v>
+      </c>
+      <c r="U40" s="6">
+        <v>561</v>
+      </c>
+      <c r="V40" s="6">
+        <v>594</v>
+      </c>
+      <c r="W40" s="6">
+        <v>587</v>
+      </c>
+      <c r="X40" s="6">
+        <v>603</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>573</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>568</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>621</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>639</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>601</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>632</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>750</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>676</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>668</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>652</v>
+      </c>
+      <c r="AI40" s="6">
+        <v>692</v>
+      </c>
+      <c r="AJ40" s="6">
+        <v>676</v>
+      </c>
+      <c r="AK40" s="6">
+        <v>688</v>
+      </c>
+      <c r="AL40" s="6">
+        <v>640</v>
+      </c>
+      <c r="AM40" s="6">
+        <v>668</v>
+      </c>
+      <c r="AN40" s="6">
+        <v>698</v>
+      </c>
+      <c r="AO40" s="6">
+        <v>695</v>
+      </c>
+      <c r="AP40" s="6">
+        <v>674</v>
+      </c>
+      <c r="AQ40" s="6">
+        <v>676</v>
+      </c>
+      <c r="AR40" s="6">
+        <v>697</v>
+      </c>
+      <c r="AS40" s="6">
+        <v>675</v>
+      </c>
+      <c r="AY40" s="1">
+        <f t="shared" si="1"/>
+        <v>1640</v>
+      </c>
+      <c r="AZ40" s="1">
+        <f t="shared" si="2"/>
+        <v>2224</v>
+      </c>
+      <c r="BA40" s="1">
+        <f t="shared" si="3"/>
+        <v>2193</v>
+      </c>
+      <c r="BB40" s="1">
+        <f t="shared" si="4"/>
+        <v>2256</v>
+      </c>
+      <c r="BC40" s="1">
+        <f t="shared" si="5"/>
+        <v>2330</v>
+      </c>
+      <c r="BD40" s="1">
+        <f t="shared" si="6"/>
+        <v>2331</v>
+      </c>
+      <c r="BE40" s="1">
+        <f t="shared" si="7"/>
+        <v>2493</v>
+      </c>
+      <c r="BF40" s="1">
+        <f t="shared" si="8"/>
+        <v>2746</v>
+      </c>
+      <c r="BG40" s="1">
+        <f t="shared" si="9"/>
+        <v>2696</v>
+      </c>
+      <c r="BH40" s="1">
+        <f t="shared" si="10"/>
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="41" spans="2:60">
+      <c r="B41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2080</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2194</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1915</v>
+      </c>
+      <c r="F41" s="6">
+        <v>3997</v>
+      </c>
+      <c r="G41" s="6">
+        <v>3687</v>
+      </c>
+      <c r="H41" s="6">
+        <v>3576</v>
+      </c>
+      <c r="I41" s="6">
+        <v>3438</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3629</v>
+      </c>
+      <c r="K41" s="6">
+        <v>3738</v>
+      </c>
+      <c r="L41" s="6">
+        <v>3634</v>
+      </c>
+      <c r="M41" s="6">
+        <v>3868</v>
+      </c>
+      <c r="N41" s="6">
+        <v>3793</v>
+      </c>
+      <c r="O41" s="6">
+        <v>3656</v>
+      </c>
+      <c r="P41" s="6">
+        <v>3730</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>3739</v>
+      </c>
+      <c r="R41" s="6">
+        <v>3121</v>
+      </c>
+      <c r="S41" s="6">
+        <v>3944</v>
+      </c>
+      <c r="T41" s="6">
+        <v>3734</v>
+      </c>
+      <c r="U41" s="6">
+        <v>3739</v>
+      </c>
+      <c r="V41" s="6">
+        <v>3717</v>
+      </c>
+      <c r="W41" s="6">
+        <v>3642</v>
+      </c>
+      <c r="X41" s="6">
+        <v>3961</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>3678</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>3417</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>3329</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>4012</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>3878</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>3931</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>4530</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>3787</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>3645</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>3826</v>
+      </c>
+      <c r="AI41" s="6">
+        <v>3731</v>
+      </c>
+      <c r="AJ41" s="6">
+        <v>3647</v>
+      </c>
+      <c r="AK41" s="6">
+        <v>3647</v>
+      </c>
+      <c r="AL41" s="6">
+        <v>3998</v>
+      </c>
+      <c r="AM41" s="6">
+        <v>3805</v>
+      </c>
+      <c r="AN41" s="6">
+        <v>3883</v>
+      </c>
+      <c r="AO41" s="6">
+        <v>3824</v>
+      </c>
+      <c r="AP41" s="6">
+        <v>4491</v>
+      </c>
+      <c r="AQ41" s="6">
+        <v>3874</v>
+      </c>
+      <c r="AR41" s="6">
+        <v>3863</v>
+      </c>
+      <c r="AS41" s="6">
+        <v>3868</v>
+      </c>
+      <c r="AY41" s="1">
+        <f t="shared" si="1"/>
+        <v>10186</v>
+      </c>
+      <c r="AZ41" s="1">
+        <f t="shared" si="2"/>
+        <v>14330</v>
+      </c>
+      <c r="BA41" s="1">
+        <f t="shared" si="3"/>
+        <v>15033</v>
+      </c>
+      <c r="BB41" s="1">
+        <f t="shared" si="4"/>
+        <v>14246</v>
+      </c>
+      <c r="BC41" s="1">
+        <f t="shared" si="5"/>
+        <v>15134</v>
+      </c>
+      <c r="BD41" s="1">
+        <f t="shared" si="6"/>
+        <v>14698</v>
+      </c>
+      <c r="BE41" s="1">
+        <f t="shared" si="7"/>
+        <v>15150</v>
+      </c>
+      <c r="BF41" s="1">
+        <f t="shared" si="8"/>
+        <v>15788</v>
+      </c>
+      <c r="BG41" s="1">
+        <f t="shared" si="9"/>
+        <v>15023</v>
+      </c>
+      <c r="BH41" s="1">
+        <f t="shared" si="10"/>
+        <v>16003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:60">
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1088</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1030</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1275</v>
+      </c>
+      <c r="F42" s="6">
+        <v>373</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1131</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1300</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1355</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1575</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1167</v>
+      </c>
+      <c r="L42" s="6">
+        <v>1385</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1147</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1684</v>
+      </c>
+      <c r="O42" s="6">
+        <v>1382</v>
+      </c>
+      <c r="P42" s="6">
+        <v>1197</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>1436</v>
+      </c>
+      <c r="R42" s="6">
+        <v>2625</v>
+      </c>
+      <c r="S42" s="6">
+        <v>1236</v>
+      </c>
+      <c r="T42" s="6">
+        <v>1544</v>
+      </c>
+      <c r="U42" s="6">
+        <v>1542</v>
+      </c>
+      <c r="V42" s="6">
+        <v>1946</v>
+      </c>
+      <c r="W42" s="6">
+        <v>1485</v>
+      </c>
+      <c r="X42" s="6">
+        <v>1351</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>1639</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>316</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>673</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>930</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>1277</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>1604</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>859</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>1563</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>1659</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>1671</v>
+      </c>
+      <c r="AI42" s="6">
+        <v>1125</v>
+      </c>
+      <c r="AJ42" s="6">
+        <v>1404</v>
+      </c>
+      <c r="AK42" s="6">
+        <v>1392</v>
+      </c>
+      <c r="AL42" s="6">
+        <v>1564</v>
+      </c>
+      <c r="AM42" s="6">
+        <v>1268</v>
+      </c>
+      <c r="AN42" s="6">
+        <v>1340</v>
+      </c>
+      <c r="AO42" s="6">
+        <v>1483</v>
+      </c>
+      <c r="AP42" s="6">
+        <v>1053</v>
+      </c>
+      <c r="AQ42" s="6">
+        <v>1278</v>
+      </c>
+      <c r="AR42" s="6">
+        <v>1595</v>
+      </c>
+      <c r="AS42" s="6">
+        <v>1646</v>
+      </c>
+      <c r="AY42" s="1">
+        <f t="shared" si="1"/>
+        <v>3766</v>
+      </c>
+      <c r="AZ42" s="1">
+        <f t="shared" si="2"/>
+        <v>5361</v>
+      </c>
+      <c r="BA42" s="1">
+        <f t="shared" si="3"/>
+        <v>5383</v>
+      </c>
+      <c r="BB42" s="1">
+        <f t="shared" si="4"/>
+        <v>6640</v>
+      </c>
+      <c r="BC42" s="1">
+        <f t="shared" si="5"/>
+        <v>6268</v>
+      </c>
+      <c r="BD42" s="1">
+        <f t="shared" si="6"/>
+        <v>4791</v>
+      </c>
+      <c r="BE42" s="1">
+        <f t="shared" si="7"/>
+        <v>4484</v>
+      </c>
+      <c r="BF42" s="1">
+        <f t="shared" si="8"/>
+        <v>5752</v>
+      </c>
+      <c r="BG42" s="1">
+        <f t="shared" si="9"/>
+        <v>5485</v>
+      </c>
+      <c r="BH42" s="1">
+        <f t="shared" si="10"/>
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:60">
+      <c r="B43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-8</v>
+      </c>
+      <c r="E43" s="6">
+        <v>-81</v>
+      </c>
+      <c r="F43" s="6">
+        <v>-186</v>
+      </c>
+      <c r="G43" s="6">
+        <v>-191</v>
+      </c>
+      <c r="H43" s="6">
+        <v>-217</v>
+      </c>
+      <c r="I43" s="6">
+        <v>-176</v>
+      </c>
+      <c r="J43" s="6">
+        <v>-441</v>
+      </c>
+      <c r="K43" s="6">
+        <v>-179</v>
+      </c>
+      <c r="L43" s="6">
+        <v>-173</v>
+      </c>
+      <c r="M43" s="6">
+        <v>-180</v>
+      </c>
+      <c r="N43" s="6">
+        <v>-249</v>
+      </c>
+      <c r="O43" s="6">
+        <v>-187</v>
+      </c>
+      <c r="P43" s="6">
+        <v>531</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>-409</v>
+      </c>
+      <c r="R43" s="6">
+        <v>-900</v>
+      </c>
+      <c r="S43" s="6">
+        <v>-56</v>
+      </c>
+      <c r="T43" s="6">
+        <v>-189</v>
+      </c>
+      <c r="U43" s="6">
+        <v>-172</v>
+      </c>
+      <c r="V43" s="6">
+        <v>-654</v>
+      </c>
+      <c r="W43" s="6">
+        <v>-508</v>
+      </c>
+      <c r="X43" s="6">
+        <v>-57</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>-60</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>-111</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>-89</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>-405</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>-57</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>-38</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>-26</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>-70</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>-70</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>-69</v>
+      </c>
+      <c r="AI43" s="6">
+        <v>-81</v>
+      </c>
+      <c r="AJ43" s="6">
+        <v>-9</v>
+      </c>
+      <c r="AK43" s="6">
+        <v>-18</v>
+      </c>
+      <c r="AL43" s="6">
+        <v>-13</v>
+      </c>
+      <c r="AM43" s="6">
+        <v>-72</v>
+      </c>
+      <c r="AN43" s="6">
+        <v>-26</v>
+      </c>
+      <c r="AO43" s="6">
+        <v>-11</v>
+      </c>
+      <c r="AP43" s="6">
+        <v>-198</v>
+      </c>
+      <c r="AQ43" s="6">
+        <v>-10</v>
+      </c>
+      <c r="AR43" s="6">
+        <v>-36</v>
+      </c>
+      <c r="AS43" s="6">
+        <v>-107</v>
+      </c>
+      <c r="AY43" s="1">
+        <f t="shared" si="1"/>
+        <v>-280</v>
+      </c>
+      <c r="AZ43" s="1">
+        <f t="shared" si="2"/>
+        <v>-1025</v>
+      </c>
+      <c r="BA43" s="1">
+        <f t="shared" si="3"/>
+        <v>-781</v>
+      </c>
+      <c r="BB43" s="1">
+        <f t="shared" si="4"/>
+        <v>-965</v>
+      </c>
+      <c r="BC43" s="1">
+        <f t="shared" si="5"/>
+        <v>-1071</v>
+      </c>
+      <c r="BD43" s="1">
+        <f t="shared" si="6"/>
+        <v>-736</v>
+      </c>
+      <c r="BE43" s="1">
+        <f t="shared" si="7"/>
+        <v>-589</v>
+      </c>
+      <c r="BF43" s="1">
+        <f t="shared" si="8"/>
+        <v>-235</v>
+      </c>
+      <c r="BG43" s="1">
+        <f t="shared" si="9"/>
+        <v>-121</v>
+      </c>
+      <c r="BH43" s="1">
+        <f t="shared" si="10"/>
+        <v>-307</v>
+      </c>
+    </row>
+    <row r="44" spans="2:60">
+      <c r="B44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1083</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1022</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1194</v>
+      </c>
+      <c r="F44" s="6">
+        <v>187</v>
+      </c>
+      <c r="G44" s="6">
+        <v>940</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1083</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1179</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1134</v>
+      </c>
+      <c r="K44" s="6">
+        <v>988</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1212</v>
+      </c>
+      <c r="M44" s="6">
+        <v>967</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1435</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1195</v>
+      </c>
+      <c r="P44" s="6">
+        <v>1728</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>1027</v>
+      </c>
+      <c r="R44" s="6">
+        <v>1725</v>
+      </c>
+      <c r="S44" s="6">
+        <v>1180</v>
+      </c>
+      <c r="T44" s="6">
+        <v>1355</v>
+      </c>
+      <c r="U44" s="6">
+        <v>1370</v>
+      </c>
+      <c r="V44" s="6">
+        <v>1292</v>
+      </c>
+      <c r="W44" s="6">
+        <v>977</v>
+      </c>
+      <c r="X44" s="6">
+        <v>1294</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>1579</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>205</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>584</v>
+      </c>
+      <c r="AB44" s="6">
+        <v>525</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>1220</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>1566</v>
+      </c>
+      <c r="AE44" s="6">
+        <v>833</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>1493</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>1589</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>1602</v>
+      </c>
+      <c r="AI44" s="6">
+        <v>1044</v>
+      </c>
+      <c r="AJ44" s="6">
+        <v>1395</v>
+      </c>
+      <c r="AK44" s="6">
+        <v>1375</v>
+      </c>
+      <c r="AL44" s="6">
+        <v>1550</v>
+      </c>
+      <c r="AM44" s="6">
+        <v>1196</v>
+      </c>
+      <c r="AN44" s="6">
+        <v>1313</v>
+      </c>
+      <c r="AO44" s="6">
+        <v>1472</v>
+      </c>
+      <c r="AP44" s="6">
+        <v>856</v>
+      </c>
+      <c r="AQ44" s="6">
+        <v>1268</v>
+      </c>
+      <c r="AR44" s="6">
+        <v>1559</v>
+      </c>
+      <c r="AS44" s="6">
+        <v>1540</v>
+      </c>
+      <c r="AY44" s="1">
+        <f t="shared" si="1"/>
+        <v>3486</v>
+      </c>
+      <c r="AZ44" s="1">
+        <f t="shared" si="2"/>
+        <v>4336</v>
+      </c>
+      <c r="BA44" s="1">
+        <f t="shared" si="3"/>
+        <v>4602</v>
+      </c>
+      <c r="BB44" s="1">
+        <f t="shared" si="4"/>
+        <v>5675</v>
+      </c>
+      <c r="BC44" s="1">
+        <f t="shared" si="5"/>
+        <v>5197</v>
+      </c>
+      <c r="BD44" s="1">
+        <f t="shared" si="6"/>
+        <v>4055</v>
+      </c>
+      <c r="BE44" s="1">
+        <f t="shared" si="7"/>
+        <v>3895</v>
+      </c>
+      <c r="BF44" s="1">
+        <f t="shared" si="8"/>
+        <v>5517</v>
+      </c>
+      <c r="BG44" s="1">
+        <f t="shared" si="9"/>
+        <v>5364</v>
+      </c>
+      <c r="BH44" s="1">
+        <f t="shared" si="10"/>
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="45" spans="2:60">
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="6">
+        <v>212</v>
+      </c>
+      <c r="D45" s="6">
+        <v>194</v>
+      </c>
+      <c r="E45" s="6">
+        <v>217</v>
+      </c>
+      <c r="F45" s="6">
+        <v>188</v>
+      </c>
+      <c r="G45" s="6">
+        <v>120</v>
+      </c>
+      <c r="H45" s="6">
+        <v>563</v>
+      </c>
+      <c r="I45" s="6">
+        <v>84</v>
+      </c>
+      <c r="J45" s="6">
+        <v>31</v>
+      </c>
+      <c r="K45" s="6">
+        <v>59</v>
+      </c>
+      <c r="L45" s="6">
+        <v>101</v>
+      </c>
+      <c r="M45" s="6">
+        <v>147</v>
+      </c>
+      <c r="N45" s="6">
+        <v>271</v>
+      </c>
+      <c r="O45" s="6">
+        <v>186</v>
+      </c>
+      <c r="P45" s="6">
+        <v>-285</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>2419</v>
+      </c>
+      <c r="R45" s="6">
+        <v>260</v>
+      </c>
+      <c r="S45" s="6">
+        <v>103</v>
+      </c>
+      <c r="T45" s="6">
+        <v>235</v>
+      </c>
+      <c r="U45" s="6">
+        <v>99</v>
+      </c>
+      <c r="V45" s="6">
+        <v>110</v>
+      </c>
+      <c r="W45" s="6">
+        <v>100</v>
+      </c>
+      <c r="X45" s="6">
+        <v>-77</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>-340</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>-434</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>93</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>31</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>-59</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>64</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>176</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>106</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>110</v>
+      </c>
+      <c r="AI45" s="6">
+        <v>112</v>
+      </c>
+      <c r="AJ45" s="6">
+        <v>959</v>
+      </c>
+      <c r="AK45" s="6">
+        <v>146</v>
+      </c>
+      <c r="AL45" s="6">
+        <v>363</v>
+      </c>
+      <c r="AM45" s="6">
+        <v>400</v>
+      </c>
+      <c r="AN45" s="6">
+        <v>402</v>
+      </c>
+      <c r="AO45" s="6">
+        <v>135</v>
+      </c>
+      <c r="AP45" s="6">
+        <v>196</v>
+      </c>
+      <c r="AQ45" s="6">
+        <v>220</v>
+      </c>
+      <c r="AR45" s="6">
+        <v>281</v>
+      </c>
+      <c r="AS45" s="6">
+        <v>237</v>
+      </c>
+      <c r="AY45" s="1">
+        <f t="shared" si="1"/>
+        <v>811</v>
+      </c>
+      <c r="AZ45" s="1">
+        <f t="shared" si="2"/>
+        <v>798</v>
+      </c>
+      <c r="BA45" s="1">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+      <c r="BB45" s="1">
+        <f t="shared" si="4"/>
+        <v>2580</v>
+      </c>
+      <c r="BC45" s="1">
+        <f t="shared" si="5"/>
+        <v>547</v>
+      </c>
+      <c r="BD45" s="1">
+        <f t="shared" si="6"/>
+        <v>-751</v>
+      </c>
+      <c r="BE45" s="1">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="BF45" s="1">
+        <f t="shared" si="8"/>
+        <v>456</v>
+      </c>
+      <c r="BG45" s="1">
+        <f t="shared" si="9"/>
+        <v>1580</v>
+      </c>
+      <c r="BH45" s="1">
+        <f t="shared" si="10"/>
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="46" spans="2:60" s="2" customFormat="1" ht="15">
+      <c r="B46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="7">
+        <v>871</v>
+      </c>
+      <c r="D46" s="7">
+        <v>828</v>
+      </c>
+      <c r="E46" s="7">
+        <v>977</v>
+      </c>
+      <c r="F46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>820</v>
+      </c>
+      <c r="H46" s="7">
+        <v>520</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1095</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1103</v>
+      </c>
+      <c r="K46" s="7">
+        <v>929</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1111</v>
+      </c>
+      <c r="M46" s="7">
+        <v>820</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1164</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1009</v>
+      </c>
+      <c r="P46" s="7">
+        <v>2013</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>-1392</v>
+      </c>
+      <c r="R46" s="7">
+        <v>1465</v>
+      </c>
+      <c r="S46" s="7">
+        <v>1077</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1120</v>
+      </c>
+      <c r="U46" s="7">
+        <v>1271</v>
+      </c>
+      <c r="V46" s="7">
+        <v>1182</v>
+      </c>
+      <c r="W46" s="7">
+        <v>877</v>
+      </c>
+      <c r="X46" s="7">
+        <v>1371</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>1919</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>639</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>491</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>494</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>1279</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>1366</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>769</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>1317</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>1483</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>1493</v>
+      </c>
+      <c r="AI46" s="7">
+        <v>931</v>
+      </c>
+      <c r="AJ46" s="7">
+        <v>435</v>
+      </c>
+      <c r="AK46" s="7">
+        <v>1229</v>
+      </c>
+      <c r="AL46" s="7">
+        <v>1189</v>
+      </c>
+      <c r="AM46" s="7">
+        <v>797</v>
+      </c>
+      <c r="AN46" s="7">
+        <v>911</v>
+      </c>
+      <c r="AO46" s="7">
+        <v>1337</v>
+      </c>
+      <c r="AP46" s="7">
+        <v>660</v>
+      </c>
+      <c r="AQ46" s="7">
+        <v>1049</v>
+      </c>
+      <c r="AR46" s="7">
+        <v>1278</v>
+      </c>
+      <c r="AS46" s="7">
+        <v>1303</v>
+      </c>
+      <c r="AY46" s="2">
+        <f t="shared" si="1"/>
+        <v>2675</v>
+      </c>
+      <c r="AZ46" s="2">
+        <f t="shared" si="2"/>
+        <v>3538</v>
+      </c>
+      <c r="BA46" s="2">
+        <f t="shared" si="3"/>
+        <v>4024</v>
+      </c>
+      <c r="BB46" s="2">
+        <f t="shared" si="4"/>
+        <v>3095</v>
+      </c>
+      <c r="BC46" s="2">
+        <f t="shared" si="5"/>
+        <v>4650</v>
+      </c>
+      <c r="BD46" s="2">
+        <f t="shared" si="6"/>
+        <v>4806</v>
+      </c>
+      <c r="BE46" s="2">
+        <f t="shared" si="7"/>
+        <v>3630</v>
+      </c>
+      <c r="BF46" s="2">
+        <f t="shared" si="8"/>
+        <v>5062</v>
+      </c>
+      <c r="BG46" s="2">
+        <f t="shared" si="9"/>
+        <v>3784</v>
+      </c>
+      <c r="BH46" s="2">
+        <f t="shared" si="10"/>
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="47" spans="2:60">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+    </row>
+    <row r="48" spans="2:60">
+      <c r="B48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" ref="C48:AR48" si="11">C38/C36</f>
+        <v>0.74139948513924647</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.73843334860284016</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.73876794812413149</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.59830230010952901</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.66235908715974701</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.69084726551430997</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.69123161234496688</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68772300779701334</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68448227742115542</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68332198774676656</v>
+      </c>
+      <c r="M48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68858986681312651</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.69188984335522996</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68173207036535854</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6988652482269504</v>
+      </c>
+      <c r="Q48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.70226625050888858</v>
+      </c>
+      <c r="R48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.70555009823182713</v>
+      </c>
+      <c r="S48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.70151679306608883</v>
+      </c>
+      <c r="T48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.70552065231920869</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6998409753511794</v>
+      </c>
+      <c r="V48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.69518782224404618</v>
+      </c>
+      <c r="W48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68423862271453362</v>
+      </c>
+      <c r="X48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68933298728263692</v>
+      </c>
+      <c r="Y48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68899831540754175</v>
+      </c>
+      <c r="Z48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.62247790561947636</v>
+      </c>
+      <c r="AA48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6150299677270632</v>
+      </c>
+      <c r="AB48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.64626650974238264</v>
+      </c>
+      <c r="AC48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.66289389067524118</v>
+      </c>
+      <c r="AD48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.67611138251099168</v>
+      </c>
+      <c r="AE48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.67472142231125576</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6817892188097362</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.68324101507149293</v>
+      </c>
+      <c r="AH48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6796884658177772</v>
+      </c>
+      <c r="AI48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.65866232532899205</v>
+      </c>
+      <c r="AJ48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.66578773895847065</v>
+      </c>
+      <c r="AK48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.65199948233467064</v>
+      </c>
+      <c r="AL48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.65133426966292129</v>
+      </c>
+      <c r="AM48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6587899246948844</v>
+      </c>
+      <c r="AN48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.65418336673346689</v>
+      </c>
+      <c r="AO48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6560761528000989</v>
+      </c>
+      <c r="AP48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6454767726161369</v>
+      </c>
+      <c r="AQ48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.65116866708780796</v>
+      </c>
+      <c r="AR48" s="8">
+        <f t="shared" si="11"/>
+        <v>0.6494109246697608</v>
+      </c>
+      <c r="AS48" s="8">
+        <f>AS38/AS36</f>
+        <v>0.66485769416304874</v>
+      </c>
+      <c r="AY48" s="5">
+        <f t="shared" ref="AY48:BG48" si="12">AY38/AY36</f>
+        <v>0.68861359261635657</v>
+      </c>
+      <c r="AZ48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.68293275066763781</v>
+      </c>
+      <c r="BA48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.68717603500504876</v>
+      </c>
+      <c r="BB48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.69729242479885156</v>
+      </c>
+      <c r="BC48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.70039598128088487</v>
+      </c>
+      <c r="BD48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.67405665271677095</v>
+      </c>
+      <c r="BE48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.6519241624331773</v>
+      </c>
+      <c r="BF48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.67982705295714196</v>
+      </c>
+      <c r="BG48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.65673936016908441</v>
+      </c>
+      <c r="BH48" s="5">
+        <f>BH38/BH36</f>
+        <v>0.65344209615622295</v>
+      </c>
+    </row>
+    <row r="49" spans="2:60">
+      <c r="B49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" ref="C49:AR49" si="13">C42/C36</f>
+        <v>0.25462204540135736</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.23591387998167659</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.29527559055118108</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="13"/>
+        <v>5.106790799561884E-2</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.155485290074237</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18418815528478322</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.1954139025093741</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.20814061054579094</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16285235835891712</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18856364874063988</v>
+      </c>
+      <c r="M49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.15749004531099822</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.21273370389085397</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18700947225981054</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16978723404255319</v>
+      </c>
+      <c r="Q49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.19487040303976116</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.32232318271119842</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16738894907908991</v>
+      </c>
+      <c r="T49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.20638952011763134</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.20434667373442883</v>
+      </c>
+      <c r="V49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.23889025288485147</v>
+      </c>
+      <c r="W49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.19818497264113172</v>
+      </c>
+      <c r="X49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.17531793407734234</v>
+      </c>
+      <c r="Y49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.21238823376959959</v>
+      </c>
+      <c r="Z49" s="8">
+        <f t="shared" si="13"/>
+        <v>5.2693013173253291E-2</v>
+      </c>
+      <c r="AA49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.10342707853081297</v>
+      </c>
+      <c r="AB49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.12161632012553943</v>
+      </c>
+      <c r="AC49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16424437299035369</v>
+      </c>
+      <c r="AD49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.19589643380556912</v>
+      </c>
+      <c r="AE49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.10754976837360711</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.19918440168217152</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.21370604147880973</v>
+      </c>
+      <c r="AH49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.20657683273581406</v>
+      </c>
+      <c r="AI49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.15262515262515264</v>
+      </c>
+      <c r="AJ49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18510217534607779</v>
+      </c>
+      <c r="AK49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.1801475346188689</v>
+      </c>
+      <c r="AL49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18305243445692884</v>
+      </c>
+      <c r="AM49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16463256297065698</v>
+      </c>
+      <c r="AN49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16783567134268537</v>
+      </c>
+      <c r="AO49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18333539374459143</v>
+      </c>
+      <c r="AP49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.12259867272092211</v>
+      </c>
+      <c r="AQ49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.16146557169930512</v>
+      </c>
+      <c r="AR49" s="8">
+        <f t="shared" si="13"/>
+        <v>0.18981316196596454</v>
+      </c>
+      <c r="AS49" s="8">
+        <f>AS42/AS36</f>
+        <v>0.19850458273034249</v>
+      </c>
+      <c r="AY49" s="5">
+        <f t="shared" ref="AY49:BG49" si="14">AY42/AY36</f>
+        <v>0.18587433986476481</v>
+      </c>
+      <c r="AZ49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.18593278535011964</v>
+      </c>
+      <c r="BA49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1811847862672501</v>
+      </c>
+      <c r="BB49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.22168063299168697</v>
+      </c>
+      <c r="BC49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.20512484864351868</v>
+      </c>
+      <c r="BD49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.16570400857745651</v>
+      </c>
+      <c r="BE49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.14888601122289738</v>
+      </c>
+      <c r="BF49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.18153127564223948</v>
+      </c>
+      <c r="BG49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.17564927786851123</v>
+      </c>
+      <c r="BH49" s="5">
+        <f>BH42/BH36</f>
+        <v>0.15894203435916451</v>
+      </c>
+    </row>
+    <row r="50" spans="2:60">
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" ref="C50:AR50" si="15">C46/C36</f>
+        <v>0.20383805289024104</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.18964727439303711</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.22626215840666974</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="15"/>
+        <v>-1.3691128148959474E-4</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.11273027220236459</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="15"/>
+        <v>7.3675262113913287E-2</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.15791750793192963</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.14576450376635391</v>
+      </c>
+      <c r="K50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.12963996650851242</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.15125936010891763</v>
+      </c>
+      <c r="M50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.11259096526156803</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.14704396159676605</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.13653585926928283</v>
+      </c>
+      <c r="P50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.28553191489361701</v>
+      </c>
+      <c r="Q50" s="8">
+        <f t="shared" si="15"/>
+        <v>-0.18889944361514452</v>
+      </c>
+      <c r="R50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.17988703339882123</v>
+      </c>
+      <c r="S50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.14585590465872156</v>
+      </c>
+      <c r="T50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.14971260526667557</v>
+      </c>
+      <c r="U50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.1684336072091174</v>
+      </c>
+      <c r="V50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.14510189049840413</v>
+      </c>
+      <c r="W50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.11704257306819699</v>
+      </c>
+      <c r="X50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.17791331430054502</v>
+      </c>
+      <c r="Y50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.24867176363871971</v>
+      </c>
+      <c r="Z50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.10655327663831916</v>
+      </c>
+      <c r="AA50" s="8">
+        <f t="shared" si="15"/>
+        <v>7.5457199938527744E-2</v>
+      </c>
+      <c r="AB50" s="8">
+        <f t="shared" si="15"/>
+        <v>6.4600496926899439E-2</v>
+      </c>
+      <c r="AC50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.16450160771704181</v>
+      </c>
+      <c r="AD50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.16682950659501711</v>
+      </c>
+      <c r="AE50" s="8">
+        <f t="shared" si="15"/>
+        <v>9.6281457368223369E-2</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.16783484134063972</v>
+      </c>
+      <c r="AG50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.19103439391987634</v>
+      </c>
+      <c r="AH50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.18457164049944369</v>
+      </c>
+      <c r="AI50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.12630579297245964</v>
+      </c>
+      <c r="AJ50" s="8">
+        <f t="shared" si="15"/>
+        <v>5.7350032959789056E-2</v>
+      </c>
+      <c r="AK50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.15905267244726284</v>
+      </c>
+      <c r="AL50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.13916198501872659</v>
+      </c>
+      <c r="AM50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.10347961568423786</v>
+      </c>
+      <c r="AN50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.11410320641282565</v>
+      </c>
+      <c r="AO50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.16528619112374829</v>
+      </c>
+      <c r="AP50" s="8">
+        <f t="shared" si="15"/>
+        <v>7.6842472930492484E-2</v>
+      </c>
+      <c r="AQ50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.13253316487681618</v>
+      </c>
+      <c r="AR50" s="8">
+        <f t="shared" si="15"/>
+        <v>0.15208853980721171</v>
+      </c>
+      <c r="AS50" s="8">
+        <f>AS46/AS36</f>
+        <v>0.15713941148094548</v>
+      </c>
+      <c r="AY50" s="5">
+        <f t="shared" ref="AY50:BG50" si="16">AY46/AY36</f>
+        <v>0.13202704703617787</v>
+      </c>
+      <c r="AZ50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.12270662088579058</v>
+      </c>
+      <c r="BA50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.13544261191518006</v>
+      </c>
+      <c r="BB50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.10332854805862518</v>
+      </c>
+      <c r="BC50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.15217462447229768</v>
+      </c>
+      <c r="BD50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.16622280635008474</v>
+      </c>
+      <c r="BE50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.12052993326028488</v>
+      </c>
+      <c r="BF50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.15975509688821563</v>
+      </c>
+      <c r="BG50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.12117718640919717</v>
+      </c>
+      <c r="BH50" s="5">
+        <f>BH46/BH36</f>
+        <v>0.11447905079718206</v>
+      </c>
+    </row>
+    <row r="51" spans="2:60">
+      <c r="B51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" ref="C51:AR51" si="17">C40/C36</f>
+        <v>8.5420079569389185E-2</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.5661933119560232E-2</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.6382584529874948E-2</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.6711575474291999E-2</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.7217342023236046E-2</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.8742428612633406E-2</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.598784194528875E-2</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.7588612894222725E-2</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.5425459496255953E-2</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.2772209254428122E-2</v>
+      </c>
+      <c r="N51" s="8">
+        <f t="shared" si="17"/>
+        <v>6.985851440121274E-2</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.4289580514208392E-2</v>
+      </c>
+      <c r="P51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.886524822695036E-2</v>
+      </c>
+      <c r="Q51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.5858325417288638E-2</v>
+      </c>
+      <c r="R51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.269155206286837E-2</v>
+      </c>
+      <c r="S51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.9225352112676062E-2</v>
+      </c>
+      <c r="T51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.8866461702980881E-2</v>
+      </c>
+      <c r="U51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.4344023323615158E-2</v>
+      </c>
+      <c r="V51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.2919224159096491E-2</v>
+      </c>
+      <c r="W51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.833978379821166E-2</v>
+      </c>
+      <c r="X51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.8250713729561383E-2</v>
+      </c>
+      <c r="Y51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.42516521964494E-2</v>
+      </c>
+      <c r="Z51" s="8">
+        <f t="shared" si="17"/>
+        <v>9.4714023678505926E-2</v>
+      </c>
+      <c r="AA51" s="8">
+        <f t="shared" si="17"/>
+        <v>9.5435684647302899E-2</v>
+      </c>
+      <c r="AB51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.3562181247548065E-2</v>
+      </c>
+      <c r="AC51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.7299035369774921E-2</v>
+      </c>
+      <c r="AD51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.7186126038104541E-2</v>
+      </c>
+      <c r="AE51" s="8">
+        <f t="shared" si="17"/>
+        <v>9.3902591711531244E-2</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.6147572320632082E-2</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.6049207780497225E-2</v>
+      </c>
+      <c r="AH51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.0603288416367908E-2</v>
+      </c>
+      <c r="AI51" s="8">
+        <f t="shared" si="17"/>
+        <v>9.3881427214760546E-2</v>
+      </c>
+      <c r="AJ51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.9123269611074488E-2</v>
+      </c>
+      <c r="AK51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.9038436650705322E-2</v>
+      </c>
+      <c r="AL51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.4906367041198504E-2</v>
+      </c>
+      <c r="AM51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.6730719293689945E-2</v>
+      </c>
+      <c r="AN51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.7424849699398802E-2</v>
+      </c>
+      <c r="AO51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.5919149462232655E-2</v>
+      </c>
+      <c r="AP51" s="8">
+        <f t="shared" si="17"/>
+        <v>7.8472464780533241E-2</v>
+      </c>
+      <c r="AQ51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.54074542008844E-2</v>
+      </c>
+      <c r="AR51" s="8">
+        <f t="shared" si="17"/>
+        <v>8.2946566702368205E-2</v>
+      </c>
+      <c r="AS51" s="8">
+        <f>AS40/AS36</f>
+        <v>8.1403762662807522E-2</v>
+      </c>
+      <c r="AY51" s="5">
+        <f t="shared" ref="AY51:BG51" si="18">AY40/AY36</f>
+        <v>8.094368491189971E-2</v>
+      </c>
+      <c r="AZ51" s="5">
+        <f t="shared" si="18"/>
+        <v>7.7133839697568762E-2</v>
+      </c>
+      <c r="BA51" s="5">
+        <f t="shared" si="18"/>
+        <v>7.3813530797711205E-2</v>
+      </c>
+      <c r="BB51" s="5">
+        <f t="shared" si="18"/>
+        <v>7.5317998197175579E-2</v>
+      </c>
+      <c r="BC51" s="5">
+        <f t="shared" si="18"/>
+        <v>7.6250940864613675E-2</v>
+      </c>
+      <c r="BD51" s="5">
+        <f t="shared" si="18"/>
+        <v>8.0621173866426865E-2</v>
+      </c>
+      <c r="BE51" s="5">
+        <f t="shared" si="18"/>
+        <v>8.2777169040741116E-2</v>
+      </c>
+      <c r="BF51" s="5">
+        <f t="shared" si="18"/>
+        <v>8.666287950514423E-2</v>
+      </c>
+      <c r="BG51" s="5">
+        <f t="shared" si="18"/>
+        <v>8.6335542959618275E-2</v>
+      </c>
+      <c r="BH51" s="5">
+        <f>BH40/BH36</f>
+        <v>8.4507477444073664E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:60">
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="8">
+        <f t="shared" ref="C52:AR52" si="19">C39/C36</f>
+        <v>0.35244558857945235</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34516720109940446</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.3443723946271422</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32913472070098576</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33667858124828154</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33196372910172856</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33415056244591868</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.31188053389718512</v>
+      </c>
+      <c r="K52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33882221602009488</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32893124574540505</v>
+      </c>
+      <c r="M52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32788685981051763</v>
+      </c>
+      <c r="N52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.35194542698332493</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34912043301759133</v>
+      </c>
+      <c r="P52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.36014184397163118</v>
+      </c>
+      <c r="Q52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34238024155244945</v>
+      </c>
+      <c r="R52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.31876227897838899</v>
+      </c>
+      <c r="S52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.35170639219934996</v>
+      </c>
+      <c r="T52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34821547921400881</v>
+      </c>
+      <c r="U52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34402332361516036</v>
+      </c>
+      <c r="V52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32163024797446599</v>
+      </c>
+      <c r="W52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33938342452956094</v>
+      </c>
+      <c r="X52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33999480923955361</v>
+      </c>
+      <c r="Y52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33523389918362057</v>
+      </c>
+      <c r="Z52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.39336334834083708</v>
+      </c>
+      <c r="AA52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.3714461349316121</v>
+      </c>
+      <c r="AB52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34000261540473387</v>
+      </c>
+      <c r="AC52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.3263022508038585</v>
+      </c>
+      <c r="AD52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.31680508060576451</v>
+      </c>
+      <c r="AE52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.31889320145236011</v>
+      </c>
+      <c r="AF52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33324837517522621</v>
+      </c>
+      <c r="AG52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32989823521834344</v>
+      </c>
+      <c r="AH52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.3175917913215478</v>
+      </c>
+      <c r="AI52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34825668159001494</v>
+      </c>
+      <c r="AJ52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.34502307185234016</v>
+      </c>
+      <c r="AK52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33842370907208491</v>
+      </c>
+      <c r="AL52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.3061797752808989</v>
+      </c>
+      <c r="AM52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33926252921319139</v>
+      </c>
+      <c r="AN52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33642284569138275</v>
+      </c>
+      <c r="AO52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33044875757201136</v>
+      </c>
+      <c r="AP52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32180696239375944</v>
+      </c>
+      <c r="AQ52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.33543903979785217</v>
+      </c>
+      <c r="AR52" s="8">
+        <f t="shared" si="19"/>
+        <v>0.32809710817565158</v>
+      </c>
+      <c r="AS52" s="8">
+        <f>AS39/AS36</f>
+        <v>0.32766521948866378</v>
+      </c>
+      <c r="AY52" s="5">
+        <f t="shared" ref="AY52:BG52" si="20">AY39/AY36</f>
+        <v>0.34075317111692416</v>
+      </c>
+      <c r="AZ52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.32840842090660005</v>
+      </c>
+      <c r="BA52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.33719286435543588</v>
+      </c>
+      <c r="BB52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.34180215671218239</v>
+      </c>
+      <c r="BC52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.3409366102693327</v>
+      </c>
+      <c r="BD52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.3496351122332515</v>
+      </c>
+      <c r="BE52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.33695255171497823</v>
+      </c>
+      <c r="BF52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.32481221990784576</v>
+      </c>
+      <c r="BG52" s="5">
+        <f t="shared" si="20"/>
+        <v>0.33352547474941557</v>
+      </c>
+      <c r="BH52" s="5">
+        <f>BH39/BH36</f>
+        <v>0.33172660981337287</v>
+      </c>
+    </row>
+    <row r="53" spans="2:60">
+      <c r="B53" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <f t="shared" ref="E53:AR53" si="21">G36/C36-1</f>
+        <v>0.70231687339106008</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="21"/>
+        <v>0.61658268437929453</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="21"/>
+        <v>0.60583603520148221</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="21"/>
+        <v>3.6007667031763502E-2</v>
+      </c>
+      <c r="K53" s="8">
+        <f t="shared" si="21"/>
+        <v>-1.4847401704701668E-2</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="21"/>
+        <v>4.0663077359025301E-2</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" si="21"/>
+        <v>5.0331698875108133E-2</v>
+      </c>
+      <c r="N53" s="8">
+        <f t="shared" si="21"/>
+        <v>4.6121316241575228E-2</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="21"/>
+        <v>3.1258721741557416E-2</v>
+      </c>
+      <c r="P53" s="8">
+        <f t="shared" si="21"/>
+        <v>-4.0163376446562316E-2</v>
+      </c>
+      <c r="Q53" s="8">
+        <f t="shared" si="21"/>
+        <v>1.1808320746945045E-2</v>
+      </c>
+      <c r="R53" s="8">
+        <f t="shared" si="21"/>
+        <v>2.8802425467407744E-2</v>
+      </c>
+      <c r="S53" s="8">
+        <f t="shared" si="21"/>
+        <v>-8.1190798376185036E-4</v>
+      </c>
+      <c r="T53" s="8">
+        <f t="shared" si="21"/>
+        <v>6.1134751773049612E-2</v>
+      </c>
+      <c r="U53" s="8">
+        <f t="shared" si="21"/>
+        <v>2.4019541321753213E-2</v>
+      </c>
+      <c r="V53" s="8">
+        <f t="shared" si="21"/>
+        <v>2.4557956778004097E-4</v>
+      </c>
+      <c r="W53" s="8">
+        <f t="shared" si="21"/>
+        <v>1.4761646803900241E-2</v>
+      </c>
+      <c r="X53" s="8">
+        <f t="shared" si="21"/>
+        <v>3.0076193022323228E-2</v>
+      </c>
+      <c r="Y53" s="8">
+        <f t="shared" si="21"/>
+        <v>2.2661012456930862E-2</v>
+      </c>
+      <c r="Z53" s="8">
+        <f t="shared" si="21"/>
+        <v>-0.26381045912104095</v>
+      </c>
+      <c r="AA53" s="8">
+        <f t="shared" si="21"/>
+        <v>-0.13158948351795008</v>
+      </c>
+      <c r="AB53" s="8">
+        <f t="shared" si="21"/>
+        <v>-7.6563716584480135E-3</v>
+      </c>
+      <c r="AC53" s="8">
+        <f t="shared" si="21"/>
+        <v>7.5158740443177496E-3</v>
+      </c>
+      <c r="AD53" s="8">
+        <f t="shared" si="21"/>
+        <v>0.36534934133733543</v>
+      </c>
+      <c r="AE53" s="8">
+        <f t="shared" si="21"/>
+        <v>0.22744736437682489</v>
+      </c>
+      <c r="AF53" s="8">
+        <f t="shared" si="21"/>
+        <v>2.6154047338825759E-2</v>
+      </c>
+      <c r="AG53" s="8">
+        <f t="shared" si="21"/>
+        <v>-1.543408360128562E-3</v>
+      </c>
+      <c r="AH53" s="8">
+        <f t="shared" si="21"/>
+        <v>-1.209086468001952E-2</v>
+      </c>
+      <c r="AI53" s="8">
+        <f t="shared" si="21"/>
+        <v>-7.7125328659070957E-2</v>
+      </c>
+      <c r="AJ53" s="8">
+        <f t="shared" si="21"/>
+        <v>-3.338855613610292E-2</v>
+      </c>
+      <c r="AK53" s="8">
+        <f t="shared" si="21"/>
+        <v>-4.6373824552363718E-3</v>
+      </c>
+      <c r="AL53" s="8">
+        <f t="shared" si="21"/>
+        <v>5.6249227345778197E-2</v>
+      </c>
+      <c r="AM53" s="8">
+        <f t="shared" si="21"/>
+        <v>4.4905711572378326E-2</v>
+      </c>
+      <c r="AN53" s="8">
+        <f t="shared" si="21"/>
+        <v>5.2603823335530597E-2</v>
+      </c>
+      <c r="AO53" s="8">
+        <f t="shared" si="21"/>
+        <v>4.6848712307493212E-2</v>
+      </c>
+      <c r="AP53" s="8">
+        <f t="shared" si="21"/>
+        <v>5.2668539325841923E-3</v>
+      </c>
+      <c r="AQ53" s="8">
+        <f t="shared" si="21"/>
+        <v>2.7655154505323187E-2</v>
+      </c>
+      <c r="AR53" s="8">
+        <f t="shared" si="21"/>
+        <v>5.247995991983978E-2</v>
+      </c>
+      <c r="AS53" s="8">
+        <f>AS36/AO36-1</f>
+        <v>2.5095809123500956E-2</v>
+      </c>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5">
+        <f t="shared" ref="AZ53:BG53" si="22">AZ36/AY36-1</f>
+        <v>0.42307882138097819</v>
+      </c>
+      <c r="BA53" s="5">
+        <f t="shared" si="22"/>
+        <v>3.0416536607359657E-2</v>
+      </c>
+      <c r="BB53" s="5">
+        <f t="shared" si="22"/>
+        <v>8.1790642881185427E-3</v>
+      </c>
+      <c r="BC53" s="5">
+        <f t="shared" si="22"/>
+        <v>2.016492504924372E-2</v>
+      </c>
+      <c r="BD53" s="5">
+        <f t="shared" si="22"/>
+        <v>-5.380109303923819E-2</v>
+      </c>
+      <c r="BE53" s="5">
+        <f t="shared" si="22"/>
+        <v>4.1642167882959269E-2</v>
+      </c>
+      <c r="BF53" s="5">
+        <f t="shared" si="22"/>
+        <v>5.2096822392668551E-2</v>
+      </c>
+      <c r="BG53" s="5">
+        <f t="shared" si="22"/>
+        <v>-1.4485892823328905E-2</v>
+      </c>
+      <c r="BH53" s="5">
+        <f>BH36/BG36-1</f>
+        <v>3.6410798347583873E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AY36:BH46" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321E24C-0191-487C-B84A-246ABE31D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A373CB62-5F7B-423C-B48E-3C66281ED3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <dimension ref="B2:DD53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BA34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AW49" sqref="AW49"/>
@@ -4124,7 +4124,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8">
-        <f t="shared" ref="E53:AR53" si="21">G36/C36-1</f>
+        <f t="shared" ref="G53:AR53" si="21">G36/C36-1</f>
         <v>0.70231687339106008</v>
       </c>
       <c r="H53" s="8">

--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A373CB62-5F7B-423C-B48E-3C66281ED3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D9D187-DB40-42D1-90AB-69EF4477BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="900" windowWidth="14400" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9159560F-DD3D-4E7F-8494-EDE11D0C09B0}">
   <dimension ref="B2:DD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F83DB-1B72-4640-9BA6-6DF30CD6820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3E1F73-964A-4D2D-8348-FE925587400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="10110" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7521,16 +7521,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF006666"/>
+      <color rgb="FFC14F93"/>
+      <color rgb="FF94346D"/>
+      <color rgb="FFCC0099"/>
+      <color rgb="FFD98FBB"/>
       <color rgb="FF2C4D88"/>
-      <color rgb="FFD98FBB"/>
-      <color rgb="FFC14F93"/>
       <color rgb="FFB03E82"/>
       <color rgb="FF00CCC7"/>
       <color rgb="FF00A29E"/>
-      <color rgb="FF006666"/>
       <color rgb="FFCF73AA"/>
-      <color rgb="FF94346D"/>
-      <color rgb="FF5881CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -14780,7 +14780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -15112,7 +15112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:DV109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="Z42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -15805,19 +15805,19 @@
         <v>1545</v>
       </c>
       <c r="BG4" s="1">
-        <f>SUM(AA4:AD4)</f>
+        <f t="shared" ref="BG4:BG19" si="2">SUM(AA4:AD4)</f>
         <v>5584</v>
       </c>
       <c r="BH4" s="1">
-        <f>SUM(AE4:AH4)</f>
+        <f t="shared" ref="BH4:BH19" si="3">SUM(AE4:AH4)</f>
         <v>5908</v>
       </c>
       <c r="BI4" s="1">
-        <f>SUM(AI4:AL4)</f>
+        <f t="shared" ref="BI4:BI19" si="4">SUM(AI4:AL4)</f>
         <v>5783</v>
       </c>
       <c r="BJ4" s="1">
-        <f>SUM(AM4:AP4)</f>
+        <f t="shared" ref="BJ4:BJ19" si="5">SUM(AM4:AP4)</f>
         <v>5995</v>
       </c>
     </row>
@@ -15887,19 +15887,19 @@
         <v>874</v>
       </c>
       <c r="BG5" s="1">
-        <f>SUM(AA5:AD5)</f>
+        <f t="shared" si="2"/>
         <v>2834</v>
       </c>
       <c r="BH5" s="1">
-        <f>SUM(AE5:AH5)</f>
+        <f t="shared" si="3"/>
         <v>3055</v>
       </c>
       <c r="BI5" s="1">
-        <f>SUM(AI5:AL5)</f>
+        <f t="shared" si="4"/>
         <v>3363</v>
       </c>
       <c r="BJ5" s="1">
-        <f>SUM(AM5:AP5)</f>
+        <f t="shared" si="5"/>
         <v>3358</v>
       </c>
     </row>
@@ -15969,19 +15969,19 @@
         <v>618</v>
       </c>
       <c r="BG6" s="1">
-        <f>SUM(AA6:AD6)</f>
+        <f t="shared" si="2"/>
         <v>2354</v>
       </c>
       <c r="BH6" s="1">
-        <f>SUM(AE6:AH6)</f>
+        <f t="shared" si="3"/>
         <v>2460</v>
       </c>
       <c r="BI6" s="1">
-        <f>SUM(AI6:AL6)</f>
+        <f t="shared" si="4"/>
         <v>2375</v>
       </c>
       <c r="BJ6" s="1">
-        <f>SUM(AM6:AP6)</f>
+        <f t="shared" si="5"/>
         <v>2478</v>
       </c>
     </row>
@@ -15990,75 +15990,75 @@
         <v>2210</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AR7" si="2">SUM(AA4:AA6)</f>
+        <f t="shared" ref="AA7:AR7" si="6">SUM(AA4:AA6)</f>
         <v>2432</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2726</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2707</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2907</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2890</v>
       </c>
       <c r="AF7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2827</v>
       </c>
       <c r="AG7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2745</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" ref="AH7:AK7" si="3">SUM(AH4:AH6)</f>
+        <f t="shared" ref="AH7:AK7" si="7">SUM(AH4:AH6)</f>
         <v>2961</v>
       </c>
       <c r="AI7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2701</v>
       </c>
       <c r="AJ7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2772</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2772</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3276</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2849</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2923</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2929</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3130</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3007</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3102</v>
       </c>
       <c r="AS7" s="2">
@@ -16073,19 +16073,19 @@
       <c r="BA7" s="35"/>
       <c r="BB7" s="35"/>
       <c r="BG7" s="2">
-        <f>SUM(AA7:AD7)</f>
+        <f t="shared" si="2"/>
         <v>10772</v>
       </c>
       <c r="BH7" s="2">
-        <f>SUM(AE7:AH7)</f>
+        <f t="shared" si="3"/>
         <v>11423</v>
       </c>
       <c r="BI7" s="2">
-        <f>SUM(AI7:AL7)</f>
+        <f t="shared" si="4"/>
         <v>11521</v>
       </c>
       <c r="BJ7" s="2">
-        <f>SUM(AM7:AP7)</f>
+        <f t="shared" si="5"/>
         <v>11831</v>
       </c>
       <c r="BK7" s="66">
@@ -16093,19 +16093,19 @@
         <v>12511.282500000001</v>
       </c>
       <c r="BL7" s="66">
-        <f t="shared" ref="BL7:BO7" si="4">BK7*(1+BL21)</f>
+        <f t="shared" ref="BL7:BO7" si="8">BK7*(1+BL21)</f>
         <v>13261.959450000002</v>
       </c>
       <c r="BM7" s="66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14190.296611500004</v>
       </c>
       <c r="BN7" s="66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14757.908475960005</v>
       </c>
       <c r="BO7" s="66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15126.856187859003</v>
       </c>
       <c r="BP7" s="63"/>
@@ -16231,19 +16231,19 @@
         <v>1250</v>
       </c>
       <c r="BG8" s="1">
-        <f>SUM(AA8:AD8)</f>
+        <f t="shared" si="2"/>
         <v>4288</v>
       </c>
       <c r="BH8" s="1">
-        <f>SUM(AE8:AH8)</f>
+        <f t="shared" si="3"/>
         <v>4456</v>
       </c>
       <c r="BI8" s="1">
-        <f>SUM(AI8:AL8)</f>
+        <f t="shared" si="4"/>
         <v>4451</v>
       </c>
       <c r="BJ8" s="1">
-        <f>SUM(AM8:AP8)</f>
+        <f t="shared" si="5"/>
         <v>4756</v>
       </c>
     </row>
@@ -16313,19 +16313,19 @@
         <v>732</v>
       </c>
       <c r="BG9" s="1">
-        <f>SUM(AA9:AD9)</f>
+        <f t="shared" si="2"/>
         <v>2307</v>
       </c>
       <c r="BH9" s="1">
-        <f>SUM(AE9:AH9)</f>
+        <f t="shared" si="3"/>
         <v>2592</v>
       </c>
       <c r="BI9" s="1">
-        <f>SUM(AI9:AL9)</f>
+        <f t="shared" si="4"/>
         <v>2815</v>
       </c>
       <c r="BJ9" s="1">
-        <f>SUM(AM9:AP9)</f>
+        <f t="shared" si="5"/>
         <v>2905</v>
       </c>
     </row>
@@ -16395,19 +16395,19 @@
         <v>476</v>
       </c>
       <c r="BG10" s="1">
-        <f>SUM(AA10:AD10)</f>
+        <f t="shared" si="2"/>
         <v>1601</v>
       </c>
       <c r="BH10" s="1">
-        <f>SUM(AE10:AH10)</f>
+        <f t="shared" si="3"/>
         <v>1735</v>
       </c>
       <c r="BI10" s="1">
-        <f>SUM(AI10:AL10)</f>
+        <f t="shared" si="4"/>
         <v>1693</v>
       </c>
       <c r="BJ10" s="1">
-        <f>SUM(AM10:AP10)</f>
+        <f t="shared" si="5"/>
         <v>1745</v>
       </c>
     </row>
@@ -16416,75 +16416,75 @@
         <v>2214</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" ref="AA11:AR11" si="5">SUM(AA8:AA10)</f>
+        <f t="shared" ref="AA11:AR11" si="9">SUM(AA8:AA10)</f>
         <v>1711</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2063</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2126</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2296</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2204</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2136</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2144</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2299</v>
       </c>
       <c r="AI11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2115</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2186</v>
       </c>
       <c r="AK11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2248</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2410</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2219</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2288</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2355</v>
       </c>
       <c r="AP11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2544</v>
       </c>
       <c r="AQ11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2317</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2451</v>
       </c>
       <c r="AS11" s="2">
@@ -16499,19 +16499,19 @@
       <c r="BA11" s="35"/>
       <c r="BB11" s="35"/>
       <c r="BG11" s="2">
-        <f>SUM(AA11:AD11)</f>
+        <f t="shared" si="2"/>
         <v>8196</v>
       </c>
       <c r="BH11" s="2">
-        <f>SUM(AE11:AH11)</f>
+        <f t="shared" si="3"/>
         <v>8783</v>
       </c>
       <c r="BI11" s="2">
-        <f>SUM(AI11:AL11)</f>
+        <f t="shared" si="4"/>
         <v>8959</v>
       </c>
       <c r="BJ11" s="2">
-        <f>SUM(AM11:AP11)</f>
+        <f t="shared" si="5"/>
         <v>9406</v>
       </c>
       <c r="BK11" s="66">
@@ -16519,19 +16519,19 @@
         <v>9688.18</v>
       </c>
       <c r="BL11" s="66">
-        <f t="shared" ref="BL11:BO11" si="6">BK11*(1+BL22)</f>
+        <f t="shared" ref="BL11:BO11" si="10">BK11*(1+BL22)</f>
         <v>10269.470800000001</v>
       </c>
       <c r="BM11" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10782.944340000002</v>
       </c>
       <c r="BN11" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11268.176835300001</v>
       </c>
       <c r="BO11" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11380.858603653001</v>
       </c>
       <c r="BP11" s="66"/>
@@ -16657,19 +16657,19 @@
         <v>1596</v>
       </c>
       <c r="BG12" s="1">
-        <f>SUM(AA12:AD12)</f>
+        <f t="shared" si="2"/>
         <v>5438</v>
       </c>
       <c r="BH12" s="1">
-        <f>SUM(AE12:AH12)</f>
+        <f t="shared" si="3"/>
         <v>6060</v>
       </c>
       <c r="BI12" s="1">
-        <f>SUM(AI12:AL12)</f>
+        <f t="shared" si="4"/>
         <v>5852</v>
       </c>
       <c r="BJ12" s="1">
-        <f>SUM(AM12:AP12)</f>
+        <f t="shared" si="5"/>
         <v>6508</v>
       </c>
     </row>
@@ -16739,19 +16739,19 @@
         <v>476</v>
       </c>
       <c r="BG13" s="1">
-        <f>SUM(AA13:AD13)</f>
+        <f t="shared" si="2"/>
         <v>3298</v>
       </c>
       <c r="BH13" s="1">
-        <f>SUM(AE13:AH13)</f>
+        <f t="shared" si="3"/>
         <v>3081</v>
       </c>
       <c r="BI13" s="1">
-        <f>SUM(AI13:AL13)</f>
+        <f t="shared" si="4"/>
         <v>2137</v>
       </c>
       <c r="BJ13" s="1">
-        <f>SUM(AM13:AP13)</f>
+        <f t="shared" si="5"/>
         <v>1908</v>
       </c>
     </row>
@@ -16760,75 +16760,75 @@
         <v>2217</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" ref="AA14:AR14" si="7">SUM(AA12:AA13)</f>
+        <f t="shared" ref="AA14:AR14" si="11">SUM(AA12:AA13)</f>
         <v>1800</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2286</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2313</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2337</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2322</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2299</v>
       </c>
       <c r="AG14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2290</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2230</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1934</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2070</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2137</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1848</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2005</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2103</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2112</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2196</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1996</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2127</v>
       </c>
       <c r="AS14" s="2">
@@ -16843,19 +16843,19 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="35"/>
       <c r="BG14" s="2">
-        <f>SUM(AA14:AD14)</f>
+        <f t="shared" si="2"/>
         <v>8736</v>
       </c>
       <c r="BH14" s="2">
-        <f>SUM(AE14:AH14)</f>
+        <f t="shared" si="3"/>
         <v>9141</v>
       </c>
       <c r="BI14" s="2">
-        <f>SUM(AI14:AL14)</f>
+        <f t="shared" si="4"/>
         <v>7989</v>
       </c>
       <c r="BJ14" s="2">
-        <f>SUM(AM14:AP14)</f>
+        <f t="shared" si="5"/>
         <v>8416</v>
       </c>
       <c r="BK14" s="66">
@@ -16867,15 +16867,15 @@
         <v>8713.0848000000005</v>
       </c>
       <c r="BM14" s="66">
-        <f t="shared" ref="BL14:BO14" si="8">BL14*(1+BM24)</f>
+        <f t="shared" ref="BM14:BO14" si="12">BL14*(1+BM24)</f>
         <v>9061.6081920000015</v>
       </c>
       <c r="BN14" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9605.3046835200021</v>
       </c>
       <c r="BO14" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9701.3577303552029</v>
       </c>
       <c r="BP14" s="66"/>
@@ -17001,19 +17001,19 @@
         <v>693</v>
       </c>
       <c r="BG15" s="1">
-        <f>SUM(AA15:AD15)</f>
+        <f t="shared" si="2"/>
         <v>2410</v>
       </c>
       <c r="BH15" s="1">
-        <f>SUM(AE15:AH15)</f>
+        <f t="shared" si="3"/>
         <v>2339</v>
       </c>
       <c r="BI15" s="1">
-        <f>SUM(AI15:AL15)</f>
+        <f t="shared" si="4"/>
         <v>2262</v>
       </c>
       <c r="BJ15" s="1">
-        <f>SUM(AM15:AP15)</f>
+        <f t="shared" si="5"/>
         <v>2488</v>
       </c>
     </row>
@@ -17083,19 +17083,19 @@
         <v>32</v>
       </c>
       <c r="BG16" s="1">
-        <f>SUM(AA16:AD16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <f>SUM(AE16:AH16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <f>SUM(AI16:AL16)</f>
+        <f t="shared" si="4"/>
         <v>496</v>
       </c>
       <c r="BJ16" s="1">
-        <f>SUM(AM16:AP16)</f>
+        <f t="shared" si="5"/>
         <v>223</v>
       </c>
     </row>
@@ -17164,19 +17164,19 @@
         <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <f>SUM(AA17:AD17)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BH17" s="1">
-        <f>SUM(AE17:AH17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <f>SUM(AI17:AL17)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BJ17" s="1">
-        <f>SUM(AM17:AP17)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17185,79 +17185,79 @@
         <v>2221</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" ref="AA18:AL18" si="9">SUM(AA15:AA17)</f>
+        <f t="shared" ref="AA18:AL18" si="13">SUM(AA15:AA17)</f>
         <v>564</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>572</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>629</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>648</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>571</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>585</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>584</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>599</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>621</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>557</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>570</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1010</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" ref="AM18:AS18" si="10">SUM(AM15:AM17)</f>
+        <f t="shared" ref="AM18:AS18" si="14">SUM(AM15:AM17)</f>
         <v>629</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>670</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>693</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>719</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>595</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>723</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>725</v>
       </c>
       <c r="AV18" s="35"/>
@@ -17268,19 +17268,19 @@
       <c r="BA18" s="35"/>
       <c r="BB18" s="35"/>
       <c r="BG18" s="2">
-        <f>SUM(AA18:AD18)</f>
+        <f t="shared" si="2"/>
         <v>2413</v>
       </c>
       <c r="BH18" s="2">
-        <f>SUM(AE18:AH18)</f>
+        <f t="shared" si="3"/>
         <v>2339</v>
       </c>
       <c r="BI18" s="2">
-        <f>SUM(AI18:AL18)</f>
+        <f t="shared" si="4"/>
         <v>2758</v>
       </c>
       <c r="BJ18" s="2">
-        <f>SUM(AM18:AP18)</f>
+        <f t="shared" si="5"/>
         <v>2711</v>
       </c>
       <c r="BK18" s="66">
@@ -17288,19 +17288,19 @@
         <v>2751.6649999999995</v>
       </c>
       <c r="BL18" s="66">
-        <f t="shared" ref="BL18:BO18" si="11">BK18*(1+BL24)</f>
+        <f t="shared" ref="BL18:BO18" si="15">BK18*(1+BL24)</f>
         <v>2806.6982999999996</v>
       </c>
       <c r="BM18" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2918.9662319999998</v>
       </c>
       <c r="BN18" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3094.1042059199999</v>
       </c>
       <c r="BO18" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3125.0452479791998</v>
       </c>
       <c r="BP18" s="63"/>
@@ -17365,79 +17365,79 @@
         <v>96</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" ref="AA19:AL19" si="12">AA7+AA11+AA14+AA18</f>
+        <f t="shared" ref="AA19:AL19" si="16">AA7+AA11+AA14+AA18</f>
         <v>6507</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7647</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7775</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8188</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7987</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7847</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7763</v>
       </c>
       <c r="AH19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8089</v>
       </c>
       <c r="AI19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7371</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7585</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7727</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8544</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" ref="AM19:AS19" si="13">AM7+AM11+AM14+AM18</f>
+        <f t="shared" ref="AM19:AS19" si="17">AM7+AM11+AM14+AM18</f>
         <v>7702</v>
       </c>
       <c r="AN19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7984</v>
       </c>
       <c r="AO19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8089</v>
       </c>
       <c r="AP19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8589</v>
       </c>
       <c r="AQ19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7915</v>
       </c>
       <c r="AR19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8403</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8292</v>
       </c>
       <c r="AV19" s="35"/>
@@ -17448,19 +17448,19 @@
       <c r="BA19" s="35"/>
       <c r="BB19" s="35"/>
       <c r="BG19" s="2">
-        <f>SUM(AA19:AD19)</f>
+        <f t="shared" si="2"/>
         <v>30117</v>
       </c>
       <c r="BH19" s="2">
-        <f>SUM(AE19:AH19)</f>
+        <f t="shared" si="3"/>
         <v>31686</v>
       </c>
       <c r="BI19" s="2">
-        <f>SUM(AI19:AL19)</f>
+        <f t="shared" si="4"/>
         <v>31227</v>
       </c>
       <c r="BJ19" s="2">
-        <f>SUM(AM19:AP19)</f>
+        <f t="shared" si="5"/>
         <v>32364</v>
       </c>
       <c r="BK19" s="66">
@@ -17468,19 +17468,19 @@
         <v>33493.3675</v>
       </c>
       <c r="BL19" s="66">
-        <f t="shared" ref="BL19:BO19" si="14">BL7+BL11+BL14+BL18</f>
+        <f t="shared" ref="BL19:BO19" si="18">BL7+BL11+BL14+BL18</f>
         <v>35051.213350000005</v>
       </c>
       <c r="BM19" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36953.815375500002</v>
       </c>
       <c r="BN19" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>38725.494200700006</v>
       </c>
       <c r="BO19" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>39334.117769846409</v>
       </c>
       <c r="BP19" s="63"/>
@@ -17552,59 +17552,59 @@
       <c r="AC21" s="46"/>
       <c r="AD21" s="46"/>
       <c r="AE21" s="46">
-        <f t="shared" ref="AE21:AR21" si="15">AE7/AA7-1</f>
+        <f t="shared" ref="AE21:AR21" si="19">AE7/AA7-1</f>
         <v>0.18832236842105265</v>
       </c>
       <c r="AF21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.7050623624357959E-2</v>
       </c>
       <c r="AG21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.4037680088659021E-2</v>
       </c>
       <c r="AH21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.8575851393188847E-2</v>
       </c>
       <c r="AI21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-6.5397923875432529E-2</v>
       </c>
       <c r="AJ21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1.945525291828798E-2</v>
       </c>
       <c r="AK21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.8360655737705915E-3</v>
       </c>
       <c r="AL21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.1063829787234043</v>
       </c>
       <c r="AM21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="AN21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.4473304473304562E-2</v>
       </c>
       <c r="AO21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.6637806637806598E-2</v>
       </c>
       <c r="AP21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4.4566544566544519E-2</v>
       </c>
       <c r="AQ21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.5458055458055489E-2</v>
       </c>
       <c r="AR21" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.1238453643516877E-2</v>
       </c>
       <c r="AS21" s="46">
@@ -17613,11 +17613,11 @@
       </c>
       <c r="BG21" s="46"/>
       <c r="BH21" s="46">
-        <f t="shared" ref="BH21:BI21" si="16">BH7/BG7-1</f>
+        <f t="shared" ref="BH21:BI21" si="20">BH7/BG7-1</f>
         <v>6.04344597103601E-2</v>
       </c>
       <c r="BI21" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.5791823513963195E-3</v>
       </c>
       <c r="BJ21" s="46">
@@ -17651,59 +17651,59 @@
       <c r="AC22" s="46"/>
       <c r="AD22" s="46"/>
       <c r="AE22" s="46">
-        <f t="shared" ref="AE22:AR22" si="17">AE11/AA11-1</f>
+        <f t="shared" ref="AE22:AR22" si="21">AE11/AA11-1</f>
         <v>0.28813559322033888</v>
       </c>
       <c r="AF22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.5385361124575798E-2</v>
       </c>
       <c r="AG22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8.4666039510818969E-3</v>
       </c>
       <c r="AH22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.3066202090592505E-3</v>
       </c>
       <c r="AI22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4.0381125226860215E-2</v>
       </c>
       <c r="AJ22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.3408239700374533E-2</v>
       </c>
       <c r="AK22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.8507462686567138E-2</v>
       </c>
       <c r="AL22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.8281861678990845E-2</v>
       </c>
       <c r="AM22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.9172576832151371E-2</v>
       </c>
       <c r="AN22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.6660567246111562E-2</v>
       </c>
       <c r="AO22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.7597864768683218E-2</v>
       </c>
       <c r="AP22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.5601659751037369E-2</v>
       </c>
       <c r="AQ22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4.4164037854889537E-2</v>
       </c>
       <c r="AR22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.1241258741258751E-2</v>
       </c>
       <c r="AS22" s="46">
@@ -17712,11 +17712,11 @@
       </c>
       <c r="BG22" s="46"/>
       <c r="BH22" s="46">
-        <f t="shared" ref="BH22:BI22" si="18">BH11/BG11-1</f>
+        <f t="shared" ref="BH22:BI22" si="22">BH11/BG11-1</f>
         <v>7.1620302586627549E-2</v>
       </c>
       <c r="BI22" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.0038711146532995E-2</v>
       </c>
       <c r="BJ22" s="46">
@@ -17750,59 +17750,59 @@
       <c r="AC23" s="46"/>
       <c r="AD23" s="46"/>
       <c r="AE23" s="46">
-        <f t="shared" ref="AE23:AR23" si="19">AE14/AA14-1</f>
+        <f t="shared" ref="AE23:AR23" si="23">AE14/AA14-1</f>
         <v>0.29000000000000004</v>
       </c>
       <c r="AF23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.6867891513561197E-3</v>
       </c>
       <c r="AG23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-9.9437959360137995E-3</v>
       </c>
       <c r="AH23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-4.5785194694052178E-2</v>
       </c>
       <c r="AI23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-0.16709732988802761</v>
       </c>
       <c r="AJ23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-9.9608525445845975E-2</v>
       </c>
       <c r="AK23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-6.6812227074235842E-2</v>
       </c>
       <c r="AL23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-0.1713004484304933</v>
       </c>
       <c r="AM23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3.6711478800413699E-2</v>
       </c>
       <c r="AN23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.5942028985507228E-2</v>
       </c>
       <c r="AO23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1.169864295741696E-2</v>
       </c>
       <c r="AP23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.18831168831168821</v>
       </c>
       <c r="AQ23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-4.4887780548628076E-3</v>
       </c>
       <c r="AR23" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.1412268188302432E-2</v>
       </c>
       <c r="AS23" s="46">
@@ -17811,11 +17811,11 @@
       </c>
       <c r="BG23" s="46"/>
       <c r="BH23" s="46">
-        <f t="shared" ref="BH23:BI23" si="20">BH14/BG14-1</f>
+        <f t="shared" ref="BH23:BI23" si="24">BH14/BG14-1</f>
         <v>4.6359890109890056E-2</v>
       </c>
       <c r="BI23" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.12602559894978671</v>
       </c>
       <c r="BJ23" s="46">
@@ -17849,59 +17849,59 @@
       <c r="AC24" s="46"/>
       <c r="AD24" s="46"/>
       <c r="AE24" s="46">
-        <f t="shared" ref="AE24:AR24" si="21">AE18/AA18-1</f>
+        <f t="shared" ref="AE24:AR24" si="25">AE18/AA18-1</f>
         <v>1.2411347517730542E-2</v>
       </c>
       <c r="AF24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.2727272727272707E-2</v>
       </c>
       <c r="AG24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-7.1542130365659817E-2</v>
       </c>
       <c r="AH24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-7.5617283950617287E-2</v>
       </c>
       <c r="AI24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8.7565674255691839E-2</v>
       </c>
       <c r="AJ24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-4.7863247863247915E-2</v>
       </c>
       <c r="AK24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-2.3972602739726012E-2</v>
       </c>
       <c r="AL24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.68614357262103498</v>
       </c>
       <c r="AM24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.2882447665056418E-2</v>
       </c>
       <c r="AN24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.20287253141831241</v>
       </c>
       <c r="AO24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.21578947368421053</v>
       </c>
       <c r="AP24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.28811881188118815</v>
       </c>
       <c r="AQ24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-5.4054054054054057E-2</v>
       </c>
       <c r="AR24" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7.9104477611940283E-2</v>
       </c>
       <c r="AS24" s="46">
@@ -17910,11 +17910,11 @@
       </c>
       <c r="BG24" s="46"/>
       <c r="BH24" s="46">
-        <f t="shared" ref="BH24:BI24" si="22">BH18/BG18-1</f>
+        <f t="shared" ref="BH24:BI24" si="26">BH18/BG18-1</f>
         <v>-3.0667219229175258E-2</v>
       </c>
       <c r="BI24" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.17913638306968793</v>
       </c>
       <c r="BJ24" s="46">
@@ -17948,59 +17948,59 @@
       <c r="AC25" s="46"/>
       <c r="AD25" s="46"/>
       <c r="AE25" s="46">
-        <f t="shared" ref="AE25:AR25" si="23">AE19/AA19-1</f>
+        <f t="shared" ref="AE25:AR25" si="27">AE19/AA19-1</f>
         <v>0.22744736437682489</v>
       </c>
       <c r="AF25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.6154047338825759E-2</v>
       </c>
       <c r="AG25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-1.543408360128562E-3</v>
       </c>
       <c r="AH25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-1.209086468001952E-2</v>
       </c>
       <c r="AI25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-7.7125328659070957E-2</v>
       </c>
       <c r="AJ25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-3.338855613610292E-2</v>
       </c>
       <c r="AK25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-4.6373824552363718E-3</v>
       </c>
       <c r="AL25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.6249227345778197E-2</v>
       </c>
       <c r="AM25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.4905711572378326E-2</v>
       </c>
       <c r="AN25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.2603823335530597E-2</v>
       </c>
       <c r="AO25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.6848712307493212E-2</v>
       </c>
       <c r="AP25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.2668539325841923E-3</v>
       </c>
       <c r="AQ25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.7655154505323187E-2</v>
       </c>
       <c r="AR25" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.247995991983978E-2</v>
       </c>
       <c r="AS25" s="46">
@@ -18009,11 +18009,11 @@
       </c>
       <c r="BG25" s="46"/>
       <c r="BH25" s="46">
-        <f t="shared" ref="BH25:BI25" si="24">BH19/BG19-1</f>
+        <f t="shared" ref="BH25:BI25" si="28">BH19/BG19-1</f>
         <v>5.2096822392668551E-2</v>
       </c>
       <c r="BI25" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-1.4485892823328905E-2</v>
       </c>
       <c r="BJ25" s="46">
@@ -18025,19 +18025,19 @@
         <v>3.489579471017179E-2</v>
       </c>
       <c r="BL25" s="65">
-        <f t="shared" ref="BL25:BO25" si="25">BL19/BK19-1</f>
+        <f t="shared" ref="BL25:BO25" si="29">BL19/BK19-1</f>
         <v>4.651206988965817E-2</v>
       </c>
       <c r="BM25" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.4280632356482839E-2</v>
       </c>
       <c r="BN25" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.7943055600548679E-2</v>
       </c>
       <c r="BO25" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.5716353831203067E-2</v>
       </c>
       <c r="BP25" s="65"/>
@@ -18048,75 +18048,75 @@
         <v>2231</v>
       </c>
       <c r="AA27" s="46">
-        <f t="shared" ref="AA27:AR27" si="26">AA7/AA19</f>
+        <f t="shared" ref="AA27:AR27" si="30">AA7/AA19</f>
         <v>0.37375134470570154</v>
       </c>
       <c r="AB27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.35647966522819408</v>
       </c>
       <c r="AC27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.34816720257234729</v>
       </c>
       <c r="AD27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.35503175378602836</v>
       </c>
       <c r="AE27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.3618379867284337</v>
       </c>
       <c r="AF27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36026506945329423</v>
       </c>
       <c r="AG27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.3536004122117738</v>
       </c>
       <c r="AH27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36605266411175669</v>
       </c>
       <c r="AI27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36643603310269979</v>
       </c>
       <c r="AJ27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36545814106789715</v>
       </c>
       <c r="AK27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.35874207324964408</v>
       </c>
       <c r="AL27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.38342696629213485</v>
       </c>
       <c r="AM27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36990392105946507</v>
       </c>
       <c r="AN27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36610721442885774</v>
       </c>
       <c r="AO27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36209667449622945</v>
       </c>
       <c r="AP27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36441960647339622</v>
       </c>
       <c r="AQ27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.37991156032849022</v>
       </c>
       <c r="AR27" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.36915387361656549</v>
       </c>
       <c r="AS27" s="46">
@@ -18124,15 +18124,15 @@
         <v>0.36625663289917992</v>
       </c>
       <c r="BG27" s="46">
-        <f t="shared" ref="BG27:BI27" si="27">BG7/BG19</f>
+        <f t="shared" ref="BG27:BI27" si="31">BG7/BG19</f>
         <v>0.35767174685393632</v>
       </c>
       <c r="BH27" s="46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.36050621725683268</v>
       </c>
       <c r="BI27" s="46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.36894354244724115</v>
       </c>
       <c r="BJ27" s="46">
@@ -18145,75 +18145,75 @@
         <v>2232</v>
       </c>
       <c r="AA28" s="46">
-        <f t="shared" ref="AA28:AR28" si="28">AA11/AA19</f>
+        <f t="shared" ref="AA28:AR28" si="32">AA11/AA19</f>
         <v>0.26294759489780234</v>
       </c>
       <c r="AB28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.26977899829998692</v>
       </c>
       <c r="AC28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.27344051446945339</v>
       </c>
       <c r="AD28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28041035661944308</v>
       </c>
       <c r="AE28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.27594841617628646</v>
       </c>
       <c r="AF28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.27220593857525172</v>
       </c>
       <c r="AG28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.27618188844518871</v>
       </c>
       <c r="AH28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28421312894053652</v>
       </c>
       <c r="AI28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28693528693528692</v>
       </c>
       <c r="AJ28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28820039551746868</v>
       </c>
       <c r="AK28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.29092791510288596</v>
       </c>
       <c r="AL28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28206928838951312</v>
       </c>
       <c r="AM28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28810698519864969</v>
       </c>
       <c r="AN28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.28657314629258518</v>
       </c>
       <c r="AO28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.29113611076770923</v>
       </c>
       <c r="AP28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.29619280475026194</v>
       </c>
       <c r="AQ28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.29273531269740999</v>
       </c>
       <c r="AR28" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.29168154230631915</v>
       </c>
       <c r="AS28" s="46">
@@ -18221,15 +18221,15 @@
         <v>0.29643029425952727</v>
       </c>
       <c r="BG28" s="46">
-        <f t="shared" ref="BG28:BI28" si="29">BG11/BG19</f>
+        <f t="shared" ref="BG28:BI28" si="33">BG11/BG19</f>
         <v>0.27213865922900687</v>
       </c>
       <c r="BH28" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.27718866376317619</v>
       </c>
       <c r="BI28" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.28689915778012615</v>
       </c>
       <c r="BJ28" s="46">
@@ -18242,75 +18242,75 @@
         <v>2233</v>
       </c>
       <c r="AA29" s="46">
-        <f t="shared" ref="AA29:AR29" si="30">AA14/AA19</f>
+        <f t="shared" ref="AA29:AR29" si="34">AA14/AA19</f>
         <v>0.27662517289073307</v>
       </c>
       <c r="AB29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.29894076108277756</v>
       </c>
       <c r="AC29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.29749196141479101</v>
       </c>
       <c r="AD29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.28541768441621884</v>
       </c>
       <c r="AE29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.29072242393890069</v>
       </c>
       <c r="AF29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.29297820823244553</v>
       </c>
       <c r="AG29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.29498905062475844</v>
       </c>
       <c r="AH29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.27568302633205588</v>
       </c>
       <c r="AI29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.26237959571292907</v>
       </c>
       <c r="AJ29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.27290705339485827</v>
       </c>
       <c r="AK29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.27656270221301926</v>
       </c>
       <c r="AL29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.21629213483146068</v>
       </c>
       <c r="AM29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.26032199428719816</v>
       </c>
       <c r="AN29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.26340180360721444</v>
       </c>
       <c r="AO29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.26109531462479912</v>
       </c>
       <c r="AP29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.25567586447782048</v>
       </c>
       <c r="AQ29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.252179406190777</v>
       </c>
       <c r="AR29" s="46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.25312388432702604</v>
       </c>
       <c r="AS29" s="46">
@@ -18318,15 +18318,15 @@
         <v>0.24987940183309212</v>
       </c>
       <c r="BG29" s="46">
-        <f t="shared" ref="BG29:BI29" si="31">BG14/BG19</f>
+        <f t="shared" ref="BG29:BI29" si="35">BG14/BG19</f>
         <v>0.29006873194541288</v>
       </c>
       <c r="BH29" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.28848702897178563</v>
       </c>
       <c r="BI29" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.25583629551349796</v>
       </c>
       <c r="BJ29" s="46">
@@ -18339,75 +18339,75 @@
         <v>2234</v>
       </c>
       <c r="AA30" s="46">
-        <f t="shared" ref="AA30:AR30" si="32">AA18/AA19</f>
+        <f t="shared" ref="AA30:AR30" si="36">AA18/AA19</f>
         <v>8.6675887505763022E-2</v>
       </c>
       <c r="AB30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.480057538904146E-2</v>
       </c>
       <c r="AC30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.0900321543408357E-2</v>
       </c>
       <c r="AD30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.9140205178309719E-2</v>
       </c>
       <c r="AE30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.1491173156379109E-2</v>
       </c>
       <c r="AF30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.4550783739008544E-2</v>
       </c>
       <c r="AG30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.5228648718279015E-2</v>
       </c>
       <c r="AH30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.4051180615650886E-2</v>
       </c>
       <c r="AI30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.4249084249084255E-2</v>
       </c>
       <c r="AJ30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3434410019775867E-2</v>
       </c>
       <c r="AK30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3767309434450631E-2</v>
       </c>
       <c r="AL30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.11821161048689138</v>
       </c>
       <c r="AM30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.16670994546871E-2</v>
       </c>
       <c r="AN30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.3917835671342686E-2</v>
       </c>
       <c r="AO30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5671900111262203E-2</v>
       </c>
       <c r="AP30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.3711724298521362E-2</v>
       </c>
       <c r="AQ30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.5173720783322809E-2</v>
       </c>
       <c r="AR30" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.6040699750089253E-2</v>
       </c>
       <c r="AS30" s="46">
@@ -18415,15 +18415,15 @@
         <v>8.7433671008200681E-2</v>
       </c>
       <c r="BG30" s="46">
-        <f t="shared" ref="BG30:BI30" si="33">BG18/BG19</f>
+        <f t="shared" ref="BG30:BI30" si="37">BG18/BG19</f>
         <v>8.012086197164392E-2</v>
       </c>
       <c r="BH30" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.3818090008205522E-2</v>
       </c>
       <c r="BI30" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8.8321004259134722E-2</v>
       </c>
       <c r="BJ30" s="46">
@@ -18609,75 +18609,75 @@
         <v>96</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" ref="AA34:AR34" si="34">AA32+AA33</f>
+        <f t="shared" ref="AA34:AR34" si="38">AA32+AA33</f>
         <v>6507</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7647</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7775</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8188</v>
       </c>
       <c r="AE34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7987</v>
       </c>
       <c r="AF34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7847</v>
       </c>
       <c r="AG34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7763</v>
       </c>
       <c r="AH34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8089</v>
       </c>
       <c r="AI34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7371</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7585</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7727</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8544</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7702</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7984</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8089</v>
       </c>
       <c r="AP34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8589</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7914</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8403</v>
       </c>
       <c r="AS34" s="2">
@@ -18775,59 +18775,59 @@
       </c>
       <c r="D36" s="39"/>
       <c r="AE36" s="46">
-        <f t="shared" ref="AE36:AR36" si="35">AE32/AA32-1</f>
+        <f t="shared" ref="AE36:AR36" si="39">AE32/AA32-1</f>
         <v>0.2235153685467024</v>
       </c>
       <c r="AF36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-1.4060187469166263E-2</v>
       </c>
       <c r="AG36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AH36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-1.9851710117196886E-2</v>
       </c>
       <c r="AI36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-8.1219512195121912E-2</v>
       </c>
       <c r="AJ36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.8013510132599553E-2</v>
       </c>
       <c r="AK36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3.1226199543031186E-2</v>
       </c>
       <c r="AL36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>9.1996095656417864E-2</v>
       </c>
       <c r="AM36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>4.194319086806475E-2</v>
       </c>
       <c r="AN36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.6050626689604339E-2</v>
       </c>
       <c r="AO36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.4524864598719933E-2</v>
       </c>
       <c r="AP36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-2.9944134078212281E-2</v>
       </c>
       <c r="AQ36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AR36" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3.0898203592814477E-2</v>
       </c>
       <c r="AS36" s="46">
@@ -18836,11 +18836,11 @@
       </c>
       <c r="BG36" s="46"/>
       <c r="BH36" s="46">
-        <f t="shared" ref="BH36:BI36" si="36">BH32/BG32-1</f>
+        <f t="shared" ref="BH36:BI36" si="40">BH32/BG32-1</f>
         <v>3.9227053140096668E-2</v>
       </c>
       <c r="BI36" s="46">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.4813437461261847E-2</v>
       </c>
       <c r="BJ36" s="46">
@@ -18853,59 +18853,59 @@
         <v>2224</v>
       </c>
       <c r="AE37" s="46">
-        <f t="shared" ref="AE37:AR37" si="37">AE33/AA33-1</f>
+        <f t="shared" ref="AE37:AR37" si="41">AE33/AA33-1</f>
         <v>0.23162230671736372</v>
       </c>
       <c r="AF37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>7.1527971054828887E-2</v>
       </c>
       <c r="AG37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-3.1282586027111536E-3</v>
       </c>
       <c r="AH37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-3.9930122285999348E-3</v>
       </c>
       <c r="AI37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-7.2806791870337007E-2</v>
       </c>
       <c r="AJ37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-8.6753246753246804E-2</v>
       </c>
       <c r="AK37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-4.1579497907949792E-2</v>
       </c>
       <c r="AL37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.9543973941368087E-2</v>
       </c>
       <c r="AM37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4.8002219755826969E-2</v>
       </c>
       <c r="AN37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="AO37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>8.2673942701227743E-2</v>
       </c>
       <c r="AP37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4.3991152617350648E-2</v>
       </c>
       <c r="AQ37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.456182155149599E-2</v>
       </c>
       <c r="AR37" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>7.6135468626936209E-2</v>
       </c>
       <c r="AS37" s="46">
@@ -18914,11 +18914,11 @@
       </c>
       <c r="BG37" s="46"/>
       <c r="BH37" s="46">
-        <f t="shared" ref="BH37:BI37" si="38">BH33/BG33-1</f>
+        <f t="shared" ref="BH37:BI37" si="42">BH33/BG33-1</f>
         <v>6.578947368421062E-2</v>
       </c>
       <c r="BI37" s="46">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-4.4881687242798396E-2</v>
       </c>
       <c r="BJ37" s="46">
@@ -18931,59 +18931,59 @@
         <v>2225</v>
       </c>
       <c r="AE38" s="46">
-        <f t="shared" ref="AE38:AR38" si="39">AE34/AA34-1</f>
+        <f t="shared" ref="AE38:AR38" si="43">AE34/AA34-1</f>
         <v>0.22744736437682489</v>
       </c>
       <c r="AF38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.6154047338825759E-2</v>
       </c>
       <c r="AG38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-1.543408360128562E-3</v>
       </c>
       <c r="AH38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-1.209086468001952E-2</v>
       </c>
       <c r="AI38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-7.7125328659070957E-2</v>
       </c>
       <c r="AJ38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-3.338855613610292E-2</v>
       </c>
       <c r="AK38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-4.6373824552363718E-3</v>
       </c>
       <c r="AL38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>5.6249227345778197E-2</v>
       </c>
       <c r="AM38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.4905711572378326E-2</v>
       </c>
       <c r="AN38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>5.2603823335530597E-2</v>
       </c>
       <c r="AO38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.6848712307493212E-2</v>
       </c>
       <c r="AP38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>5.2668539325841923E-3</v>
       </c>
       <c r="AQ38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2.7525318099195006E-2</v>
       </c>
       <c r="AR38" s="46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>5.247995991983978E-2</v>
       </c>
       <c r="AS38" s="46">
@@ -18992,11 +18992,11 @@
       </c>
       <c r="BG38" s="46"/>
       <c r="BH38" s="46">
-        <f t="shared" ref="BH38:BI38" si="40">BH34/BG34-1</f>
+        <f t="shared" ref="BH38:BI38" si="44">BH34/BG34-1</f>
         <v>5.2096822392668551E-2</v>
       </c>
       <c r="BI38" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-1.4485892823328905E-2</v>
       </c>
       <c r="BJ38" s="46">
@@ -19015,75 +19015,75 @@
         <v>98</v>
       </c>
       <c r="AA40" s="46">
-        <f t="shared" ref="AA40:AR40" si="41">AA32/AA34</f>
+        <f t="shared" ref="AA40:AR40" si="45">AA32/AA34</f>
         <v>0.51498386353158132</v>
       </c>
       <c r="AB40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.53014253955799662</v>
       </c>
       <c r="AC40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.5066237942122187</v>
       </c>
       <c r="AD40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.51062530532486561</v>
       </c>
       <c r="AE40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.51333416802303744</v>
       </c>
       <c r="AF40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.50936663693131135</v>
       </c>
       <c r="AG40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.50740693031044704</v>
       </c>
       <c r="AH40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.50661392013845963</v>
       </c>
       <c r="AI40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.51105684439017773</v>
       </c>
       <c r="AJ40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.53645352669742918</v>
       </c>
       <c r="AK40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.52568914196971661</v>
       </c>
       <c r="AL40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.52375936329588013</v>
       </c>
       <c r="AM40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.5096078940534926</v>
       </c>
       <c r="AN40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.52292084168336672</v>
       </c>
       <c r="AO40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.50945728767461984</v>
       </c>
       <c r="AP40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.50541390150192111</v>
       </c>
       <c r="AQ40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.5157947940358858</v>
       </c>
       <c r="AR40" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.51219802451505414</v>
       </c>
       <c r="AS40" s="46">
@@ -19091,15 +19091,15 @@
         <v>0.51097443318861557</v>
       </c>
       <c r="BG40" s="46">
-        <f t="shared" ref="BG40:BI40" si="42">BG32/BG34</f>
+        <f t="shared" ref="BG40:BI40" si="46">BG32/BG34</f>
         <v>0.51548959059667299</v>
       </c>
       <c r="BH40" s="46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.5091838666919144</v>
       </c>
       <c r="BI40" s="46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.52432190091907649</v>
       </c>
       <c r="BJ40" s="46">
@@ -19112,75 +19112,75 @@
         <v>2223</v>
       </c>
       <c r="AA41" s="46">
-        <f t="shared" ref="AA41:AR41" si="43">AA33/AA34</f>
+        <f t="shared" ref="AA41:AR41" si="47">AA33/AA34</f>
         <v>0.48501613646841862</v>
       </c>
       <c r="AB41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.46985746044200338</v>
       </c>
       <c r="AC41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.49337620578778135</v>
       </c>
       <c r="AD41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.48937469467513434</v>
       </c>
       <c r="AE41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.48666583197696256</v>
       </c>
       <c r="AF41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.49063336306868865</v>
       </c>
       <c r="AG41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.49259306968955302</v>
       </c>
       <c r="AH41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.49338607986154037</v>
       </c>
       <c r="AI41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.48894315560982227</v>
       </c>
       <c r="AJ41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.46354647330257087</v>
       </c>
       <c r="AK41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.47431085803028344</v>
       </c>
       <c r="AL41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.47624063670411987</v>
       </c>
       <c r="AM41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.4903921059465074</v>
       </c>
       <c r="AN41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.47707915831663328</v>
       </c>
       <c r="AO41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.49054271232538016</v>
       </c>
       <c r="AP41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.49458609849807894</v>
       </c>
       <c r="AQ41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.4842052059641142</v>
       </c>
       <c r="AR41" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.48780197548494586</v>
       </c>
       <c r="AS41" s="46">
@@ -19188,15 +19188,15 @@
         <v>0.48902556681138448</v>
       </c>
       <c r="BG41" s="46">
-        <f t="shared" ref="BG41:BI41" si="44">BG33/BG34</f>
+        <f t="shared" ref="BG41:BI41" si="48">BG33/BG34</f>
         <v>0.48451040940332701</v>
       </c>
       <c r="BH41" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.4908161333080856</v>
       </c>
       <c r="BI41" s="46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.47567809908092357</v>
       </c>
       <c r="BJ41" s="46">
@@ -19281,75 +19281,75 @@
         <v>5997</v>
       </c>
       <c r="AA43" s="2">
-        <f t="shared" ref="AA43:AR43" si="45">AA19</f>
+        <f t="shared" ref="AA43:AR43" si="49">AA19</f>
         <v>6507</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7647</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7775</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8188</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7987</v>
       </c>
       <c r="AF43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7847</v>
       </c>
       <c r="AG43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7763</v>
       </c>
       <c r="AH43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8089</v>
       </c>
       <c r="AI43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7371</v>
       </c>
       <c r="AJ43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7585</v>
       </c>
       <c r="AK43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7727</v>
       </c>
       <c r="AL43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8544</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7702</v>
       </c>
       <c r="AN43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7984</v>
       </c>
       <c r="AO43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8089</v>
       </c>
       <c r="AP43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8589</v>
       </c>
       <c r="AQ43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7915</v>
       </c>
       <c r="AR43" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8403</v>
       </c>
       <c r="AS43" s="2">
@@ -19384,19 +19384,19 @@
         <v>9680</v>
       </c>
       <c r="BG43" s="2">
-        <f>SUM(AA43:AD43)</f>
+        <f t="shared" ref="BG43:BG58" si="50">SUM(AA43:AD43)</f>
         <v>30117</v>
       </c>
       <c r="BH43" s="2">
-        <f>SUM(AE43:AH43)</f>
+        <f t="shared" ref="BH43:BH58" si="51">SUM(AE43:AH43)</f>
         <v>31686</v>
       </c>
       <c r="BI43" s="2">
-        <f>SUM(AI43:AL43)</f>
+        <f t="shared" ref="BI43:BI58" si="52">SUM(AI43:AL43)</f>
         <v>31227</v>
       </c>
       <c r="BJ43" s="2">
-        <f>SUM(AM43:AP43)</f>
+        <f t="shared" ref="BJ43:BJ58" si="53">SUM(AM43:AP43)</f>
         <v>32364</v>
       </c>
       <c r="BK43" s="66">
@@ -19404,19 +19404,19 @@
         <v>33493.3675</v>
       </c>
       <c r="BL43" s="66">
-        <f t="shared" ref="BL43:BO43" si="46">BL19</f>
+        <f t="shared" ref="BL43:BO43" si="54">BL19</f>
         <v>35051.213350000005</v>
       </c>
       <c r="BM43" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>36953.815375500002</v>
       </c>
       <c r="BN43" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>38725.494200700006</v>
       </c>
       <c r="BO43" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>39334.117769846409</v>
       </c>
       <c r="BP43" s="63"/>
@@ -19614,19 +19614,19 @@
         <v>2779</v>
       </c>
       <c r="BG44" s="1">
-        <f>SUM(AA44:AD44)</f>
+        <f t="shared" si="50"/>
         <v>10483</v>
       </c>
       <c r="BH44" s="1">
-        <f>SUM(AE44:AH44)</f>
+        <f t="shared" si="51"/>
         <v>10145</v>
       </c>
       <c r="BI44" s="1">
-        <f>SUM(AI44:AL44)</f>
+        <f t="shared" si="52"/>
         <v>10719</v>
       </c>
       <c r="BJ44" s="1">
-        <f>SUM(AM44:AP44)</f>
+        <f t="shared" si="53"/>
         <v>11216</v>
       </c>
       <c r="BK44" s="68">
@@ -19634,19 +19634,19 @@
         <v>11722.678624999999</v>
       </c>
       <c r="BL44" s="68">
-        <f t="shared" ref="BL44:BO44" si="47">BL43*(1-BL62)</f>
+        <f t="shared" ref="BL44:BO44" si="55">BL43*(1-BL62)</f>
         <v>12267.924672500001</v>
       </c>
       <c r="BM44" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>12933.835381425</v>
       </c>
       <c r="BN44" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>13553.922970245001</v>
       </c>
       <c r="BO44" s="68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>13766.941219446242</v>
       </c>
     </row>
@@ -19727,75 +19727,75 @@
         <v>3733</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" ref="AA45:AR45" si="48">AA43-AA44</f>
+        <f t="shared" ref="AA45:AR45" si="56">AA43-AA44</f>
         <v>4002</v>
       </c>
       <c r="AB45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>4942</v>
       </c>
       <c r="AC45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5154</v>
       </c>
       <c r="AD45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5536</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5389</v>
       </c>
       <c r="AF45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5350</v>
       </c>
       <c r="AG45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5304</v>
       </c>
       <c r="AH45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5498</v>
       </c>
       <c r="AI45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>4855</v>
       </c>
       <c r="AJ45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5050</v>
       </c>
       <c r="AK45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5038</v>
       </c>
       <c r="AL45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5565</v>
       </c>
       <c r="AM45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5074</v>
       </c>
       <c r="AN45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5223</v>
       </c>
       <c r="AO45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5307</v>
       </c>
       <c r="AP45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5544</v>
       </c>
       <c r="AQ45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5154</v>
       </c>
       <c r="AR45" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>5457</v>
       </c>
       <c r="AS45" s="1">
@@ -19803,19 +19803,19 @@
         <v>5513</v>
       </c>
       <c r="BG45" s="1">
-        <f>SUM(AA45:AD45)</f>
+        <f t="shared" si="50"/>
         <v>19634</v>
       </c>
       <c r="BH45" s="1">
-        <f>SUM(AE45:AH45)</f>
+        <f t="shared" si="51"/>
         <v>21541</v>
       </c>
       <c r="BI45" s="1">
-        <f>SUM(AI45:AL45)</f>
+        <f t="shared" si="52"/>
         <v>20508</v>
       </c>
       <c r="BJ45" s="1">
-        <f>SUM(AM45:AP45)</f>
+        <f t="shared" si="53"/>
         <v>21148</v>
       </c>
       <c r="BK45" s="68">
@@ -19823,19 +19823,19 @@
         <v>21770.688875</v>
       </c>
       <c r="BL45" s="68">
-        <f t="shared" ref="BL45:BO45" si="49">BL43-BL44</f>
+        <f t="shared" ref="BL45:BO45" si="57">BL43-BL44</f>
         <v>22783.288677500004</v>
       </c>
       <c r="BM45" s="68">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>24019.979994075002</v>
       </c>
       <c r="BN45" s="68">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>25171.571230455003</v>
       </c>
       <c r="BO45" s="68">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>25567.176550400167</v>
       </c>
     </row>
@@ -19977,19 +19977,19 @@
         <v>675</v>
       </c>
       <c r="BG46" s="1">
-        <f>SUM(AA46:AD46)</f>
+        <f t="shared" si="50"/>
         <v>2493</v>
       </c>
       <c r="BH46" s="1">
-        <f>SUM(AE46:AH46)</f>
+        <f t="shared" si="51"/>
         <v>2746</v>
       </c>
       <c r="BI46" s="1">
-        <f>SUM(AI46:AL46)</f>
+        <f t="shared" si="52"/>
         <v>2696</v>
       </c>
       <c r="BJ46" s="1">
-        <f>SUM(AM46:AP46)</f>
+        <f t="shared" si="53"/>
         <v>2735</v>
       </c>
       <c r="BK46" s="68">
@@ -19997,19 +19997,19 @@
         <v>2779.9495025000001</v>
       </c>
       <c r="BL46" s="68">
-        <f t="shared" ref="BL46:BO46" si="50">BL43*(BL63)</f>
+        <f t="shared" ref="BL46:BO46" si="58">BL43*(BL63)</f>
         <v>2909.2507080500004</v>
       </c>
       <c r="BM46" s="68">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>3067.1666761665001</v>
       </c>
       <c r="BN46" s="68">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>3214.2160186581009</v>
       </c>
       <c r="BO46" s="68">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>3264.7317748972523</v>
       </c>
     </row>
@@ -20151,19 +20151,19 @@
         <v>2717</v>
       </c>
       <c r="BG47" s="1">
-        <f>SUM(AA47:AD47)</f>
+        <f t="shared" si="50"/>
         <v>10143</v>
       </c>
       <c r="BH47" s="1">
-        <f>SUM(AE47:AH47)</f>
+        <f t="shared" si="51"/>
         <v>10292</v>
       </c>
       <c r="BI47" s="1">
-        <f>SUM(AI47:AL47)</f>
+        <f t="shared" si="52"/>
         <v>10415</v>
       </c>
       <c r="BJ47" s="1">
-        <f>SUM(AM47:AP47)</f>
+        <f t="shared" si="53"/>
         <v>10736</v>
       </c>
       <c r="BK47" s="68">
@@ -20171,19 +20171,19 @@
         <v>11052.811275</v>
       </c>
       <c r="BL47" s="68">
-        <f t="shared" ref="BL47:BO47" si="51">BL43*(BL64)</f>
+        <f t="shared" ref="BL47:BO47" si="59">BL43*(BL64)</f>
         <v>11566.900405500002</v>
       </c>
       <c r="BM47" s="68">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>12194.759073915002</v>
       </c>
       <c r="BN47" s="68">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>12779.413086231003</v>
       </c>
       <c r="BO47" s="68">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>12980.258864049316</v>
       </c>
     </row>
@@ -20325,19 +20325,19 @@
         <v>416</v>
       </c>
       <c r="BG48" s="1">
-        <f>SUM(AA48:AD48)</f>
+        <f t="shared" si="50"/>
         <v>1783</v>
       </c>
       <c r="BH48" s="1">
-        <f>SUM(AE48:AH48)</f>
+        <f t="shared" si="51"/>
         <v>1733</v>
       </c>
       <c r="BI48" s="1">
-        <f>SUM(AI48:AL48)</f>
+        <f t="shared" si="52"/>
         <v>1698</v>
       </c>
       <c r="BJ48" s="1">
-        <f>SUM(AM48:AP48)</f>
+        <f t="shared" si="53"/>
         <v>1693</v>
       </c>
       <c r="BK48" s="68">
@@ -20345,19 +20345,19 @@
         <v>1726.8600000000001</v>
       </c>
       <c r="BL48" s="68">
-        <f t="shared" ref="BL48:BO48" si="52">BK48*1.02</f>
+        <f t="shared" ref="BL48:BO48" si="60">BK48*1.02</f>
         <v>1761.3972000000001</v>
       </c>
       <c r="BM48" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>1796.6251440000001</v>
       </c>
       <c r="BN48" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>1832.5576468800002</v>
       </c>
       <c r="BO48" s="68">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>1869.2087998176003</v>
       </c>
     </row>
@@ -20499,19 +20499,19 @@
         <v>43</v>
       </c>
       <c r="BG49" s="1">
-        <f>SUM(AA49:AD49)</f>
+        <f t="shared" si="50"/>
         <v>293</v>
       </c>
       <c r="BH49" s="1">
-        <f>SUM(AE49:AH49)</f>
+        <f t="shared" si="51"/>
         <v>60</v>
       </c>
       <c r="BI49" s="1">
-        <f>SUM(AI49:AL49)</f>
+        <f t="shared" si="52"/>
         <v>375</v>
       </c>
       <c r="BJ49" s="1">
-        <f>SUM(AM49:AP49)</f>
+        <f t="shared" si="53"/>
         <v>226</v>
       </c>
       <c r="BK49" s="68">
@@ -20523,15 +20523,15 @@
         <v>247.61519999999999</v>
       </c>
       <c r="BM49" s="68">
-        <f t="shared" ref="BM49:BO49" si="53">BL49*1.02</f>
+        <f t="shared" ref="BM49:BO49" si="61">BL49*1.02</f>
         <v>252.56750399999999</v>
       </c>
       <c r="BN49" s="68">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>257.61885408000001</v>
       </c>
       <c r="BO49" s="68">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>262.77123116159999</v>
       </c>
     </row>
@@ -20707,19 +20707,19 @@
         <v>16</v>
       </c>
       <c r="BG50" s="1">
-        <f>SUM(AA50:AD50)</f>
+        <f t="shared" si="50"/>
         <v>433</v>
       </c>
       <c r="BH50" s="1">
-        <f>SUM(AE50:AH50)</f>
+        <f t="shared" si="51"/>
         <v>957</v>
       </c>
       <c r="BI50" s="1">
-        <f>SUM(AI50:AL50)</f>
+        <f t="shared" si="52"/>
         <v>-161</v>
       </c>
       <c r="BJ50" s="1">
-        <f>SUM(AM50:AP50)</f>
+        <f t="shared" si="53"/>
         <v>614</v>
       </c>
       <c r="BK50" s="68">
@@ -20731,15 +20731,15 @@
         <v>458.58149999999995</v>
       </c>
       <c r="BM50" s="68">
-        <f t="shared" ref="BM50:BO50" si="54">BL50*1.17</f>
+        <f t="shared" ref="BM50:BO50" si="62">BL50*1.17</f>
         <v>536.54035499999986</v>
       </c>
       <c r="BN50" s="68">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>627.7522153499998</v>
       </c>
       <c r="BO50" s="68">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>734.47009195949977</v>
       </c>
     </row>
@@ -20752,167 +20752,167 @@
         <v>1088</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ref="D51:Z51" si="55">D45-SUM(D46:D50)</f>
+        <f t="shared" ref="D51:Z51" si="63">D45-SUM(D46:D50)</f>
         <v>1030</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1275</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>373</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1131</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1300</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1355</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1575</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1167</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1385</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1147</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1684</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1382</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1197</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1436</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>2625</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1236</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1544</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1542</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1946</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1485</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1351</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1639</v>
       </c>
       <c r="Z51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>316</v>
       </c>
       <c r="AA51" s="1">
-        <f t="shared" ref="AA51:AR51" si="56">AA45-SUM(AA46:AA50)</f>
+        <f t="shared" ref="AA51:AR51" si="64">AA45-SUM(AA46:AA50)</f>
         <v>673</v>
       </c>
       <c r="AB51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>930</v>
       </c>
       <c r="AC51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1277</v>
       </c>
       <c r="AD51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1609</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>859</v>
       </c>
       <c r="AF51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1563</v>
       </c>
       <c r="AG51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1659</v>
       </c>
       <c r="AH51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1672</v>
       </c>
       <c r="AI51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1125</v>
       </c>
       <c r="AJ51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1404</v>
       </c>
       <c r="AK51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1392</v>
       </c>
       <c r="AL51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1564</v>
       </c>
       <c r="AM51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1268</v>
       </c>
       <c r="AN51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1340</v>
       </c>
       <c r="AO51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1483</v>
       </c>
       <c r="AP51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1053</v>
       </c>
       <c r="AQ51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1278</v>
       </c>
       <c r="AR51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>1595</v>
       </c>
       <c r="AS51" s="1">
@@ -20920,19 +20920,19 @@
         <v>1646</v>
       </c>
       <c r="BG51" s="1">
-        <f>SUM(AA51:AD51)</f>
+        <f t="shared" si="50"/>
         <v>4489</v>
       </c>
       <c r="BH51" s="1">
-        <f>SUM(AE51:AH51)</f>
+        <f t="shared" si="51"/>
         <v>5753</v>
       </c>
       <c r="BI51" s="1">
-        <f>SUM(AI51:AL51)</f>
+        <f t="shared" si="52"/>
         <v>5485</v>
       </c>
       <c r="BJ51" s="1">
-        <f>SUM(AM51:AP51)</f>
+        <f t="shared" si="53"/>
         <v>5144</v>
       </c>
       <c r="BK51" s="68">
@@ -20940,19 +20940,19 @@
         <v>5576.3580974999986</v>
       </c>
       <c r="BL51" s="68">
-        <f t="shared" ref="BL51:BO51" si="57">BL45-SUM(BL46:BL50)</f>
+        <f t="shared" ref="BL51:BO51" si="65">BL45-SUM(BL46:BL50)</f>
         <v>5839.543663950004</v>
       </c>
       <c r="BM51" s="68">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>6172.3212409935004</v>
       </c>
       <c r="BN51" s="68">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>6460.0134092559019</v>
       </c>
       <c r="BO51" s="68">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>6455.7357885148958</v>
       </c>
     </row>
@@ -21094,19 +21094,19 @@
         <v>-72</v>
       </c>
       <c r="BG52" s="1">
-        <f>SUM(AA52:AD52)</f>
+        <f t="shared" si="50"/>
         <v>-336</v>
       </c>
       <c r="BH52" s="1">
-        <f>SUM(AE52:AH52)</f>
+        <f t="shared" si="51"/>
         <v>-318</v>
       </c>
       <c r="BI52" s="1">
-        <f>SUM(AI52:AL52)</f>
+        <f t="shared" si="52"/>
         <v>-515</v>
       </c>
       <c r="BJ52" s="1">
-        <f>SUM(AM52:AP52)</f>
+        <f t="shared" si="53"/>
         <v>-412</v>
       </c>
       <c r="BK52" s="68">
@@ -21114,19 +21114,19 @@
         <v>-64.2</v>
       </c>
       <c r="BL52" s="68">
-        <f t="shared" ref="BL52:BO52" si="58">-BK70*($BM$73)</f>
+        <f t="shared" ref="BL52:BO52" si="66">-BK70*($BM$73)</f>
         <v>-253.49806175374994</v>
       </c>
       <c r="BM52" s="68">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>-461.40633444334446</v>
       </c>
       <c r="BN52" s="68">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>-691.24483763516298</v>
       </c>
       <c r="BO52" s="68">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>-942.04881638909399</v>
       </c>
     </row>
@@ -21268,19 +21268,19 @@
         <v>178</v>
       </c>
       <c r="BG53" s="1">
-        <f>SUM(AA53:AD53)</f>
+        <f t="shared" si="50"/>
         <v>925</v>
       </c>
       <c r="BH53" s="1">
-        <f>SUM(AE53:AH53)</f>
+        <f t="shared" si="51"/>
         <v>553</v>
       </c>
       <c r="BI53" s="1">
-        <f>SUM(AI53:AL53)</f>
+        <f t="shared" si="52"/>
         <v>636</v>
       </c>
       <c r="BJ53" s="1">
-        <f>SUM(AM53:AP53)</f>
+        <f t="shared" si="53"/>
         <v>719</v>
       </c>
       <c r="BK53" s="68">
@@ -21288,19 +21288,19 @@
         <v>683.05</v>
       </c>
       <c r="BL53" s="68">
-        <f t="shared" ref="BL53:BO53" si="59">BK53*0.95</f>
+        <f t="shared" ref="BL53:BO53" si="67">BK53*0.95</f>
         <v>648.89749999999992</v>
       </c>
       <c r="BM53" s="68">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>616.4526249999999</v>
       </c>
       <c r="BN53" s="68">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>585.62999374999993</v>
       </c>
       <c r="BO53" s="68">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>556.34849406249987</v>
       </c>
     </row>
@@ -21325,155 +21325,155 @@
         <v>187</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" ref="G54:Z54" si="60">G51+G53</f>
+        <f t="shared" ref="G54:Z54" si="68">G51+G53</f>
         <v>940</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1083</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1179</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1134</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>988</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1212</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>967</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1435</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1195</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1728</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1027</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1725</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1180</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1355</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1370</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1292</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>977</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1294</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1579</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>205</v>
       </c>
       <c r="AA54" s="1">
-        <f t="shared" ref="AA54:AR54" si="61">AA51-SUM(AA52:AA53)</f>
+        <f t="shared" ref="AA54:AR54" si="69">AA51-SUM(AA52:AA53)</f>
         <v>584</v>
       </c>
       <c r="AB54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>525</v>
       </c>
       <c r="AC54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1220</v>
       </c>
       <c r="AD54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1571</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>833</v>
       </c>
       <c r="AF54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1493</v>
       </c>
       <c r="AG54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1589</v>
       </c>
       <c r="AH54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1603</v>
       </c>
       <c r="AI54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1044</v>
       </c>
       <c r="AJ54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1395</v>
       </c>
       <c r="AK54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1375</v>
       </c>
       <c r="AL54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1550</v>
       </c>
       <c r="AM54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1196</v>
       </c>
       <c r="AN54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1313</v>
       </c>
       <c r="AO54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1472</v>
       </c>
       <c r="AP54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>856</v>
       </c>
       <c r="AQ54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1268</v>
       </c>
       <c r="AR54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1559</v>
       </c>
       <c r="AS54" s="1">
@@ -21481,19 +21481,19 @@
         <v>1540</v>
       </c>
       <c r="BG54" s="1">
-        <f>SUM(AA54:AD54)</f>
+        <f t="shared" si="50"/>
         <v>3900</v>
       </c>
       <c r="BH54" s="1">
-        <f>SUM(AE54:AH54)</f>
+        <f t="shared" si="51"/>
         <v>5518</v>
       </c>
       <c r="BI54" s="1">
-        <f>SUM(AI54:AL54)</f>
+        <f t="shared" si="52"/>
         <v>5364</v>
       </c>
       <c r="BJ54" s="1">
-        <f>SUM(AM54:AP54)</f>
+        <f t="shared" si="53"/>
         <v>4837</v>
       </c>
       <c r="BK54" s="68">
@@ -21501,19 +21501,19 @@
         <v>4957.5080974999983</v>
       </c>
       <c r="BL54" s="68">
-        <f t="shared" ref="BL54:BO54" si="62">BL51-SUM(BL52:BL53)</f>
+        <f t="shared" ref="BL54:BO54" si="70">BL51-SUM(BL52:BL53)</f>
         <v>5444.1442257037543</v>
       </c>
       <c r="BM54" s="68">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>6017.2749504368448</v>
       </c>
       <c r="BN54" s="68">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>6565.6282531410652</v>
       </c>
       <c r="BO54" s="68">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>6841.4361108414896</v>
       </c>
     </row>
@@ -21655,19 +21655,19 @@
         <v>237</v>
       </c>
       <c r="BG55" s="1">
-        <f>SUM(AA55:AD55)</f>
+        <f t="shared" si="50"/>
         <v>265</v>
       </c>
       <c r="BH55" s="1">
-        <f>SUM(AE55:AH55)</f>
+        <f t="shared" si="51"/>
         <v>456</v>
       </c>
       <c r="BI55" s="1">
-        <f>SUM(AI55:AL55)</f>
+        <f t="shared" si="52"/>
         <v>1580</v>
       </c>
       <c r="BJ55" s="1">
-        <f>SUM(AM55:AP55)</f>
+        <f t="shared" si="53"/>
         <v>1132</v>
       </c>
       <c r="BK55" s="68">
@@ -21675,19 +21675,19 @@
         <v>1140.2268624249996</v>
       </c>
       <c r="BL55" s="68">
-        <f t="shared" ref="BL55:BO55" si="63">BL54*(BL66)</f>
+        <f t="shared" ref="BL55:BO55" si="71">BL54*(BL66)</f>
         <v>1252.1531719118636</v>
       </c>
       <c r="BM55" s="68">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>1383.9732386004744</v>
       </c>
       <c r="BN55" s="68">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>1510.0944982224451</v>
       </c>
       <c r="BO55" s="68">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>1573.5303054935428</v>
       </c>
     </row>
@@ -21700,167 +21700,167 @@
         <v>871</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:Z56" si="64">D54-D55</f>
+        <f t="shared" ref="D56:Z56" si="72">D54-D55</f>
         <v>828</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>977</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>820</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>520</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1095</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1103</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>929</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1111</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>820</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1164</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1009</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>2013</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>-1392</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1465</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1077</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1120</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1271</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1182</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>877</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1371</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1919</v>
       </c>
       <c r="Z56" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>639</v>
       </c>
       <c r="AA56" s="1">
-        <f t="shared" ref="AA56:AR56" si="65">AA54-AA55</f>
+        <f t="shared" ref="AA56:AR56" si="73">AA54-AA55</f>
         <v>491</v>
       </c>
       <c r="AB56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>494</v>
       </c>
       <c r="AC56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1279</v>
       </c>
       <c r="AD56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1371</v>
       </c>
       <c r="AE56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>769</v>
       </c>
       <c r="AF56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1317</v>
       </c>
       <c r="AG56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1483</v>
       </c>
       <c r="AH56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1493</v>
       </c>
       <c r="AI56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>931</v>
       </c>
       <c r="AJ56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>435</v>
       </c>
       <c r="AK56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1229</v>
       </c>
       <c r="AL56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1189</v>
       </c>
       <c r="AM56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>796</v>
       </c>
       <c r="AN56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>911</v>
       </c>
       <c r="AO56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1337</v>
       </c>
       <c r="AP56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>661</v>
       </c>
       <c r="AQ56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1049</v>
       </c>
       <c r="AR56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1279</v>
       </c>
       <c r="AS56" s="1">
@@ -21868,19 +21868,19 @@
         <v>1303</v>
       </c>
       <c r="BG56" s="1">
-        <f>SUM(AA56:AD56)</f>
+        <f t="shared" si="50"/>
         <v>3635</v>
       </c>
       <c r="BH56" s="1">
-        <f>SUM(AE56:AH56)</f>
+        <f t="shared" si="51"/>
         <v>5062</v>
       </c>
       <c r="BI56" s="1">
-        <f>SUM(AI56:AL56)</f>
+        <f t="shared" si="52"/>
         <v>3784</v>
       </c>
       <c r="BJ56" s="1">
-        <f>SUM(AM56:AP56)</f>
+        <f t="shared" si="53"/>
         <v>3705</v>
       </c>
       <c r="BK56" s="68">
@@ -21888,19 +21888,19 @@
         <v>3817.2812350749987</v>
       </c>
       <c r="BL56" s="68">
-        <f t="shared" ref="BL56:BO56" si="66">BL54-BL55</f>
+        <f t="shared" ref="BL56:BO56" si="74">BL54-BL55</f>
         <v>4191.9910537918904</v>
       </c>
       <c r="BM56" s="68">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>4633.3017118363705</v>
       </c>
       <c r="BN56" s="68">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>5055.5337549186206</v>
       </c>
       <c r="BO56" s="68">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>5267.9058053479466</v>
       </c>
     </row>
@@ -22042,19 +22042,19 @@
         <v>-9</v>
       </c>
       <c r="BG57" s="1">
-        <f>SUM(AA57:AD57)</f>
+        <f t="shared" si="50"/>
         <v>-29</v>
       </c>
       <c r="BH57" s="1">
-        <f>SUM(AE57:AH57)</f>
+        <f t="shared" si="51"/>
         <v>-23</v>
       </c>
       <c r="BI57" s="1">
-        <f>SUM(AI57:AL57)</f>
+        <f t="shared" si="52"/>
         <v>-26</v>
       </c>
       <c r="BJ57" s="1">
-        <f>SUM(AM57:AP57)</f>
+        <f t="shared" si="53"/>
         <v>-29</v>
       </c>
       <c r="BK57" s="68">
@@ -22062,19 +22062,19 @@
         <v>-31.32</v>
       </c>
       <c r="BL57" s="68">
-        <f t="shared" ref="BL57:BO57" si="67">BK57*1.08</f>
+        <f t="shared" ref="BL57:BO57" si="75">BK57*1.08</f>
         <v>-33.825600000000001</v>
       </c>
       <c r="BM57" s="68">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>-36.531648000000004</v>
       </c>
       <c r="BN57" s="68">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>-39.454179840000009</v>
       </c>
       <c r="BO57" s="68">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>-42.610514227200014</v>
       </c>
     </row>
@@ -22083,171 +22083,171 @@
         <v>2245</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" ref="C58" si="68">C56+C57</f>
+        <f t="shared" ref="C58" si="76">C56+C57</f>
         <v>871</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" ref="D58" si="69">D56+D57</f>
+        <f t="shared" ref="D58" si="77">D56+D57</f>
         <v>828</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" ref="E58" si="70">E56+E57</f>
+        <f t="shared" ref="E58" si="78">E56+E57</f>
         <v>977</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" ref="F58" si="71">F56+F57</f>
+        <f t="shared" ref="F58" si="79">F56+F57</f>
         <v>-1</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" ref="G58" si="72">G56+G57</f>
+        <f t="shared" ref="G58" si="80">G56+G57</f>
         <v>820</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" ref="H58" si="73">H56+H57</f>
+        <f t="shared" ref="H58" si="81">H56+H57</f>
         <v>520</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" ref="I58" si="74">I56+I57</f>
+        <f t="shared" ref="I58" si="82">I56+I57</f>
         <v>1095</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" ref="J58" si="75">J56+J57</f>
+        <f t="shared" ref="J58" si="83">J56+J57</f>
         <v>1103</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" ref="K58" si="76">K56+K57</f>
+        <f t="shared" ref="K58" si="84">K56+K57</f>
         <v>929</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" ref="L58" si="77">L56+L57</f>
+        <f t="shared" ref="L58" si="85">L56+L57</f>
         <v>1115</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" ref="M58" si="78">M56+M57</f>
+        <f t="shared" ref="M58" si="86">M56+M57</f>
         <v>821</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" ref="N58" si="79">N56+N57</f>
+        <f t="shared" ref="N58" si="87">N56+N57</f>
         <v>1163</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" ref="O58" si="80">O56+O57</f>
+        <f t="shared" ref="O58" si="88">O56+O57</f>
         <v>1016</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58" si="81">P56+P57</f>
+        <f t="shared" ref="P58" si="89">P56+P57</f>
         <v>2017</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" ref="Q58" si="82">Q56+Q57</f>
+        <f t="shared" ref="Q58" si="90">Q56+Q57</f>
         <v>-1389</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" ref="R58" si="83">R56+R57</f>
+        <f t="shared" ref="R58" si="91">R56+R57</f>
         <v>1460</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" ref="S58" si="84">S56+S57</f>
+        <f t="shared" ref="S58" si="92">S56+S57</f>
         <v>1075</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" ref="T58" si="85">T56+T57</f>
+        <f t="shared" ref="T58" si="93">T56+T57</f>
         <v>1125</v>
       </c>
       <c r="U58" s="2">
-        <f t="shared" ref="U58" si="86">U56+U57</f>
+        <f t="shared" ref="U58" si="94">U56+U57</f>
         <v>1273</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" ref="V58" si="87">V56+V57</f>
+        <f t="shared" ref="V58" si="95">V56+V57</f>
         <v>1172</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" ref="W58" si="88">W56+W57</f>
+        <f t="shared" ref="W58" si="96">W56+W57</f>
         <v>864</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" ref="X58" si="89">X56+X57</f>
+        <f t="shared" ref="X58" si="97">X56+X57</f>
         <v>1364</v>
       </c>
       <c r="Y58" s="2">
-        <f t="shared" ref="Y58" si="90">Y56+Y57</f>
+        <f t="shared" ref="Y58" si="98">Y56+Y57</f>
         <v>1915</v>
       </c>
       <c r="Z58" s="2">
-        <f t="shared" ref="Z58" si="91">Z56+Z57</f>
+        <f t="shared" ref="Z58" si="99">Z56+Z57</f>
         <v>646</v>
       </c>
       <c r="AA58" s="2">
-        <f t="shared" ref="AA58:AR58" si="92">AA56+AA57</f>
+        <f t="shared" ref="AA58:AR58" si="100">AA56+AA57</f>
         <v>487</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>489</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1270</v>
       </c>
       <c r="AD58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1360</v>
       </c>
       <c r="AE58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>763</v>
       </c>
       <c r="AF58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1311</v>
       </c>
       <c r="AG58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1480</v>
       </c>
       <c r="AH58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1485</v>
       </c>
       <c r="AI58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>929</v>
       </c>
       <c r="AJ58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>427</v>
       </c>
       <c r="AK58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1222</v>
       </c>
       <c r="AL58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1180</v>
       </c>
       <c r="AM58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>791</v>
       </c>
       <c r="AN58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>909</v>
       </c>
       <c r="AO58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1322</v>
       </c>
       <c r="AP58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>654</v>
       </c>
       <c r="AQ58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1043</v>
       </c>
       <c r="AR58" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1270</v>
       </c>
       <c r="AS58" s="2">
@@ -22282,19 +22282,19 @@
         <v>1890</v>
       </c>
       <c r="BG58" s="2">
-        <f>SUM(AA58:AD58)</f>
+        <f t="shared" si="50"/>
         <v>3606</v>
       </c>
       <c r="BH58" s="2">
-        <f>SUM(AE58:AH58)</f>
+        <f t="shared" si="51"/>
         <v>5039</v>
       </c>
       <c r="BI58" s="2">
-        <f>SUM(AI58:AL58)</f>
+        <f t="shared" si="52"/>
         <v>3758</v>
       </c>
       <c r="BJ58" s="2">
-        <f>SUM(AM58:AP58)</f>
+        <f t="shared" si="53"/>
         <v>3676</v>
       </c>
       <c r="BK58" s="66">
@@ -22302,19 +22302,19 @@
         <v>3785.9612350749985</v>
       </c>
       <c r="BL58" s="66">
-        <f t="shared" ref="BL58:BO58" si="93">BL56+BL57</f>
+        <f t="shared" ref="BL58:BO58" si="101">BL56+BL57</f>
         <v>4158.1654537918903</v>
       </c>
       <c r="BM58" s="66">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>4596.7700638363704</v>
       </c>
       <c r="BN58" s="66">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>5016.079575078621</v>
       </c>
       <c r="BO58" s="66">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>5225.2952911207467</v>
       </c>
       <c r="BP58" s="66">
@@ -22322,223 +22322,223 @@
         <v>5368.990911626568</v>
       </c>
       <c r="BQ58" s="66">
-        <f t="shared" ref="BQ58:DS58" si="94">BP58*(1+$BM$74)</f>
+        <f t="shared" ref="BQ58:DS58" si="102">BP58*(1+$BM$74)</f>
         <v>5516.638161696299</v>
       </c>
       <c r="BR58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>5668.3457111429479</v>
       </c>
       <c r="BS58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>5824.2252181993799</v>
       </c>
       <c r="BT58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>5984.3914116998631</v>
       </c>
       <c r="BU58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>6148.9621755216094</v>
       </c>
       <c r="BV58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>6318.0586353484541</v>
       </c>
       <c r="BW58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>6491.8052478205373</v>
       </c>
       <c r="BX58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>6670.3298921356027</v>
       </c>
       <c r="BY58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>6853.7639641693322</v>
       </c>
       <c r="BZ58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>7042.2424731839892</v>
       </c>
       <c r="CA58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>7235.9041411965491</v>
       </c>
       <c r="CB58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>7434.8915050794549</v>
       </c>
       <c r="CC58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>7639.3510214691405</v>
       </c>
       <c r="CD58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>7849.4331745595427</v>
       </c>
       <c r="CE58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>8065.2925868599305</v>
       </c>
       <c r="CF58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>8287.0881329985787</v>
       </c>
       <c r="CG58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>8514.9830566560395</v>
       </c>
       <c r="CH58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>8749.1450907140807</v>
       </c>
       <c r="CI58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>8989.7465807087192</v>
       </c>
       <c r="CJ58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>9236.9646116782096</v>
       </c>
       <c r="CK58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>9490.9811384993609</v>
       </c>
       <c r="CL58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>9751.9831198080938</v>
       </c>
       <c r="CM58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>10020.162655602817</v>
       </c>
       <c r="CN58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>10295.717128631895</v>
       </c>
       <c r="CO58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>10578.849349669274</v>
       </c>
       <c r="CP58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>10869.76770678518</v>
       </c>
       <c r="CQ58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>11168.686318721773</v>
       </c>
       <c r="CR58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>11475.825192486624</v>
       </c>
       <c r="CS58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>11791.410385280007</v>
       </c>
       <c r="CT58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>12115.674170875209</v>
       </c>
       <c r="CU58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>12448.855210574278</v>
       </c>
       <c r="CV58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>12791.198728865073</v>
       </c>
       <c r="CW58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>13142.956693908864</v>
       </c>
       <c r="CX58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>13504.388002991358</v>
       </c>
       <c r="CY58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>13875.758673073622</v>
       </c>
       <c r="CZ58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>14257.342036583148</v>
       </c>
       <c r="DA58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>14649.418942589185</v>
       </c>
       <c r="DB58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>15052.277963510389</v>
       </c>
       <c r="DC58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>15466.215607506925</v>
       </c>
       <c r="DD58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>15891.536536713367</v>
       </c>
       <c r="DE58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>16328.553791472987</v>
       </c>
       <c r="DF58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>16777.589020738495</v>
       </c>
       <c r="DG58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>17238.972718808804</v>
       </c>
       <c r="DH58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>17713.044468576049</v>
       </c>
       <c r="DI58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>18200.15319146189</v>
       </c>
       <c r="DJ58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>18700.657404227095</v>
       </c>
       <c r="DK58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>19214.92548284334</v>
       </c>
       <c r="DL58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>19743.335933621533</v>
       </c>
       <c r="DM58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>20286.277671796128</v>
       </c>
       <c r="DN58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>20844.150307770524</v>
       </c>
       <c r="DO58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>21417.364441234215</v>
       </c>
       <c r="DP58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>22006.341963368159</v>
       </c>
       <c r="DQ58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>22611.516367360786</v>
       </c>
       <c r="DR58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>23233.333067463209</v>
       </c>
       <c r="DS58" s="66">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>23872.249726818449</v>
       </c>
     </row>
@@ -22712,171 +22712,171 @@
         <v>2246</v>
       </c>
       <c r="C60" s="41">
-        <f t="shared" ref="C60" si="95">C58/C59</f>
+        <f t="shared" ref="C60" si="103">C58/C59</f>
         <v>0.87713997985901304</v>
       </c>
       <c r="D60" s="41">
-        <f t="shared" ref="D60" si="96">D58/D59</f>
+        <f t="shared" ref="D60" si="104">D58/D59</f>
         <v>0.84317718940936859</v>
       </c>
       <c r="E60" s="41">
-        <f t="shared" ref="E60" si="97">E58/E59</f>
+        <f t="shared" ref="E60" si="105">E58/E59</f>
         <v>0.99288617886178865</v>
       </c>
       <c r="F60" s="41">
-        <f t="shared" ref="F60" si="98">F58/F59</f>
+        <f t="shared" ref="F60" si="106">F58/F59</f>
         <v>-9.1240875912408756E-4</v>
       </c>
       <c r="G60" s="41">
-        <f t="shared" ref="G60" si="99">G58/G59</f>
+        <f t="shared" ref="G60" si="107">G58/G59</f>
         <v>0.57827926657263751</v>
       </c>
       <c r="H60" s="41">
-        <f t="shared" ref="H60" si="100">H58/H59</f>
+        <f t="shared" ref="H60" si="108">H58/H59</f>
         <v>0.36801132342533616</v>
       </c>
       <c r="I60" s="41">
-        <f t="shared" ref="I60" si="101">I58/I59</f>
+        <f t="shared" ref="I60" si="109">I58/I59</f>
         <v>0.7782515991471215</v>
       </c>
       <c r="J60" s="41">
-        <f t="shared" ref="J60" si="102">J58/J59</f>
+        <f t="shared" ref="J60" si="110">J58/J59</f>
         <v>0.78226950354609925</v>
       </c>
       <c r="K60" s="41">
-        <f t="shared" ref="K60" si="103">K58/K59</f>
+        <f t="shared" ref="K60" si="111">K58/K59</f>
         <v>0.66738505747126442</v>
       </c>
       <c r="L60" s="41">
-        <f t="shared" ref="L60" si="104">L58/L59</f>
+        <f t="shared" ref="L60" si="112">L58/L59</f>
         <v>0.80797101449275366</v>
       </c>
       <c r="M60" s="41">
-        <f t="shared" ref="M60" si="105">M58/M59</f>
+        <f t="shared" ref="M60" si="113">M58/M59</f>
         <v>0.59839650145772594</v>
       </c>
       <c r="N60" s="41">
-        <f t="shared" ref="N60" si="106">N58/N59</f>
+        <f t="shared" ref="N60" si="114">N58/N59</f>
         <v>0.84336475707034086</v>
       </c>
       <c r="O60" s="41">
-        <f t="shared" ref="O60" si="107">O58/O59</f>
+        <f t="shared" ref="O60" si="115">O58/O59</f>
         <v>0.74596182085168872</v>
       </c>
       <c r="P60" s="41">
-        <f t="shared" ref="P60" si="108">P58/P59</f>
+        <f t="shared" ref="P60" si="116">P58/P59</f>
         <v>1.4885608856088561</v>
       </c>
       <c r="Q60" s="41">
-        <f t="shared" ref="Q60" si="109">Q58/Q59</f>
+        <f t="shared" ref="Q60" si="117">Q58/Q59</f>
         <v>-1.0258493353028064</v>
       </c>
       <c r="R60" s="41">
-        <f t="shared" ref="R60" si="110">R58/R59</f>
+        <f t="shared" ref="R60" si="118">R58/R59</f>
         <v>1.0759027266028003</v>
       </c>
       <c r="S60" s="41">
-        <f t="shared" ref="S60" si="111">S58/S59</f>
+        <f t="shared" ref="S60" si="119">S58/S59</f>
         <v>0.79453067257945309</v>
       </c>
       <c r="T60" s="41">
-        <f t="shared" ref="T60" si="112">T58/T59</f>
+        <f t="shared" ref="T60" si="120">T58/T59</f>
         <v>0.83395107487027431</v>
       </c>
       <c r="U60" s="41">
-        <f t="shared" ref="U60:AR60" si="113">U58/U59</f>
+        <f t="shared" ref="U60:AR60" si="121">U58/U59</f>
         <v>0.94787788533134776</v>
       </c>
       <c r="V60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.87072808320950967</v>
       </c>
       <c r="W60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.64429530201342278</v>
       </c>
       <c r="X60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>1.0171513795674869</v>
       </c>
       <c r="Y60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>1.4280387770320657</v>
       </c>
       <c r="Z60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.48173005219985088</v>
       </c>
       <c r="AA60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.36291825024219387</v>
       </c>
       <c r="AB60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.36373103243082411</v>
       </c>
       <c r="AC60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.94325609031491375</v>
       </c>
       <c r="AD60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>1.0112276005650978</v>
       </c>
       <c r="AE60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.56749721085905536</v>
       </c>
       <c r="AF60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.97464872500185862</v>
       </c>
       <c r="AG60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>1.1014363325146981</v>
       </c>
       <c r="AH60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>1.1062276519666268</v>
       </c>
       <c r="AI60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.69881149390702568</v>
       </c>
       <c r="AJ60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.32119753272152851</v>
       </c>
       <c r="AK60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.91865884829348965</v>
       </c>
       <c r="AL60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.88735148142577835</v>
       </c>
       <c r="AM60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.59451334084930474</v>
       </c>
       <c r="AN60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.68335588633288225</v>
       </c>
       <c r="AO60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.99420922012484014</v>
       </c>
       <c r="AP60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.49258115538148678</v>
       </c>
       <c r="AQ60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.80646408412587955</v>
       </c>
       <c r="AR60" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="121"/>
         <v>0.99033063006862121</v>
       </c>
       <c r="AS60" s="41">
@@ -22911,15 +22911,15 @@
         <v>1.81</v>
       </c>
       <c r="BG60" s="41">
-        <f t="shared" ref="BG60:BI60" si="114">BG58/BG59</f>
+        <f t="shared" ref="BG60:BI60" si="122">BG58/BG59</f>
         <v>2.6872345182204334</v>
       </c>
       <c r="BH60" s="41">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>3.7537246722288438</v>
       </c>
       <c r="BI60" s="41">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>2.8259888705068432</v>
       </c>
       <c r="BJ60" s="41">
@@ -22931,19 +22931,19 @@
         <v>2.8508744240022579</v>
       </c>
       <c r="BL60" s="67">
-        <f t="shared" ref="BL60:BO60" si="115">BL58/BL59</f>
+        <f t="shared" ref="BL60:BO60" si="123">BL58/BL59</f>
         <v>3.1311486850842547</v>
       </c>
       <c r="BM60" s="67">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>3.4614232408406402</v>
       </c>
       <c r="BN60" s="67">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>3.7771683547278774</v>
       </c>
       <c r="BO60" s="67">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>3.9347103095788754</v>
       </c>
     </row>
@@ -22956,187 +22956,187 @@
         <v>0.74139948513924647</v>
       </c>
       <c r="D62" s="46">
-        <f t="shared" ref="D62:AS62" si="116">D45/D43</f>
+        <f t="shared" ref="D62:AS62" si="124">D45/D43</f>
         <v>0.73843334860284016</v>
       </c>
       <c r="E62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.73876794812413149</v>
       </c>
       <c r="F62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.59830230010952901</v>
       </c>
       <c r="G62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.66235908715974701</v>
       </c>
       <c r="H62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.69084726551430997</v>
       </c>
       <c r="I62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.69123161234496688</v>
       </c>
       <c r="J62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68772300779701334</v>
       </c>
       <c r="K62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68448227742115542</v>
       </c>
       <c r="L62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68332198774676656</v>
       </c>
       <c r="M62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68858986681312651</v>
       </c>
       <c r="N62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.69188984335522996</v>
       </c>
       <c r="O62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68173207036535854</v>
       </c>
       <c r="P62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6988652482269504</v>
       </c>
       <c r="Q62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.70226625050888858</v>
       </c>
       <c r="R62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.70555009823182713</v>
       </c>
       <c r="S62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.70151679306608883</v>
       </c>
       <c r="T62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.70552065231920869</v>
       </c>
       <c r="U62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6998409753511794</v>
       </c>
       <c r="V62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.69518782224404618</v>
       </c>
       <c r="W62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68423862271453362</v>
       </c>
       <c r="X62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68933298728263692</v>
       </c>
       <c r="Y62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68899831540754175</v>
       </c>
       <c r="Z62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.62247790561947636</v>
       </c>
       <c r="AA62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6150299677270632</v>
       </c>
       <c r="AB62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.64626650974238264</v>
       </c>
       <c r="AC62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.66289389067524118</v>
       </c>
       <c r="AD62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.67611138251099168</v>
       </c>
       <c r="AE62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.67472142231125576</v>
       </c>
       <c r="AF62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6817892188097362</v>
       </c>
       <c r="AG62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.68324101507149293</v>
       </c>
       <c r="AH62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6796884658177772</v>
       </c>
       <c r="AI62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.65866232532899205</v>
       </c>
       <c r="AJ62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.66578773895847065</v>
       </c>
       <c r="AK62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.65199948233467064</v>
       </c>
       <c r="AL62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.65133426966292129</v>
       </c>
       <c r="AM62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6587899246948844</v>
       </c>
       <c r="AN62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.65418336673346689</v>
       </c>
       <c r="AO62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6560761528000989</v>
       </c>
       <c r="AP62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6454767726161369</v>
       </c>
       <c r="AQ62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.65116866708780796</v>
       </c>
       <c r="AR62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.6494109246697608</v>
       </c>
       <c r="AS62" s="46">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>0.66485769416304874</v>
       </c>
       <c r="BG62" s="46">
-        <f t="shared" ref="BG62:BI62" si="117">BG45/BG43</f>
+        <f t="shared" ref="BG62:BI62" si="125">BG45/BG43</f>
         <v>0.6519241624331773</v>
       </c>
       <c r="BH62" s="46">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>0.67982705295714196</v>
       </c>
       <c r="BI62" s="46">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>0.65673936016908441</v>
       </c>
       <c r="BJ62" s="46">
-        <f t="shared" ref="BJ62" si="118">BJ45/BJ43</f>
+        <f t="shared" ref="BJ62" si="126">BJ45/BJ43</f>
         <v>0.65344209615622295</v>
       </c>
       <c r="BK62" s="65">
@@ -23160,175 +23160,175 @@
         <v>103</v>
       </c>
       <c r="C63" s="46">
-        <f>C46/C43</f>
+        <f t="shared" ref="C63:AS63" si="127">C46/C43</f>
         <v>8.5420079569389185E-2</v>
       </c>
       <c r="D63" s="46">
-        <f>D46/D43</f>
+        <f t="shared" si="127"/>
         <v>8.5661933119560232E-2</v>
       </c>
       <c r="E63" s="46">
-        <f>E46/E43</f>
+        <f t="shared" si="127"/>
         <v>8.6382584529874948E-2</v>
       </c>
       <c r="F63" s="46">
-        <f>F46/F43</f>
+        <f t="shared" si="127"/>
         <v>7.2289156626506021E-2</v>
       </c>
       <c r="G63" s="46">
-        <f>G46/G43</f>
+        <f t="shared" si="127"/>
         <v>7.6711575474291999E-2</v>
       </c>
       <c r="H63" s="46">
-        <f>H46/H43</f>
+        <f t="shared" si="127"/>
         <v>7.7217342023236046E-2</v>
       </c>
       <c r="I63" s="46">
-        <f>I46/I43</f>
+        <f t="shared" si="127"/>
         <v>7.8742428612633406E-2</v>
       </c>
       <c r="J63" s="46">
-        <f>J46/J43</f>
+        <f t="shared" si="127"/>
         <v>7.598784194528875E-2</v>
       </c>
       <c r="K63" s="46">
-        <f>K46/K43</f>
+        <f t="shared" si="127"/>
         <v>7.7588612894222725E-2</v>
       </c>
       <c r="L63" s="46">
-        <f>L46/L43</f>
+        <f t="shared" si="127"/>
         <v>7.5425459496255953E-2</v>
       </c>
       <c r="M63" s="46">
-        <f>M46/M43</f>
+        <f t="shared" si="127"/>
         <v>7.2772209254428122E-2</v>
       </c>
       <c r="N63" s="46">
-        <f>N46/N43</f>
+        <f t="shared" si="127"/>
         <v>6.985851440121274E-2</v>
       </c>
       <c r="O63" s="46">
-        <f>O46/O43</f>
+        <f t="shared" si="127"/>
         <v>7.4289580514208392E-2</v>
       </c>
       <c r="P63" s="46">
-        <f>P46/P43</f>
+        <f t="shared" si="127"/>
         <v>7.886524822695036E-2</v>
       </c>
       <c r="Q63" s="46">
-        <f>Q46/Q43</f>
+        <f t="shared" si="127"/>
         <v>7.5858325417288638E-2</v>
       </c>
       <c r="R63" s="46">
-        <f>R46/R43</f>
+        <f t="shared" si="127"/>
         <v>7.269155206286837E-2</v>
       </c>
       <c r="S63" s="46">
-        <f>S46/S43</f>
+        <f t="shared" si="127"/>
         <v>7.9225352112676062E-2</v>
       </c>
       <c r="T63" s="46">
-        <f>T46/T43</f>
+        <f t="shared" si="127"/>
         <v>7.8866461702980881E-2</v>
       </c>
       <c r="U63" s="46">
-        <f>U46/U43</f>
+        <f t="shared" si="127"/>
         <v>7.4344023323615158E-2</v>
       </c>
       <c r="V63" s="46">
-        <f>V46/V43</f>
+        <f t="shared" si="127"/>
         <v>7.2919224159096491E-2</v>
       </c>
       <c r="W63" s="46">
-        <f>W46/W43</f>
+        <f t="shared" si="127"/>
         <v>7.833978379821166E-2</v>
       </c>
       <c r="X63" s="46">
-        <f>X46/X43</f>
+        <f t="shared" si="127"/>
         <v>7.8250713729561383E-2</v>
       </c>
       <c r="Y63" s="46">
-        <f>Y46/Y43</f>
+        <f t="shared" si="127"/>
         <v>7.42516521964494E-2</v>
       </c>
       <c r="Z63" s="46">
-        <f>Z46/Z43</f>
+        <f t="shared" si="127"/>
         <v>9.4714023678505926E-2</v>
       </c>
       <c r="AA63" s="46">
-        <f>AA46/AA43</f>
+        <f t="shared" si="127"/>
         <v>9.5435684647302899E-2</v>
       </c>
       <c r="AB63" s="46">
-        <f>AB46/AB43</f>
+        <f t="shared" si="127"/>
         <v>8.3562181247548065E-2</v>
       </c>
       <c r="AC63" s="46">
-        <f>AC46/AC43</f>
+        <f t="shared" si="127"/>
         <v>7.7299035369774921E-2</v>
       </c>
       <c r="AD63" s="46">
-        <f>AD46/AD43</f>
+        <f t="shared" si="127"/>
         <v>7.7186126038104541E-2</v>
       </c>
       <c r="AE63" s="46">
-        <f>AE46/AE43</f>
+        <f t="shared" si="127"/>
         <v>9.3902591711531244E-2</v>
       </c>
       <c r="AF63" s="46">
-        <f>AF46/AF43</f>
+        <f t="shared" si="127"/>
         <v>8.6147572320632082E-2</v>
       </c>
       <c r="AG63" s="46">
-        <f>AG46/AG43</f>
+        <f t="shared" si="127"/>
         <v>8.6049207780497225E-2</v>
       </c>
       <c r="AH63" s="46">
-        <f>AH46/AH43</f>
+        <f t="shared" si="127"/>
         <v>8.0603288416367908E-2</v>
       </c>
       <c r="AI63" s="46">
-        <f>AI46/AI43</f>
+        <f t="shared" si="127"/>
         <v>9.3881427214760546E-2</v>
       </c>
       <c r="AJ63" s="46">
-        <f>AJ46/AJ43</f>
+        <f t="shared" si="127"/>
         <v>8.9123269611074488E-2</v>
       </c>
       <c r="AK63" s="46">
-        <f>AK46/AK43</f>
+        <f t="shared" si="127"/>
         <v>8.9038436650705322E-2</v>
       </c>
       <c r="AL63" s="46">
-        <f>AL46/AL43</f>
+        <f t="shared" si="127"/>
         <v>7.4906367041198504E-2</v>
       </c>
       <c r="AM63" s="46">
-        <f>AM46/AM43</f>
+        <f t="shared" si="127"/>
         <v>8.6730719293689945E-2</v>
       </c>
       <c r="AN63" s="46">
-        <f>AN46/AN43</f>
+        <f t="shared" si="127"/>
         <v>8.7424849699398802E-2</v>
       </c>
       <c r="AO63" s="46">
-        <f>AO46/AO43</f>
+        <f t="shared" si="127"/>
         <v>8.5919149462232655E-2</v>
       </c>
       <c r="AP63" s="46">
-        <f>AP46/AP43</f>
+        <f t="shared" si="127"/>
         <v>7.8472464780533241E-2</v>
       </c>
       <c r="AQ63" s="46">
-        <f>AQ46/AQ43</f>
+        <f t="shared" si="127"/>
         <v>8.54074542008844E-2</v>
       </c>
       <c r="AR63" s="46">
-        <f>AR46/AR43</f>
+        <f t="shared" si="127"/>
         <v>8.2946566702368205E-2</v>
       </c>
       <c r="AS63" s="46">
-        <f>AS46/AS43</f>
+        <f t="shared" si="127"/>
         <v>8.1403762662807522E-2</v>
       </c>
       <c r="BG63" s="46">
@@ -23368,175 +23368,175 @@
         <v>104</v>
       </c>
       <c r="C64" s="46">
-        <f>C47/C43</f>
+        <f t="shared" ref="C64:AS64" si="128">C47/C43</f>
         <v>0.35244558857945235</v>
       </c>
       <c r="D64" s="46">
-        <f>D47/D43</f>
+        <f t="shared" si="128"/>
         <v>0.34516720109940446</v>
       </c>
       <c r="E64" s="46">
-        <f>E47/E43</f>
+        <f t="shared" si="128"/>
         <v>0.3443723946271422</v>
       </c>
       <c r="F64" s="46">
-        <f>F47/F43</f>
+        <f t="shared" si="128"/>
         <v>0.32913472070098576</v>
       </c>
       <c r="G64" s="46">
-        <f>G47/G43</f>
+        <f t="shared" si="128"/>
         <v>0.33667858124828154</v>
       </c>
       <c r="H64" s="46">
-        <f>H47/H43</f>
+        <f t="shared" si="128"/>
         <v>0.33196372910172856</v>
       </c>
       <c r="I64" s="46">
-        <f>I47/I43</f>
+        <f t="shared" si="128"/>
         <v>0.33415056244591868</v>
       </c>
       <c r="J64" s="46">
-        <f>J47/J43</f>
+        <f t="shared" si="128"/>
         <v>0.31188053389718512</v>
       </c>
       <c r="K64" s="46">
-        <f>K47/K43</f>
+        <f t="shared" si="128"/>
         <v>0.33882221602009488</v>
       </c>
       <c r="L64" s="46">
-        <f>L47/L43</f>
+        <f t="shared" si="128"/>
         <v>0.32893124574540505</v>
       </c>
       <c r="M64" s="46">
-        <f>M47/M43</f>
+        <f t="shared" si="128"/>
         <v>0.32788685981051763</v>
       </c>
       <c r="N64" s="46">
-        <f>N47/N43</f>
+        <f t="shared" si="128"/>
         <v>0.35194542698332493</v>
       </c>
       <c r="O64" s="46">
-        <f>O47/O43</f>
+        <f t="shared" si="128"/>
         <v>0.34912043301759133</v>
       </c>
       <c r="P64" s="46">
-        <f>P47/P43</f>
+        <f t="shared" si="128"/>
         <v>0.36014184397163118</v>
       </c>
       <c r="Q64" s="46">
-        <f>Q47/Q43</f>
+        <f t="shared" si="128"/>
         <v>0.34238024155244945</v>
       </c>
       <c r="R64" s="46">
-        <f>R47/R43</f>
+        <f t="shared" si="128"/>
         <v>0.31876227897838899</v>
       </c>
       <c r="S64" s="46">
-        <f>S47/S43</f>
+        <f t="shared" si="128"/>
         <v>0.35170639219934996</v>
       </c>
       <c r="T64" s="46">
-        <f>T47/T43</f>
+        <f t="shared" si="128"/>
         <v>0.34821547921400881</v>
       </c>
       <c r="U64" s="46">
-        <f>U47/U43</f>
+        <f t="shared" si="128"/>
         <v>0.34402332361516036</v>
       </c>
       <c r="V64" s="46">
-        <f>V47/V43</f>
+        <f t="shared" si="128"/>
         <v>0.32163024797446599</v>
       </c>
       <c r="W64" s="46">
-        <f>W47/W43</f>
+        <f t="shared" si="128"/>
         <v>0.33938342452956094</v>
       </c>
       <c r="X64" s="46">
-        <f>X47/X43</f>
+        <f t="shared" si="128"/>
         <v>0.33999480923955361</v>
       </c>
       <c r="Y64" s="46">
-        <f>Y47/Y43</f>
+        <f t="shared" si="128"/>
         <v>0.33523389918362057</v>
       </c>
       <c r="Z64" s="46">
-        <f>Z47/Z43</f>
+        <f t="shared" si="128"/>
         <v>0.39336334834083708</v>
       </c>
       <c r="AA64" s="46">
-        <f>AA47/AA43</f>
+        <f t="shared" si="128"/>
         <v>0.3714461349316121</v>
       </c>
       <c r="AB64" s="46">
-        <f>AB47/AB43</f>
+        <f t="shared" si="128"/>
         <v>0.34000261540473387</v>
       </c>
       <c r="AC64" s="46">
-        <f>AC47/AC43</f>
+        <f t="shared" si="128"/>
         <v>0.3263022508038585</v>
       </c>
       <c r="AD64" s="46">
-        <f>AD47/AD43</f>
+        <f t="shared" si="128"/>
         <v>0.31619443087445043</v>
       </c>
       <c r="AE64" s="46">
-        <f>AE47/AE43</f>
+        <f t="shared" si="128"/>
         <v>0.31889320145236011</v>
       </c>
       <c r="AF64" s="46">
-        <f>AF47/AF43</f>
+        <f t="shared" si="128"/>
         <v>0.33324837517522621</v>
       </c>
       <c r="AG64" s="46">
-        <f>AG47/AG43</f>
+        <f t="shared" si="128"/>
         <v>0.32989823521834344</v>
       </c>
       <c r="AH64" s="46">
-        <f>AH47/AH43</f>
+        <f t="shared" si="128"/>
         <v>0.3175917913215478</v>
       </c>
       <c r="AI64" s="46">
-        <f>AI47/AI43</f>
+        <f t="shared" si="128"/>
         <v>0.34825668159001494</v>
       </c>
       <c r="AJ64" s="46">
-        <f>AJ47/AJ43</f>
+        <f t="shared" si="128"/>
         <v>0.34502307185234016</v>
       </c>
       <c r="AK64" s="46">
-        <f>AK47/AK43</f>
+        <f t="shared" si="128"/>
         <v>0.33842370907208491</v>
       </c>
       <c r="AL64" s="46">
-        <f>AL47/AL43</f>
+        <f t="shared" si="128"/>
         <v>0.3061797752808989</v>
       </c>
       <c r="AM64" s="46">
-        <f>AM47/AM43</f>
+        <f t="shared" si="128"/>
         <v>0.33926252921319139</v>
       </c>
       <c r="AN64" s="46">
-        <f>AN47/AN43</f>
+        <f t="shared" si="128"/>
         <v>0.33642284569138275</v>
       </c>
       <c r="AO64" s="46">
-        <f>AO47/AO43</f>
+        <f t="shared" si="128"/>
         <v>0.33044875757201136</v>
       </c>
       <c r="AP64" s="46">
-        <f>AP47/AP43</f>
+        <f t="shared" si="128"/>
         <v>0.32180696239375944</v>
       </c>
       <c r="AQ64" s="46">
-        <f>AQ47/AQ43</f>
+        <f t="shared" si="128"/>
         <v>0.33543903979785217</v>
       </c>
       <c r="AR64" s="46">
-        <f>AR47/AR43</f>
+        <f t="shared" si="128"/>
         <v>0.32809710817565158</v>
       </c>
       <c r="AS64" s="46">
-        <f>AS47/AS43</f>
+        <f t="shared" si="128"/>
         <v>0.32766521948866378</v>
       </c>
       <c r="BG64" s="46">
@@ -23576,175 +23576,175 @@
         <v>105</v>
       </c>
       <c r="C65" s="46">
-        <f>C51/C43</f>
+        <f t="shared" ref="C65:AS65" si="129">C51/C43</f>
         <v>0.25462204540135736</v>
       </c>
       <c r="D65" s="46">
-        <f>D51/D43</f>
+        <f t="shared" si="129"/>
         <v>0.23591387998167659</v>
       </c>
       <c r="E65" s="46">
-        <f>E51/E43</f>
+        <f t="shared" si="129"/>
         <v>0.29527559055118108</v>
       </c>
       <c r="F65" s="46">
-        <f>F51/F43</f>
+        <f t="shared" si="129"/>
         <v>5.106790799561884E-2</v>
       </c>
       <c r="G65" s="46">
-        <f>G51/G43</f>
+        <f t="shared" si="129"/>
         <v>0.155485290074237</v>
       </c>
       <c r="H65" s="46">
-        <f>H51/H43</f>
+        <f t="shared" si="129"/>
         <v>0.18418815528478322</v>
       </c>
       <c r="I65" s="46">
-        <f>I51/I43</f>
+        <f t="shared" si="129"/>
         <v>0.1954139025093741</v>
       </c>
       <c r="J65" s="46">
-        <f>J51/J43</f>
+        <f t="shared" si="129"/>
         <v>0.20814061054579094</v>
       </c>
       <c r="K65" s="46">
-        <f>K51/K43</f>
+        <f t="shared" si="129"/>
         <v>0.16285235835891712</v>
       </c>
       <c r="L65" s="46">
-        <f>L51/L43</f>
+        <f t="shared" si="129"/>
         <v>0.18856364874063988</v>
       </c>
       <c r="M65" s="46">
-        <f>M51/M43</f>
+        <f t="shared" si="129"/>
         <v>0.15749004531099822</v>
       </c>
       <c r="N65" s="46">
-        <f>N51/N43</f>
+        <f t="shared" si="129"/>
         <v>0.21273370389085397</v>
       </c>
       <c r="O65" s="46">
-        <f>O51/O43</f>
+        <f t="shared" si="129"/>
         <v>0.18700947225981054</v>
       </c>
       <c r="P65" s="46">
-        <f>P51/P43</f>
+        <f t="shared" si="129"/>
         <v>0.16978723404255319</v>
       </c>
       <c r="Q65" s="46">
-        <f>Q51/Q43</f>
+        <f t="shared" si="129"/>
         <v>0.19487040303976116</v>
       </c>
       <c r="R65" s="46">
-        <f>R51/R43</f>
+        <f t="shared" si="129"/>
         <v>0.32232318271119842</v>
       </c>
       <c r="S65" s="46">
-        <f>S51/S43</f>
+        <f t="shared" si="129"/>
         <v>0.16738894907908991</v>
       </c>
       <c r="T65" s="46">
-        <f>T51/T43</f>
+        <f t="shared" si="129"/>
         <v>0.20638952011763134</v>
       </c>
       <c r="U65" s="46">
-        <f>U51/U43</f>
+        <f t="shared" si="129"/>
         <v>0.20434667373442883</v>
       </c>
       <c r="V65" s="46">
-        <f>V51/V43</f>
+        <f t="shared" si="129"/>
         <v>0.23889025288485147</v>
       </c>
       <c r="W65" s="46">
-        <f>W51/W43</f>
+        <f t="shared" si="129"/>
         <v>0.19818497264113172</v>
       </c>
       <c r="X65" s="46">
-        <f>X51/X43</f>
+        <f t="shared" si="129"/>
         <v>0.17531793407734234</v>
       </c>
       <c r="Y65" s="46">
-        <f>Y51/Y43</f>
+        <f t="shared" si="129"/>
         <v>0.21238823376959959</v>
       </c>
       <c r="Z65" s="46">
-        <f>Z51/Z43</f>
+        <f t="shared" si="129"/>
         <v>5.2693013173253291E-2</v>
       </c>
       <c r="AA65" s="46">
-        <f>AA51/AA43</f>
+        <f t="shared" si="129"/>
         <v>0.10342707853081297</v>
       </c>
       <c r="AB65" s="46">
-        <f>AB51/AB43</f>
+        <f t="shared" si="129"/>
         <v>0.12161632012553943</v>
       </c>
       <c r="AC65" s="46">
-        <f>AC51/AC43</f>
+        <f t="shared" si="129"/>
         <v>0.16424437299035369</v>
       </c>
       <c r="AD65" s="46">
-        <f>AD51/AD43</f>
+        <f t="shared" si="129"/>
         <v>0.19650708353688323</v>
       </c>
       <c r="AE65" s="46">
-        <f>AE51/AE43</f>
+        <f t="shared" si="129"/>
         <v>0.10754976837360711</v>
       </c>
       <c r="AF65" s="46">
-        <f>AF51/AF43</f>
+        <f t="shared" si="129"/>
         <v>0.19918440168217152</v>
       </c>
       <c r="AG65" s="46">
-        <f>AG51/AG43</f>
+        <f t="shared" si="129"/>
         <v>0.21370604147880973</v>
       </c>
       <c r="AH65" s="46">
-        <f>AH51/AH43</f>
+        <f t="shared" si="129"/>
         <v>0.2067004574112993</v>
       </c>
       <c r="AI65" s="46">
-        <f>AI51/AI43</f>
+        <f t="shared" si="129"/>
         <v>0.15262515262515264</v>
       </c>
       <c r="AJ65" s="46">
-        <f>AJ51/AJ43</f>
+        <f t="shared" si="129"/>
         <v>0.18510217534607779</v>
       </c>
       <c r="AK65" s="46">
-        <f>AK51/AK43</f>
+        <f t="shared" si="129"/>
         <v>0.1801475346188689</v>
       </c>
       <c r="AL65" s="46">
-        <f>AL51/AL43</f>
+        <f t="shared" si="129"/>
         <v>0.18305243445692884</v>
       </c>
       <c r="AM65" s="46">
-        <f>AM51/AM43</f>
+        <f t="shared" si="129"/>
         <v>0.16463256297065698</v>
       </c>
       <c r="AN65" s="46">
-        <f>AN51/AN43</f>
+        <f t="shared" si="129"/>
         <v>0.16783567134268537</v>
       </c>
       <c r="AO65" s="46">
-        <f>AO51/AO43</f>
+        <f t="shared" si="129"/>
         <v>0.18333539374459143</v>
       </c>
       <c r="AP65" s="46">
-        <f>AP51/AP43</f>
+        <f t="shared" si="129"/>
         <v>0.12259867272092211</v>
       </c>
       <c r="AQ65" s="46">
-        <f>AQ51/AQ43</f>
+        <f t="shared" si="129"/>
         <v>0.16146557169930512</v>
       </c>
       <c r="AR65" s="46">
-        <f>AR51/AR43</f>
+        <f t="shared" si="129"/>
         <v>0.18981316196596454</v>
       </c>
       <c r="AS65" s="46">
-        <f>AS51/AS43</f>
+        <f t="shared" si="129"/>
         <v>0.19850458273034249</v>
       </c>
       <c r="BG65" s="46">
@@ -23768,19 +23768,19 @@
         <v>0.16649141348656563</v>
       </c>
       <c r="BL65" s="65">
-        <f t="shared" ref="BL65:BO65" si="119">BL51/BL43</f>
+        <f t="shared" ref="BL65:BO65" si="130">BL51/BL43</f>
         <v>0.16660032865738164</v>
       </c>
       <c r="BM65" s="65">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.16702798285574824</v>
       </c>
       <c r="BN65" s="65">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.16681551888727428</v>
       </c>
       <c r="BO65" s="65">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.16412560277286484</v>
       </c>
     </row>
@@ -23789,175 +23789,175 @@
         <v>106</v>
       </c>
       <c r="C66" s="46">
-        <f>C55/C54</f>
+        <f t="shared" ref="C66:AS66" si="131">C55/C54</f>
         <v>0.19575253924284394</v>
       </c>
       <c r="D66" s="46">
-        <f>D55/D54</f>
+        <f t="shared" si="131"/>
         <v>0.18982387475538159</v>
       </c>
       <c r="E66" s="46">
-        <f>E55/E54</f>
+        <f t="shared" si="131"/>
         <v>0.18174204355108878</v>
       </c>
       <c r="F66" s="46">
-        <f>F55/F54</f>
+        <f t="shared" si="131"/>
         <v>1.0053475935828877</v>
       </c>
       <c r="G66" s="46">
-        <f>G55/G54</f>
+        <f t="shared" si="131"/>
         <v>0.1276595744680851</v>
       </c>
       <c r="H66" s="46">
-        <f>H55/H54</f>
+        <f t="shared" si="131"/>
         <v>0.51985226223453374</v>
       </c>
       <c r="I66" s="46">
-        <f>I55/I54</f>
+        <f t="shared" si="131"/>
         <v>7.124681933842239E-2</v>
       </c>
       <c r="J66" s="46">
-        <f>J55/J54</f>
+        <f t="shared" si="131"/>
         <v>2.7336860670194002E-2</v>
       </c>
       <c r="K66" s="46">
-        <f>K55/K54</f>
+        <f t="shared" si="131"/>
         <v>5.9716599190283402E-2</v>
       </c>
       <c r="L66" s="46">
-        <f>L55/L54</f>
+        <f t="shared" si="131"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M66" s="46">
-        <f>M55/M54</f>
+        <f t="shared" si="131"/>
         <v>0.15201654601861428</v>
       </c>
       <c r="N66" s="46">
-        <f>N55/N54</f>
+        <f t="shared" si="131"/>
         <v>0.18885017421602787</v>
       </c>
       <c r="O66" s="46">
-        <f>O55/O54</f>
+        <f t="shared" si="131"/>
         <v>0.15564853556485356</v>
       </c>
       <c r="P66" s="46">
-        <f>P55/P54</f>
+        <f t="shared" si="131"/>
         <v>-0.16493055555555555</v>
       </c>
       <c r="Q66" s="46">
-        <f>Q55/Q54</f>
+        <f t="shared" si="131"/>
         <v>2.3554040895813046</v>
       </c>
       <c r="R66" s="46">
-        <f>R55/R54</f>
+        <f t="shared" si="131"/>
         <v>0.15072463768115943</v>
       </c>
       <c r="S66" s="46">
-        <f>S55/S54</f>
+        <f t="shared" si="131"/>
         <v>8.7288135593220337E-2</v>
       </c>
       <c r="T66" s="46">
-        <f>T55/T54</f>
+        <f t="shared" si="131"/>
         <v>0.17343173431734318</v>
       </c>
       <c r="U66" s="46">
-        <f>U55/U54</f>
+        <f t="shared" si="131"/>
         <v>7.2262773722627738E-2</v>
       </c>
       <c r="V66" s="46">
-        <f>V55/V54</f>
+        <f t="shared" si="131"/>
         <v>8.5139318885448914E-2</v>
       </c>
       <c r="W66" s="46">
-        <f>W55/W54</f>
+        <f t="shared" si="131"/>
         <v>0.10235414534288639</v>
       </c>
       <c r="X66" s="46">
-        <f>X55/X54</f>
+        <f t="shared" si="131"/>
         <v>-5.9505409582689336E-2</v>
       </c>
       <c r="Y66" s="46">
-        <f>Y55/Y54</f>
+        <f t="shared" si="131"/>
         <v>-0.21532615579480685</v>
       </c>
       <c r="Z66" s="46">
-        <f>Z55/Z54</f>
+        <f t="shared" si="131"/>
         <v>-2.1170731707317074</v>
       </c>
       <c r="AA66" s="46">
-        <f>AA55/AA54</f>
+        <f t="shared" si="131"/>
         <v>0.15924657534246575</v>
       </c>
       <c r="AB66" s="46">
-        <f>AB55/AB54</f>
+        <f t="shared" si="131"/>
         <v>5.904761904761905E-2</v>
       </c>
       <c r="AC66" s="46">
-        <f>AC55/AC54</f>
+        <f t="shared" si="131"/>
         <v>-4.836065573770492E-2</v>
       </c>
       <c r="AD66" s="46">
-        <f>AD55/AD54</f>
+        <f t="shared" si="131"/>
         <v>0.1273074474856779</v>
       </c>
       <c r="AE66" s="46">
-        <f>AE55/AE54</f>
+        <f t="shared" si="131"/>
         <v>7.6830732292917162E-2</v>
       </c>
       <c r="AF66" s="46">
-        <f>AF55/AF54</f>
+        <f t="shared" si="131"/>
         <v>0.11788345612860013</v>
       </c>
       <c r="AG66" s="46">
-        <f>AG55/AG54</f>
+        <f t="shared" si="131"/>
         <v>6.6708621774701077E-2</v>
       </c>
       <c r="AH66" s="46">
-        <f>AH55/AH54</f>
+        <f t="shared" si="131"/>
         <v>6.8621334996880848E-2</v>
       </c>
       <c r="AI66" s="46">
-        <f>AI55/AI54</f>
+        <f t="shared" si="131"/>
         <v>0.1082375478927203</v>
       </c>
       <c r="AJ66" s="46">
-        <f>AJ55/AJ54</f>
+        <f t="shared" si="131"/>
         <v>0.68817204301075274</v>
       </c>
       <c r="AK66" s="46">
-        <f>AK55/AK54</f>
+        <f t="shared" si="131"/>
         <v>0.10618181818181818</v>
       </c>
       <c r="AL66" s="46">
-        <f>AL55/AL54</f>
+        <f t="shared" si="131"/>
         <v>0.23290322580645162</v>
       </c>
       <c r="AM66" s="46">
-        <f>AM55/AM54</f>
+        <f t="shared" si="131"/>
         <v>0.33444816053511706</v>
       </c>
       <c r="AN66" s="46">
-        <f>AN55/AN54</f>
+        <f t="shared" si="131"/>
         <v>0.30616907844630614</v>
       </c>
       <c r="AO66" s="46">
-        <f>AO55/AO54</f>
+        <f t="shared" si="131"/>
         <v>9.1711956521739135E-2</v>
       </c>
       <c r="AP66" s="46">
-        <f>AP55/AP54</f>
+        <f t="shared" si="131"/>
         <v>0.22780373831775702</v>
       </c>
       <c r="AQ66" s="46">
-        <f>AQ55/AQ54</f>
+        <f t="shared" si="131"/>
         <v>0.17271293375394323</v>
       </c>
       <c r="AR66" s="46">
-        <f>AR55/AR54</f>
+        <f t="shared" si="131"/>
         <v>0.17960230917254649</v>
       </c>
       <c r="AS66" s="46">
-        <f>AS55/AS54</f>
+        <f t="shared" si="131"/>
         <v>0.15389610389610389</v>
       </c>
       <c r="BG66" s="46">
@@ -23997,175 +23997,175 @@
         <v>107</v>
       </c>
       <c r="C67" s="46">
-        <f>C56/C43</f>
+        <f t="shared" ref="C67:AS67" si="132">C56/C43</f>
         <v>0.20383805289024104</v>
       </c>
       <c r="D67" s="46">
-        <f>D56/D43</f>
+        <f t="shared" si="132"/>
         <v>0.18964727439303711</v>
       </c>
       <c r="E67" s="46">
-        <f>E56/E43</f>
+        <f t="shared" si="132"/>
         <v>0.22626215840666974</v>
       </c>
       <c r="F67" s="46">
-        <f>F56/F43</f>
+        <f t="shared" si="132"/>
         <v>-1.3691128148959474E-4</v>
       </c>
       <c r="G67" s="46">
-        <f>G56/G43</f>
+        <f t="shared" si="132"/>
         <v>0.11273027220236459</v>
       </c>
       <c r="H67" s="46">
-        <f>H56/H43</f>
+        <f t="shared" si="132"/>
         <v>7.3675262113913287E-2</v>
       </c>
       <c r="I67" s="46">
-        <f>I56/I43</f>
+        <f t="shared" si="132"/>
         <v>0.15791750793192963</v>
       </c>
       <c r="J67" s="46">
-        <f>J56/J43</f>
+        <f t="shared" si="132"/>
         <v>0.14576450376635391</v>
       </c>
       <c r="K67" s="46">
-        <f>K56/K43</f>
+        <f t="shared" si="132"/>
         <v>0.12963996650851242</v>
       </c>
       <c r="L67" s="46">
-        <f>L56/L43</f>
+        <f t="shared" si="132"/>
         <v>0.15125936010891763</v>
       </c>
       <c r="M67" s="46">
-        <f>M56/M43</f>
+        <f t="shared" si="132"/>
         <v>0.11259096526156803</v>
       </c>
       <c r="N67" s="46">
-        <f>N56/N43</f>
+        <f t="shared" si="132"/>
         <v>0.14704396159676605</v>
       </c>
       <c r="O67" s="46">
-        <f>O56/O43</f>
+        <f t="shared" si="132"/>
         <v>0.13653585926928283</v>
       </c>
       <c r="P67" s="46">
-        <f>P56/P43</f>
+        <f t="shared" si="132"/>
         <v>0.28553191489361701</v>
       </c>
       <c r="Q67" s="46">
-        <f>Q56/Q43</f>
+        <f t="shared" si="132"/>
         <v>-0.18889944361514452</v>
       </c>
       <c r="R67" s="46">
-        <f>R56/R43</f>
+        <f t="shared" si="132"/>
         <v>0.17988703339882123</v>
       </c>
       <c r="S67" s="46">
-        <f>S56/S43</f>
+        <f t="shared" si="132"/>
         <v>0.14585590465872156</v>
       </c>
       <c r="T67" s="46">
-        <f>T56/T43</f>
+        <f t="shared" si="132"/>
         <v>0.14971260526667557</v>
       </c>
       <c r="U67" s="46">
-        <f>U56/U43</f>
+        <f t="shared" si="132"/>
         <v>0.1684336072091174</v>
       </c>
       <c r="V67" s="46">
-        <f>V56/V43</f>
+        <f t="shared" si="132"/>
         <v>0.14510189049840413</v>
       </c>
       <c r="W67" s="46">
-        <f>W56/W43</f>
+        <f t="shared" si="132"/>
         <v>0.11704257306819699</v>
       </c>
       <c r="X67" s="46">
-        <f>X56/X43</f>
+        <f t="shared" si="132"/>
         <v>0.17791331430054502</v>
       </c>
       <c r="Y67" s="46">
-        <f>Y56/Y43</f>
+        <f t="shared" si="132"/>
         <v>0.24867176363871971</v>
       </c>
       <c r="Z67" s="46">
-        <f>Z56/Z43</f>
+        <f t="shared" si="132"/>
         <v>0.10655327663831916</v>
       </c>
       <c r="AA67" s="46">
-        <f>AA56/AA43</f>
+        <f t="shared" si="132"/>
         <v>7.5457199938527744E-2</v>
       </c>
       <c r="AB67" s="46">
-        <f>AB56/AB43</f>
+        <f t="shared" si="132"/>
         <v>6.4600496926899439E-2</v>
       </c>
       <c r="AC67" s="46">
-        <f>AC56/AC43</f>
+        <f t="shared" si="132"/>
         <v>0.16450160771704181</v>
       </c>
       <c r="AD67" s="46">
-        <f>AD56/AD43</f>
+        <f t="shared" si="132"/>
         <v>0.16744015632633122</v>
       </c>
       <c r="AE67" s="46">
-        <f>AE56/AE43</f>
+        <f t="shared" si="132"/>
         <v>9.6281457368223369E-2</v>
       </c>
       <c r="AF67" s="46">
-        <f>AF56/AF43</f>
+        <f t="shared" si="132"/>
         <v>0.16783484134063972</v>
       </c>
       <c r="AG67" s="46">
-        <f>AG56/AG43</f>
+        <f t="shared" si="132"/>
         <v>0.19103439391987634</v>
       </c>
       <c r="AH67" s="46">
-        <f>AH56/AH43</f>
+        <f t="shared" si="132"/>
         <v>0.18457164049944369</v>
       </c>
       <c r="AI67" s="46">
-        <f>AI56/AI43</f>
+        <f t="shared" si="132"/>
         <v>0.12630579297245964</v>
       </c>
       <c r="AJ67" s="46">
-        <f>AJ56/AJ43</f>
+        <f t="shared" si="132"/>
         <v>5.7350032959789056E-2</v>
       </c>
       <c r="AK67" s="46">
-        <f>AK56/AK43</f>
+        <f t="shared" si="132"/>
         <v>0.15905267244726284</v>
       </c>
       <c r="AL67" s="46">
-        <f>AL56/AL43</f>
+        <f t="shared" si="132"/>
         <v>0.13916198501872659</v>
       </c>
       <c r="AM67" s="46">
-        <f>AM56/AM43</f>
+        <f t="shared" si="132"/>
         <v>0.10334977927810958</v>
       </c>
       <c r="AN67" s="46">
-        <f>AN56/AN43</f>
+        <f t="shared" si="132"/>
         <v>0.11410320641282565</v>
       </c>
       <c r="AO67" s="46">
-        <f>AO56/AO43</f>
+        <f t="shared" si="132"/>
         <v>0.16528619112374829</v>
       </c>
       <c r="AP67" s="46">
-        <f>AP56/AP43</f>
+        <f t="shared" si="132"/>
         <v>7.6958900919781109E-2</v>
       </c>
       <c r="AQ67" s="46">
-        <f>AQ56/AQ43</f>
+        <f t="shared" si="132"/>
         <v>0.13253316487681618</v>
       </c>
       <c r="AR67" s="46">
-        <f>AR56/AR43</f>
+        <f t="shared" si="132"/>
         <v>0.15220754492443175</v>
       </c>
       <c r="AS67" s="46">
-        <f>AS56/AS43</f>
+        <f t="shared" si="132"/>
         <v>0.15713941148094548</v>
       </c>
       <c r="BG67" s="46">
@@ -24189,19 +24189,19 @@
         <v>0.11303614768132821</v>
       </c>
       <c r="BL67" s="65">
-        <f t="shared" ref="BL67:BO67" si="120">BL58/BL43</f>
+        <f t="shared" ref="BL67:BO67" si="133">BL58/BL43</f>
         <v>0.11863114158905114</v>
       </c>
       <c r="BM67" s="65">
-        <f t="shared" si="120"/>
+        <f t="shared" si="133"/>
         <v>0.12439229933707958</v>
       </c>
       <c r="BN67" s="65">
-        <f t="shared" si="120"/>
+        <f t="shared" si="133"/>
         <v>0.12952913006305675</v>
       </c>
       <c r="BO67" s="65">
-        <f t="shared" si="120"/>
+        <f t="shared" si="133"/>
         <v>0.13284384110748929</v>
       </c>
     </row>
@@ -24229,143 +24229,143 @@
         <v>10</v>
       </c>
       <c r="K68" s="46">
-        <f>K60/G60-1</f>
+        <f t="shared" ref="K68:AS68" si="134">K60/G60-1</f>
         <v>0.15408781889543044</v>
       </c>
       <c r="L68" s="46">
-        <f>L60/H60-1</f>
+        <f t="shared" si="134"/>
         <v>1.1955058528428095</v>
       </c>
       <c r="M68" s="46">
-        <f>M60/I60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.23110148168856581</v>
       </c>
       <c r="N68" s="46">
-        <f>N60/J60-1</f>
+        <f t="shared" si="134"/>
         <v>7.8100006771695929E-2</v>
       </c>
       <c r="O68" s="46">
-        <f>O60/K60-1</f>
+        <f t="shared" si="134"/>
         <v>0.11773827193277775</v>
       </c>
       <c r="P68" s="46">
-        <f>P60/L60-1</f>
+        <f t="shared" si="134"/>
         <v>0.84234441447553476</v>
       </c>
       <c r="Q68" s="46">
-        <f>Q60/M60-1</f>
+        <f t="shared" si="134"/>
         <v>-2.7143304360967728</v>
       </c>
       <c r="R68" s="46">
-        <f>R60/N60-1</f>
+        <f t="shared" si="134"/>
         <v>0.27572644882653607</v>
       </c>
       <c r="S68" s="46">
-        <f>S60/O60-1</f>
+        <f t="shared" si="134"/>
         <v>6.5109031548439944E-2</v>
       </c>
       <c r="T68" s="46">
-        <f>T60/P60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.4397601852011791</v>
       </c>
       <c r="U68" s="46">
-        <f>U60/Q60-1</f>
+        <f t="shared" si="134"/>
         <v>-1.9239932733899532</v>
       </c>
       <c r="V68" s="46">
-        <f>V60/R60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.19069999389362691</v>
       </c>
       <c r="W68" s="46">
-        <f>W60/S60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.1890869361635712</v>
       </c>
       <c r="X68" s="46">
-        <f>X60/T60-1</f>
+        <f t="shared" si="134"/>
         <v>0.21967752092136861</v>
       </c>
       <c r="Y68" s="46">
-        <f>Y60/U60-1</f>
+        <f t="shared" si="134"/>
         <v>0.50656408291756816</v>
       </c>
       <c r="Z68" s="46">
-        <f>Z60/V60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.44675029841211666</v>
       </c>
       <c r="AA68" s="46">
-        <f>AA60/W60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.43672063243659487</v>
       </c>
       <c r="AB68" s="46">
-        <f>AB60/X60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.64240226210429974</v>
       </c>
       <c r="AC68" s="46">
-        <f>AC60/Y60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.33947445581603175</v>
       </c>
       <c r="AD68" s="46">
-        <f>AD60/Z60-1</f>
+        <f t="shared" si="134"/>
         <v>1.0991582234640807</v>
       </c>
       <c r="AE68" s="46">
-        <f>AE60/AA60-1</f>
+        <f t="shared" si="134"/>
         <v>0.56370535369972585</v>
       </c>
       <c r="AF68" s="46">
-        <f>AF60/AB60-1</f>
+        <f t="shared" si="134"/>
         <v>1.679586392418198</v>
       </c>
       <c r="AG68" s="46">
-        <f>AG60/AC60-1</f>
+        <f t="shared" si="134"/>
         <v>0.16769596700613354</v>
       </c>
       <c r="AH68" s="46">
-        <f>AH60/AD60-1</f>
+        <f t="shared" si="134"/>
         <v>9.3945271419056064E-2</v>
       </c>
       <c r="AI68" s="46">
-        <f>AI60/AE60-1</f>
+        <f t="shared" si="134"/>
         <v>0.23139194437483113</v>
       </c>
       <c r="AJ68" s="46">
-        <f>AJ60/AF60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.67044790140066512</v>
       </c>
       <c r="AK68" s="46">
-        <f>AK60/AG60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.16594466591083634</v>
       </c>
       <c r="AL68" s="46">
-        <f>AL60/AH60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.19785816251450161</v>
       </c>
       <c r="AM68" s="46">
-        <f>AM60/AI60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.14925076929487002</v>
       </c>
       <c r="AN68" s="46">
-        <f>AN60/AJ60-1</f>
+        <f t="shared" si="134"/>
         <v>1.1275253285501958</v>
       </c>
       <c r="AO68" s="46">
-        <f>AO60/AK60-1</f>
+        <f t="shared" si="134"/>
         <v>8.2239856473046213E-2</v>
       </c>
       <c r="AP68" s="46">
-        <f>AP60/AL60-1</f>
+        <f t="shared" si="134"/>
         <v>-0.44488608438449062</v>
       </c>
       <c r="AQ68" s="46">
-        <f>AQ60/AM60-1</f>
+        <f t="shared" si="134"/>
         <v>0.3565113324013689</v>
       </c>
       <c r="AR68" s="46">
-        <f>AR60/AN60-1</f>
+        <f t="shared" si="134"/>
         <v>0.44921650617962605</v>
       </c>
       <c r="AS68" s="46">
-        <f>AS60/AO60-1</f>
+        <f t="shared" si="134"/>
         <v>1.4922733754693995E-2</v>
       </c>
       <c r="BG68" s="46"/>
@@ -24386,19 +24386,19 @@
         <v>1.0296806237072356</v>
       </c>
       <c r="BL68" s="65">
-        <f t="shared" ref="BL68:BO68" si="121">BL60/BK60</f>
+        <f t="shared" ref="BL68:BO68" si="135">BL60/BK60</f>
         <v>1.0983116824516346</v>
       </c>
       <c r="BM68" s="65">
-        <f t="shared" si="121"/>
+        <f t="shared" si="135"/>
         <v>1.1054803169615366</v>
       </c>
       <c r="BN68" s="65">
-        <f t="shared" si="121"/>
+        <f t="shared" si="135"/>
         <v>1.0912182914131459</v>
       </c>
       <c r="BO68" s="65">
-        <f t="shared" si="121"/>
+        <f t="shared" si="135"/>
         <v>1.0417090105750257</v>
       </c>
     </row>
@@ -24455,19 +24455,19 @@
         <v>1240</v>
       </c>
       <c r="BG70" s="1">
-        <f>AD70</f>
+        <f t="shared" ref="BG70:BG80" si="136">AD70</f>
         <v>3593</v>
       </c>
       <c r="BH70" s="1">
-        <f>AH70</f>
+        <f t="shared" ref="BH70:BH80" si="137">AH70</f>
         <v>3714</v>
       </c>
       <c r="BI70" s="1">
-        <f>AL70</f>
+        <f t="shared" ref="BI70:BI80" si="138">AL70</f>
         <v>1543</v>
       </c>
       <c r="BJ70" s="1">
-        <f>AP70</f>
+        <f t="shared" ref="BJ70:BJ80" si="139">AP70</f>
         <v>1284</v>
       </c>
       <c r="BK70" s="68">
@@ -24475,19 +24475,19 @@
         <v>5069.9612350749985</v>
       </c>
       <c r="BL70" s="68">
-        <f t="shared" ref="BL70:BO70" si="122">BK70+BL58</f>
+        <f t="shared" ref="BL70:BO70" si="140">BK70+BL58</f>
         <v>9228.1266888668888</v>
       </c>
       <c r="BM70" s="68">
-        <f t="shared" si="122"/>
+        <f t="shared" si="140"/>
         <v>13824.896752703258</v>
       </c>
       <c r="BN70" s="68">
-        <f t="shared" si="122"/>
+        <f t="shared" si="140"/>
         <v>18840.976327781878</v>
       </c>
       <c r="BO70" s="68">
-        <f t="shared" si="122"/>
+        <f t="shared" si="140"/>
         <v>24066.271618902625</v>
       </c>
     </row>
@@ -24544,19 +24544,19 @@
         <v>6682</v>
       </c>
       <c r="BG71" s="1">
-        <f>AD71</f>
+        <f t="shared" si="136"/>
         <v>7224</v>
       </c>
       <c r="BH71" s="1">
-        <f>AH71</f>
+        <f t="shared" si="137"/>
         <v>6859</v>
       </c>
       <c r="BI71" s="1">
-        <f>AL71</f>
+        <f t="shared" si="138"/>
         <v>6416</v>
       </c>
       <c r="BJ71" s="1">
-        <f>AP71</f>
+        <f t="shared" si="139"/>
         <v>6721</v>
       </c>
     </row>
@@ -24613,19 +24613,19 @@
         <v>6115</v>
       </c>
       <c r="BG72" s="1">
-        <f>AD72</f>
+        <f t="shared" si="136"/>
         <v>5462</v>
       </c>
       <c r="BH72" s="1">
-        <f>AH72</f>
+        <f t="shared" si="137"/>
         <v>5551</v>
       </c>
       <c r="BI72" s="1">
-        <f>AL72</f>
+        <f t="shared" si="138"/>
         <v>5998</v>
       </c>
       <c r="BJ72" s="1">
-        <f>AP72</f>
+        <f t="shared" si="139"/>
         <v>6128</v>
       </c>
     </row>
@@ -24682,19 +24682,19 @@
         <v>5610</v>
       </c>
       <c r="BG73" s="1">
-        <f>AD73</f>
+        <f t="shared" si="136"/>
         <v>4313</v>
       </c>
       <c r="BH73" s="1">
-        <f>AH73</f>
+        <f t="shared" si="137"/>
         <v>4616</v>
       </c>
       <c r="BI73" s="1">
-        <f>AL73</f>
+        <f t="shared" si="138"/>
         <v>5293</v>
       </c>
       <c r="BJ73" s="1">
-        <f>AP73</f>
+        <f t="shared" si="139"/>
         <v>5217</v>
       </c>
       <c r="BL73" s="64" t="s">
@@ -24757,19 +24757,19 @@
         <v>2865</v>
       </c>
       <c r="BG74" s="1">
-        <f>AD74</f>
+        <f t="shared" si="136"/>
         <v>1955</v>
       </c>
       <c r="BH74" s="1">
-        <f>AH74</f>
+        <f t="shared" si="137"/>
         <v>2318</v>
       </c>
       <c r="BI74" s="1">
-        <f>AL74</f>
+        <f t="shared" si="138"/>
         <v>2425</v>
       </c>
       <c r="BJ74" s="1">
-        <f>AP74</f>
+        <f t="shared" si="139"/>
         <v>2584</v>
       </c>
       <c r="BL74" s="64" t="s">
@@ -24836,19 +24836,19 @@
         <v>6593</v>
       </c>
       <c r="BG75" s="1">
-        <f>AD75</f>
+        <f t="shared" si="136"/>
         <v>5221</v>
       </c>
       <c r="BH75" s="1">
-        <f>AH75</f>
+        <f t="shared" si="137"/>
         <v>5413</v>
       </c>
       <c r="BI75" s="1">
-        <f>AL75</f>
+        <f t="shared" si="138"/>
         <v>5569</v>
       </c>
       <c r="BJ75" s="1">
-        <f>AP75</f>
+        <f t="shared" si="139"/>
         <v>6131</v>
       </c>
       <c r="BL75" s="64" t="s">
@@ -24911,19 +24911,19 @@
         <v>40819</v>
       </c>
       <c r="BG76" s="1">
-        <f>AD76</f>
+        <f t="shared" si="136"/>
         <v>41961</v>
       </c>
       <c r="BH76" s="1">
-        <f>AH76</f>
+        <f t="shared" si="137"/>
         <v>40502</v>
       </c>
       <c r="BI76" s="1">
-        <f>AL76</f>
+        <f t="shared" si="138"/>
         <v>41425</v>
       </c>
       <c r="BJ76" s="1">
-        <f>AP76</f>
+        <f t="shared" si="139"/>
         <v>40986</v>
       </c>
       <c r="BL76" s="64" t="s">
@@ -24987,19 +24987,19 @@
         <v>12184</v>
       </c>
       <c r="BG77" s="1">
-        <f>AD77</f>
+        <f t="shared" si="136"/>
         <v>17740</v>
       </c>
       <c r="BH77" s="1">
-        <f>AH77</f>
+        <f t="shared" si="137"/>
         <v>15595</v>
       </c>
       <c r="BI77" s="1">
-        <f>AL77</f>
+        <f t="shared" si="138"/>
         <v>14844</v>
       </c>
       <c r="BJ77" s="1">
-        <f>AP77</f>
+        <f t="shared" si="139"/>
         <v>13225</v>
       </c>
       <c r="BL77" s="64" t="s">
@@ -25062,19 +25062,19 @@
         <v>3614</v>
       </c>
       <c r="BG78" s="1">
-        <f>AD78</f>
+        <f t="shared" si="136"/>
         <v>3169</v>
       </c>
       <c r="BH78" s="1">
-        <f>AH78</f>
+        <f t="shared" si="137"/>
         <v>3403</v>
       </c>
       <c r="BI78" s="1">
-        <f>AL78</f>
+        <f t="shared" si="138"/>
         <v>3477</v>
       </c>
       <c r="BJ78" s="1">
-        <f>AP78</f>
+        <f t="shared" si="139"/>
         <v>3657</v>
       </c>
       <c r="BL78" s="64" t="s">
@@ -25138,19 +25138,19 @@
         <v>4251</v>
       </c>
       <c r="BG79" s="1">
-        <f>AD79</f>
+        <f t="shared" si="136"/>
         <v>2446</v>
       </c>
       <c r="BH79" s="1">
-        <f>AH79</f>
+        <f t="shared" si="137"/>
         <v>3010</v>
       </c>
       <c r="BI79" s="1">
-        <f>AL79</f>
+        <f t="shared" si="138"/>
         <v>3958</v>
       </c>
       <c r="BJ79" s="1">
-        <f>AP79</f>
+        <f t="shared" si="139"/>
         <v>4048</v>
       </c>
       <c r="BL79" s="64"/>
@@ -25160,63 +25160,63 @@
         <v>2276</v>
       </c>
       <c r="AD80" s="1">
-        <f t="shared" ref="AD80:AR80" si="123">SUM(AD70:AD79)</f>
+        <f t="shared" ref="AD80:AR80" si="141">SUM(AD70:AD79)</f>
         <v>93084</v>
       </c>
       <c r="AE80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>91802</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>91756</v>
       </c>
       <c r="AG80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>91804</v>
       </c>
       <c r="AH80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>90981</v>
       </c>
       <c r="AI80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>89914</v>
       </c>
       <c r="AJ80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>93241</v>
       </c>
       <c r="AK80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>94134</v>
       </c>
       <c r="AL80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>90948</v>
       </c>
       <c r="AM80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>90776</v>
       </c>
       <c r="AN80" s="1">
-        <f t="shared" ref="AN80" si="124">SUM(AN70:AN79)</f>
+        <f t="shared" ref="AN80" si="142">SUM(AN70:AN79)</f>
         <v>90087</v>
       </c>
       <c r="AO80" s="1">
-        <f t="shared" ref="AO80" si="125">SUM(AO70:AO79)</f>
+        <f t="shared" ref="AO80" si="143">SUM(AO70:AO79)</f>
         <v>90836</v>
       </c>
       <c r="AP80" s="1">
-        <f t="shared" ref="AP80" si="126">SUM(AP70:AP79)</f>
+        <f t="shared" ref="AP80" si="144">SUM(AP70:AP79)</f>
         <v>89981</v>
       </c>
       <c r="AQ80" s="1">
-        <f t="shared" ref="AQ80" si="127">SUM(AQ70:AQ79)</f>
+        <f t="shared" ref="AQ80" si="145">SUM(AQ70:AQ79)</f>
         <v>89749</v>
       </c>
       <c r="AR80" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>90042</v>
       </c>
       <c r="AS80" s="1">
@@ -25224,19 +25224,19 @@
         <v>89973</v>
       </c>
       <c r="BG80" s="1">
-        <f>AD80</f>
+        <f t="shared" si="136"/>
         <v>93084</v>
       </c>
       <c r="BH80" s="1">
-        <f>AH80</f>
+        <f t="shared" si="137"/>
         <v>90981</v>
       </c>
       <c r="BI80" s="1">
-        <f>AL80</f>
+        <f t="shared" si="138"/>
         <v>90948</v>
       </c>
       <c r="BJ80" s="1">
-        <f>AP80</f>
+        <f t="shared" si="139"/>
         <v>89981</v>
       </c>
       <c r="BL80" s="64" t="s">
@@ -25309,19 +25309,19 @@
         <v>2622</v>
       </c>
       <c r="BG82" s="1">
-        <f>AD82</f>
+        <f t="shared" ref="BG82:BG94" si="146">AD82</f>
         <v>11</v>
       </c>
       <c r="BH82" s="1">
-        <f>AH82</f>
+        <f t="shared" ref="BH82:BH94" si="147">AH82</f>
         <v>3742</v>
       </c>
       <c r="BI82" s="1">
-        <f>AL82</f>
+        <f t="shared" ref="BI82:BI94" si="148">AL82</f>
         <v>20</v>
       </c>
       <c r="BJ82" s="1">
-        <f>AP82</f>
+        <f t="shared" ref="BJ82:BJ94" si="149">AP82</f>
         <v>1092</v>
       </c>
       <c r="BL82" s="64" t="s">
@@ -25385,19 +25385,19 @@
         <v>2286</v>
       </c>
       <c r="BG83" s="1">
-        <f>AD83</f>
+        <f t="shared" si="146"/>
         <v>2106</v>
       </c>
       <c r="BH83" s="1">
-        <f>AH83</f>
+        <f t="shared" si="147"/>
         <v>2276</v>
       </c>
       <c r="BI83" s="1">
-        <f>AL83</f>
+        <f t="shared" si="148"/>
         <v>2662</v>
       </c>
       <c r="BJ83" s="1">
-        <f>AP83</f>
+        <f t="shared" si="149"/>
         <v>2410</v>
       </c>
       <c r="BL83" s="64" t="s">
@@ -25460,19 +25460,19 @@
         <v>2281</v>
       </c>
       <c r="BG84" s="1">
-        <f>AD84</f>
+        <f t="shared" si="146"/>
         <v>2482</v>
       </c>
       <c r="BH84" s="1">
-        <f>AH84</f>
+        <f t="shared" si="147"/>
         <v>2121</v>
       </c>
       <c r="BI84" s="1">
-        <f>AL84</f>
+        <f t="shared" si="148"/>
         <v>1949</v>
       </c>
       <c r="BJ84" s="1">
-        <f>AP84</f>
+        <f t="shared" si="149"/>
         <v>2375</v>
       </c>
       <c r="BL84" s="64" t="s">
@@ -25540,19 +25540,19 @@
         <v>1125</v>
       </c>
       <c r="BG85" s="1">
-        <f>AD85</f>
+        <f t="shared" si="146"/>
         <v>435</v>
       </c>
       <c r="BH85" s="1">
-        <f>AH85</f>
+        <f t="shared" si="147"/>
         <v>704</v>
       </c>
       <c r="BI85" s="1">
-        <f>AL85</f>
+        <f t="shared" si="148"/>
         <v>840</v>
       </c>
       <c r="BJ85" s="1">
-        <f>AP85</f>
+        <f t="shared" si="149"/>
         <v>1330</v>
       </c>
     </row>
@@ -25609,19 +25609,19 @@
         <v>3226</v>
       </c>
       <c r="BG86" s="1">
-        <f>AD86</f>
+        <f t="shared" si="146"/>
         <v>3475</v>
       </c>
       <c r="BH86" s="1">
-        <f>AH86</f>
+        <f t="shared" si="147"/>
         <v>3551</v>
       </c>
       <c r="BI86" s="1">
-        <f>AL86</f>
+        <f t="shared" si="148"/>
         <v>3581</v>
       </c>
       <c r="BJ86" s="1">
-        <f>AP86</f>
+        <f t="shared" si="149"/>
         <v>3582</v>
       </c>
     </row>
@@ -25678,19 +25678,19 @@
         <v>23985</v>
       </c>
       <c r="BG87" s="1">
-        <f>AD87</f>
+        <f t="shared" si="146"/>
         <v>26378</v>
       </c>
       <c r="BH87" s="1">
-        <f>AH87</f>
+        <f t="shared" si="147"/>
         <v>20372</v>
       </c>
       <c r="BI87" s="1">
-        <f>AL87</f>
+        <f t="shared" si="148"/>
         <v>24344</v>
       </c>
       <c r="BJ87" s="1">
-        <f>AP87</f>
+        <f t="shared" si="149"/>
         <v>23932</v>
       </c>
     </row>
@@ -25747,19 +25747,19 @@
         <v>1063</v>
       </c>
       <c r="BG88" s="1">
-        <f>AD88</f>
+        <f t="shared" si="146"/>
         <v>1557</v>
       </c>
       <c r="BH88" s="1">
-        <f>AH88</f>
+        <f t="shared" si="147"/>
         <v>1113</v>
       </c>
       <c r="BI88" s="1">
-        <f>AL88</f>
+        <f t="shared" si="148"/>
         <v>1093</v>
       </c>
       <c r="BJ88" s="1">
-        <f>AP88</f>
+        <f t="shared" si="149"/>
         <v>1101</v>
       </c>
     </row>
@@ -25816,19 +25816,19 @@
         <v>1485</v>
       </c>
       <c r="BG89" s="1">
-        <f>AD89</f>
+        <f t="shared" si="146"/>
         <v>2251</v>
       </c>
       <c r="BH89" s="1">
-        <f>AH89</f>
+        <f t="shared" si="147"/>
         <v>2087</v>
       </c>
       <c r="BI89" s="1">
-        <f>AL89</f>
+        <f t="shared" si="148"/>
         <v>2360</v>
       </c>
       <c r="BJ89" s="1">
-        <f>AP89</f>
+        <f t="shared" si="149"/>
         <v>1859</v>
       </c>
     </row>
@@ -25885,19 +25885,19 @@
         <v>452</v>
       </c>
       <c r="BG90" s="1">
-        <f>AD90</f>
+        <f t="shared" si="146"/>
         <v>1028</v>
       </c>
       <c r="BH90" s="1">
-        <f>AH90</f>
+        <f t="shared" si="147"/>
         <v>884</v>
       </c>
       <c r="BI90" s="1">
-        <f>AL90</f>
+        <f t="shared" si="148"/>
         <v>708</v>
       </c>
       <c r="BJ90" s="1">
-        <f>AP90</f>
+        <f t="shared" si="149"/>
         <v>515</v>
       </c>
     </row>
@@ -25954,19 +25954,19 @@
         <v>1533</v>
       </c>
       <c r="BG91" s="1">
-        <f>AD91</f>
+        <f t="shared" si="146"/>
         <v>1756</v>
       </c>
       <c r="BH91" s="1">
-        <f>AH91</f>
+        <f t="shared" si="147"/>
         <v>1410</v>
       </c>
       <c r="BI91" s="1">
-        <f>AL91</f>
+        <f t="shared" si="148"/>
         <v>1727</v>
       </c>
       <c r="BJ91" s="1">
-        <f>AP91</f>
+        <f t="shared" si="149"/>
         <v>1365</v>
       </c>
     </row>
@@ -25975,63 +25975,63 @@
         <v>2277</v>
       </c>
       <c r="AD92" s="1">
-        <f t="shared" ref="AD92:AR92" si="128">SUM(AD82:AD91)</f>
+        <f t="shared" ref="AD92:AR92" si="150">SUM(AD82:AD91)</f>
         <v>41479</v>
       </c>
       <c r="AE92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>40138</v>
       </c>
       <c r="AF92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>39596</v>
       </c>
       <c r="AG92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>39092</v>
       </c>
       <c r="AH92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>38260</v>
       </c>
       <c r="AI92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>37071</v>
       </c>
       <c r="AJ92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>41186</v>
       </c>
       <c r="AK92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>42516</v>
       </c>
       <c r="AL92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>39284</v>
       </c>
       <c r="AM92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>39411</v>
       </c>
       <c r="AN92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>38440</v>
       </c>
       <c r="AO92" s="1">
-        <f t="shared" ref="AO92" si="129">SUM(AO82:AO91)</f>
+        <f t="shared" ref="AO92" si="151">SUM(AO82:AO91)</f>
         <v>38840</v>
       </c>
       <c r="AP92" s="1">
-        <f t="shared" ref="AP92" si="130">SUM(AP82:AP91)</f>
+        <f t="shared" ref="AP92" si="152">SUM(AP82:AP91)</f>
         <v>39561</v>
       </c>
       <c r="AQ92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>41589</v>
       </c>
       <c r="AR92" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="150"/>
         <v>41325</v>
       </c>
       <c r="AS92" s="1">
@@ -26039,19 +26039,19 @@
         <v>40058</v>
       </c>
       <c r="BG92" s="1">
-        <f>AD92</f>
+        <f t="shared" si="146"/>
         <v>41479</v>
       </c>
       <c r="BH92" s="1">
-        <f>AH92</f>
+        <f t="shared" si="147"/>
         <v>38260</v>
       </c>
       <c r="BI92" s="1">
-        <f>AL92</f>
+        <f t="shared" si="148"/>
         <v>39284</v>
       </c>
       <c r="BJ92" s="1">
-        <f>AP92</f>
+        <f t="shared" si="149"/>
         <v>39561</v>
       </c>
     </row>
@@ -26108,19 +26108,19 @@
         <v>49615</v>
       </c>
       <c r="BG93" s="1">
-        <f>AD93</f>
+        <f t="shared" si="146"/>
         <v>51605</v>
       </c>
       <c r="BH93" s="1">
-        <f>AH93</f>
+        <f t="shared" si="147"/>
         <v>52721</v>
       </c>
       <c r="BI93" s="1">
-        <f>AL93</f>
+        <f t="shared" si="148"/>
         <v>51664</v>
       </c>
       <c r="BJ93" s="1">
-        <f>AP93</f>
+        <f t="shared" si="149"/>
         <v>50420</v>
       </c>
     </row>
@@ -26129,63 +26129,63 @@
         <v>2278</v>
       </c>
       <c r="AD94" s="1">
-        <f t="shared" ref="AD94:AR94" si="131">AD92+AD93</f>
+        <f t="shared" ref="AD94:AR94" si="153">AD92+AD93</f>
         <v>93084</v>
       </c>
       <c r="AE94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>91802</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>91756</v>
       </c>
       <c r="AG94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>91804</v>
       </c>
       <c r="AH94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>90981</v>
       </c>
       <c r="AI94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>89914</v>
       </c>
       <c r="AJ94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>93241</v>
       </c>
       <c r="AK94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>94134</v>
       </c>
       <c r="AL94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>90948</v>
       </c>
       <c r="AM94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>90776</v>
       </c>
       <c r="AN94" s="1">
-        <f t="shared" ref="AN94" si="132">AN92+AN93</f>
+        <f t="shared" ref="AN94" si="154">AN92+AN93</f>
         <v>90087</v>
       </c>
       <c r="AO94" s="1">
-        <f t="shared" ref="AO94" si="133">AO92+AO93</f>
+        <f t="shared" ref="AO94" si="155">AO92+AO93</f>
         <v>90836</v>
       </c>
       <c r="AP94" s="1">
-        <f t="shared" ref="AP94" si="134">AP92+AP93</f>
+        <f t="shared" ref="AP94" si="156">AP92+AP93</f>
         <v>89981</v>
       </c>
       <c r="AQ94" s="1">
-        <f t="shared" ref="AQ94" si="135">AQ92+AQ93</f>
+        <f t="shared" ref="AQ94" si="157">AQ92+AQ93</f>
         <v>89749</v>
       </c>
       <c r="AR94" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="153"/>
         <v>90042</v>
       </c>
       <c r="AS94" s="1">
@@ -26193,19 +26193,19 @@
         <v>89673</v>
       </c>
       <c r="BG94" s="1">
-        <f>AD94</f>
+        <f t="shared" si="146"/>
         <v>93084</v>
       </c>
       <c r="BH94" s="1">
-        <f>AH94</f>
+        <f t="shared" si="147"/>
         <v>90981</v>
       </c>
       <c r="BI94" s="1">
-        <f>AL94</f>
+        <f t="shared" si="148"/>
         <v>90948</v>
       </c>
       <c r="BJ94" s="1">
-        <f>AP94</f>
+        <f t="shared" si="149"/>
         <v>89981</v>
       </c>
     </row>
@@ -26214,63 +26214,63 @@
         <v>110</v>
       </c>
       <c r="AD96" s="41">
-        <f t="shared" ref="AD96:AR96" si="136">SUM(AD70:AD75)/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD96:AR96" si="158">SUM(AD70:AD75)/SUM(AD82:AD86)</f>
         <v>3.2633681983781879</v>
       </c>
       <c r="AE96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>3.5543534260690364</v>
       </c>
       <c r="AF96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>3.5779828271177752</v>
       </c>
       <c r="AG96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>3.198610955528173</v>
       </c>
       <c r="AH96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.2971599160884297</v>
       </c>
       <c r="AI96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>1.9517334662205452</v>
       </c>
       <c r="AJ96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.1220877981334256</v>
       </c>
       <c r="AK96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.1358435614728521</v>
       </c>
       <c r="AL96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>3.009721608484313</v>
       </c>
       <c r="AM96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>3.0433292804244503</v>
       </c>
       <c r="AN96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.8799958583557674</v>
       </c>
       <c r="AO96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.8954248366013071</v>
       </c>
       <c r="AP96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.6012605431457967</v>
       </c>
       <c r="AQ96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.7441430932244582</v>
       </c>
       <c r="AR96" s="41">
-        <f t="shared" si="136"/>
+        <f t="shared" si="158"/>
         <v>2.3678556785567855</v>
       </c>
       <c r="AS96" s="41">
@@ -26280,11 +26280,11 @@
       <c r="BE96" s="41"/>
       <c r="BF96" s="41"/>
       <c r="BG96" s="41">
-        <f t="shared" ref="BG96:BH96" si="137">SUM(BG70:BG75)/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG96:BH96" si="159">SUM(BG70:BG75)/SUM(BG82:BG86)</f>
         <v>3.2633681983781879</v>
       </c>
       <c r="BH96" s="41">
-        <f t="shared" si="137"/>
+        <f t="shared" si="159"/>
         <v>2.2971599160884297</v>
       </c>
       <c r="BI96" s="41">
@@ -26301,63 +26301,63 @@
         <v>111</v>
       </c>
       <c r="AD97" s="41">
-        <f t="shared" ref="AD97:AR97" si="138">(SUM(AD70:AD74)-AD73)/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD97:AR97" si="160">(SUM(AD70:AD74)-AD73)/SUM(AD82:AD86)</f>
         <v>2.1429075096956165</v>
       </c>
       <c r="AE97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>2.3371973209685728</v>
       </c>
       <c r="AF97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>2.3557606048955528</v>
       </c>
       <c r="AG97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>2.1047384339643775</v>
       </c>
       <c r="AH97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.4879780538970468</v>
       </c>
       <c r="AI97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.2334306257563892</v>
       </c>
       <c r="AJ97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.4063601797442102</v>
       </c>
       <c r="AK97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.3861035989182442</v>
       </c>
       <c r="AL97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.8097657976137871</v>
       </c>
       <c r="AM97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.7906488338675803</v>
       </c>
       <c r="AN97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.6904120936011597</v>
       </c>
       <c r="AO97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.7144607843137254</v>
       </c>
       <c r="AP97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.5494485123737141</v>
       </c>
       <c r="AQ97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.6071741032370954</v>
       </c>
       <c r="AR97" s="41">
-        <f t="shared" si="138"/>
+        <f t="shared" si="160"/>
         <v>1.3906519065190652</v>
       </c>
       <c r="AS97" s="41">
@@ -26367,11 +26367,11 @@
       <c r="BE97" s="41"/>
       <c r="BF97" s="41"/>
       <c r="BG97" s="41">
-        <f t="shared" ref="BG97:BH97" si="139">(SUM(BG70:BG74)-BG73)/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG97:BH97" si="161">(SUM(BG70:BG74)-BG73)/SUM(BG82:BG86)</f>
         <v>2.1429075096956165</v>
       </c>
       <c r="BH97" s="41">
-        <f t="shared" si="139"/>
+        <f t="shared" si="161"/>
         <v>1.4879780538970468</v>
       </c>
       <c r="BI97" s="41">
@@ -26388,63 +26388,63 @@
         <v>112</v>
       </c>
       <c r="AD98" s="41">
-        <f t="shared" ref="AD98:AR98" si="140">AD70/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD98:AR98" si="162">AD70/SUM(AD82:AD86)</f>
         <v>0.42225878481607709</v>
       </c>
       <c r="AE98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.38691396187532201</v>
       </c>
       <c r="AF98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.37165192874535435</v>
       </c>
       <c r="AG98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.38971659011986109</v>
       </c>
       <c r="AH98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.29966112635146036</v>
       </c>
       <c r="AI98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.15234569659001923</v>
       </c>
       <c r="AJ98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.33377117179398547</v>
       </c>
       <c r="AK98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.31350114416475972</v>
       </c>
       <c r="AL98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.17045956694653117</v>
       </c>
       <c r="AM98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.14800486349065989</v>
       </c>
       <c r="AN98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.1357423897287223</v>
       </c>
       <c r="AO98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.16574754901960784</v>
       </c>
       <c r="AP98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.11901010288256558</v>
       </c>
       <c r="AQ98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.1274424030329542</v>
       </c>
       <c r="AR98" s="41">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>0.11430914309143092</v>
       </c>
       <c r="AS98" s="41">
@@ -26454,11 +26454,11 @@
       <c r="BE98" s="41"/>
       <c r="BF98" s="41"/>
       <c r="BG98" s="41">
-        <f t="shared" ref="BG98:BH98" si="141">BG70/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG98:BH98" si="163">BG70/SUM(BG82:BG86)</f>
         <v>0.42225878481607709</v>
       </c>
       <c r="BH98" s="41">
-        <f t="shared" si="141"/>
+        <f t="shared" si="163"/>
         <v>0.29966112635146036</v>
       </c>
       <c r="BI98" s="41">
@@ -26475,67 +26475,67 @@
         <v>113</v>
       </c>
       <c r="AD99" s="41">
-        <f>AD43/AD80</f>
+        <f t="shared" ref="AD99:AS99" si="164">AD43/AD80</f>
         <v>8.7963559795453575E-2</v>
       </c>
       <c r="AE99" s="41">
-        <f>AE43/AE80</f>
+        <f t="shared" si="164"/>
         <v>8.7002461820003915E-2</v>
       </c>
       <c r="AF99" s="41">
-        <f>AF43/AF80</f>
+        <f t="shared" si="164"/>
         <v>8.55202929508697E-2</v>
       </c>
       <c r="AG99" s="41">
-        <f>AG43/AG80</f>
+        <f t="shared" si="164"/>
         <v>8.4560585595398891E-2</v>
       </c>
       <c r="AH99" s="41">
-        <f>AH43/AH80</f>
+        <f t="shared" si="164"/>
         <v>8.8908673239467578E-2</v>
       </c>
       <c r="AI99" s="41">
-        <f>AI43/AI80</f>
+        <f t="shared" si="164"/>
         <v>8.1978334853304274E-2</v>
       </c>
       <c r="AJ99" s="41">
-        <f>AJ43/AJ80</f>
+        <f t="shared" si="164"/>
         <v>8.1348333887452939E-2</v>
       </c>
       <c r="AK99" s="41">
-        <f>AK43/AK80</f>
+        <f t="shared" si="164"/>
         <v>8.2085112711666353E-2</v>
       </c>
       <c r="AL99" s="41">
-        <f>AL43/AL80</f>
+        <f t="shared" si="164"/>
         <v>9.3943792056999598E-2</v>
       </c>
       <c r="AM99" s="41">
-        <f>AM43/AM80</f>
+        <f t="shared" si="164"/>
         <v>8.4846214858552926E-2</v>
       </c>
       <c r="AN99" s="41">
-        <f>AN43/AN80</f>
+        <f t="shared" si="164"/>
         <v>8.8625439852586946E-2</v>
       </c>
       <c r="AO99" s="41">
-        <f>AO43/AO80</f>
+        <f t="shared" si="164"/>
         <v>8.9050596679730504E-2</v>
       </c>
       <c r="AP99" s="41">
-        <f>AP43/AP80</f>
+        <f t="shared" si="164"/>
         <v>9.5453484624531848E-2</v>
       </c>
       <c r="AQ99" s="41">
-        <f>AQ43/AQ80</f>
+        <f t="shared" si="164"/>
         <v>8.8190397664597936E-2</v>
       </c>
       <c r="AR99" s="41">
-        <f>AR43/AR80</f>
+        <f t="shared" si="164"/>
         <v>9.3323115879256346E-2</v>
       </c>
       <c r="AS99" s="41">
-        <f>AS43/AS80</f>
+        <f t="shared" si="164"/>
         <v>9.2160981627821686E-2</v>
       </c>
       <c r="BE99" s="41"/>
@@ -26562,67 +26562,67 @@
         <v>114</v>
       </c>
       <c r="AD100" s="41">
-        <f>AD44/AVERAGE(AA73:AD73)</f>
+        <f t="shared" ref="AD100:AS100" si="165">AD44/AVERAGE(AA73:AD73)</f>
         <v>0.61488523069789014</v>
       </c>
       <c r="AE100" s="41">
-        <f>AE44/AVERAGE(AB73:AE73)</f>
+        <f t="shared" si="165"/>
         <v>0.60411580048831526</v>
       </c>
       <c r="AF100" s="41">
-        <f>AF44/AVERAGE(AC73:AF73)</f>
+        <f t="shared" si="165"/>
         <v>0.57845559845559846</v>
       </c>
       <c r="AG100" s="41">
-        <f>AG44/AVERAGE(AD73:AG73)</f>
+        <f t="shared" si="165"/>
         <v>0.56321575813101232</v>
       </c>
       <c r="AH100" s="41">
-        <f>AH44/AVERAGE(AE73:AH73)</f>
+        <f t="shared" si="165"/>
         <v>0.58332864298981257</v>
       </c>
       <c r="AI100" s="41">
-        <f>AI44/AVERAGE(AF73:AI73)</f>
+        <f t="shared" si="165"/>
         <v>0.55030621172353456</v>
       </c>
       <c r="AJ100" s="41">
-        <f>AJ44/AVERAGE(AG73:AJ73)</f>
+        <f t="shared" si="165"/>
         <v>0.53385279561966936</v>
       </c>
       <c r="AK100" s="41">
-        <f>AK44/AVERAGE(AH73:AK73)</f>
+        <f t="shared" si="165"/>
         <v>0.54172752455300932</v>
       </c>
       <c r="AL100" s="41">
-        <f>AL44/AVERAGE(AI73:AL73)</f>
+        <f t="shared" si="165"/>
         <v>0.58036236119228524</v>
       </c>
       <c r="AM100" s="41">
-        <f>AM44/AVERAGE(AJ73:AM73)</f>
+        <f t="shared" si="165"/>
         <v>0.49142162591744193</v>
       </c>
       <c r="AN100" s="41">
-        <f>AN44/AVERAGE(AK73:AN73)</f>
+        <f t="shared" si="165"/>
         <v>0.49995473064735174</v>
       </c>
       <c r="AO100" s="41">
-        <f>AO44/AVERAGE(AL73:AO73)</f>
+        <f t="shared" si="165"/>
         <v>0.49587808029945191</v>
       </c>
       <c r="AP100" s="41">
-        <f>AP44/AVERAGE(AM73:AP73)</f>
+        <f t="shared" si="165"/>
         <v>0.54460093896713613</v>
       </c>
       <c r="AQ100" s="41">
-        <f>AQ44/AVERAGE(AN73:AQ73)</f>
+        <f t="shared" si="165"/>
         <v>0.49947989688390393</v>
       </c>
       <c r="AR100" s="41">
-        <f>AR44/AVERAGE(AO73:AR73)</f>
+        <f t="shared" si="165"/>
         <v>0.53965927825609084</v>
       </c>
       <c r="AS100" s="41">
-        <f>AS44/AVERAGE(AP73:AS73)</f>
+        <f t="shared" si="165"/>
         <v>0.51178637200736643</v>
       </c>
       <c r="BE100" s="41"/>
@@ -26649,67 +26649,67 @@
         <v>115</v>
       </c>
       <c r="AD101" s="61">
-        <f>AD58/AD80</f>
+        <f t="shared" ref="AD101:AS101" si="166">AD58/AD80</f>
         <v>1.4610459370031369E-2</v>
       </c>
       <c r="AE101" s="61">
-        <f>AE58/AE80</f>
+        <f t="shared" si="166"/>
         <v>8.3113657654517326E-3</v>
       </c>
       <c r="AF101" s="61">
-        <f>AF58/AF80</f>
+        <f t="shared" si="166"/>
         <v>1.4287893979685252E-2</v>
       </c>
       <c r="AG101" s="61">
-        <f>AG58/AG80</f>
+        <f t="shared" si="166"/>
         <v>1.612130190405647E-2</v>
       </c>
       <c r="AH101" s="61">
-        <f>AH58/AH80</f>
+        <f t="shared" si="166"/>
         <v>1.6322089227421111E-2</v>
       </c>
       <c r="AI101" s="61">
-        <f>AI58/AI80</f>
+        <f t="shared" si="166"/>
         <v>1.0332095113108081E-2</v>
       </c>
       <c r="AJ101" s="61">
-        <f>AJ58/AJ80</f>
+        <f t="shared" si="166"/>
         <v>4.5795304640662369E-3</v>
       </c>
       <c r="AK101" s="61">
-        <f>AK58/AK80</f>
+        <f t="shared" si="166"/>
         <v>1.2981494465336647E-2</v>
       </c>
       <c r="AL101" s="61">
-        <f>AL58/AL80</f>
+        <f t="shared" si="166"/>
         <v>1.2974446936711088E-2</v>
       </c>
       <c r="AM101" s="61">
-        <f>AM58/AM80</f>
+        <f t="shared" si="166"/>
         <v>8.7137569401603953E-3</v>
       </c>
       <c r="AN101" s="61">
-        <f>AN58/AN80</f>
+        <f t="shared" si="166"/>
         <v>1.0090246095441074E-2</v>
       </c>
       <c r="AO101" s="61">
-        <f>AO58/AO80</f>
+        <f t="shared" si="166"/>
         <v>1.4553701175745299E-2</v>
       </c>
       <c r="AP101" s="61">
-        <f>AP58/AP80</f>
+        <f t="shared" si="166"/>
         <v>7.2682010646692077E-3</v>
       </c>
       <c r="AQ101" s="61">
-        <f>AQ58/AQ80</f>
+        <f t="shared" si="166"/>
         <v>1.1621299401664642E-2</v>
       </c>
       <c r="AR101" s="61">
-        <f>AR58/AR80</f>
+        <f t="shared" si="166"/>
         <v>1.4104528997578908E-2</v>
       </c>
       <c r="AS101" s="61">
-        <f>AS58/AS80</f>
+        <f t="shared" si="166"/>
         <v>1.4382092405499428E-2</v>
       </c>
       <c r="BE101" s="61"/>
@@ -26736,67 +26736,67 @@
         <v>116</v>
       </c>
       <c r="AD102" s="61">
-        <f>AD58/AD93</f>
+        <f t="shared" ref="AD102:AS102" si="167">AD58/AD93</f>
         <v>2.6354035461680071E-2</v>
       </c>
       <c r="AE102" s="61">
-        <f>AE58/AE93</f>
+        <f t="shared" si="167"/>
         <v>1.4768504180860948E-2</v>
       </c>
       <c r="AF102" s="61">
-        <f>AF58/AF93</f>
+        <f t="shared" si="167"/>
         <v>2.5134202453987731E-2</v>
       </c>
       <c r="AG102" s="61">
-        <f>AG58/AG93</f>
+        <f t="shared" si="167"/>
         <v>2.8077098193959631E-2</v>
       </c>
       <c r="AH102" s="61">
-        <f>AH58/AH93</f>
+        <f t="shared" si="167"/>
         <v>2.8167144022306103E-2</v>
       </c>
       <c r="AI102" s="61">
-        <f>AI58/AI93</f>
+        <f t="shared" si="167"/>
         <v>1.7580379615086197E-2</v>
       </c>
       <c r="AJ102" s="61">
-        <f>AJ58/AJ93</f>
+        <f t="shared" si="167"/>
         <v>8.2028623571222745E-3</v>
       </c>
       <c r="AK102" s="61">
-        <f>AK58/AK93</f>
+        <f t="shared" si="167"/>
         <v>2.3673912201170134E-2</v>
       </c>
       <c r="AL102" s="61">
-        <f>AL58/AL93</f>
+        <f t="shared" si="167"/>
         <v>2.2839888510374728E-2</v>
       </c>
       <c r="AM102" s="61">
-        <f>AM58/AM93</f>
+        <f t="shared" si="167"/>
         <v>1.5399591161296603E-2</v>
       </c>
       <c r="AN102" s="61">
-        <f>AN58/AN93</f>
+        <f t="shared" si="167"/>
         <v>1.7600247836273161E-2</v>
       </c>
       <c r="AO102" s="61">
-        <f>AO58/AO93</f>
+        <f t="shared" si="167"/>
         <v>2.5425032694822679E-2</v>
       </c>
       <c r="AP102" s="61">
-        <f>AP58/AP93</f>
+        <f t="shared" si="167"/>
         <v>1.297104323681079E-2</v>
       </c>
       <c r="AQ102" s="61">
-        <f>AQ58/AQ93</f>
+        <f t="shared" si="167"/>
         <v>2.1656976744186048E-2</v>
       </c>
       <c r="AR102" s="61">
-        <f>AR58/AR93</f>
+        <f t="shared" si="167"/>
         <v>2.6068928710716997E-2</v>
       </c>
       <c r="AS102" s="61">
-        <f>AS58/AS93</f>
+        <f t="shared" si="167"/>
         <v>2.6080822331956063E-2</v>
       </c>
       <c r="BE102" s="61"/>
@@ -26823,75 +26823,75 @@
         <v>117</v>
       </c>
       <c r="AA104" s="1">
-        <f t="shared" ref="AA104:AR104" si="142">AA58</f>
+        <f t="shared" ref="AA104:AR104" si="168">AA58</f>
         <v>487</v>
       </c>
       <c r="AB104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>489</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1270</v>
       </c>
       <c r="AD104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1360</v>
       </c>
       <c r="AE104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>763</v>
       </c>
       <c r="AF104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1311</v>
       </c>
       <c r="AG104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1480</v>
       </c>
       <c r="AH104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1485</v>
       </c>
       <c r="AI104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>929</v>
       </c>
       <c r="AJ104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>427</v>
       </c>
       <c r="AK104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1222</v>
       </c>
       <c r="AL104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1180</v>
       </c>
       <c r="AM104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>791</v>
       </c>
       <c r="AN104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>909</v>
       </c>
       <c r="AO104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1322</v>
       </c>
       <c r="AP104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>654</v>
       </c>
       <c r="AQ104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1043</v>
       </c>
       <c r="AR104" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="168"/>
         <v>1270</v>
       </c>
       <c r="AS104" s="1">
@@ -26899,15 +26899,15 @@
         <v>1294</v>
       </c>
       <c r="BG104" s="1">
-        <f t="shared" ref="BG104:BI104" si="143">BG58</f>
+        <f t="shared" ref="BG104:BI104" si="169">BG58</f>
         <v>3606</v>
       </c>
       <c r="BH104" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="169"/>
         <v>5039</v>
       </c>
       <c r="BI104" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="169"/>
         <v>3758</v>
       </c>
       <c r="BJ104" s="1">
@@ -27103,83 +27103,83 @@
         <v>1993</v>
       </c>
       <c r="AD107" s="1">
-        <f t="shared" ref="AD107:AS107" si="144">AD105+AD106</f>
+        <f t="shared" ref="AD107:AS107" si="170">AD105+AD106</f>
         <v>1368</v>
       </c>
       <c r="AE107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>914</v>
       </c>
       <c r="AF107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>1498</v>
       </c>
       <c r="AG107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>1898</v>
       </c>
       <c r="AH107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>1668</v>
       </c>
       <c r="AI107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>657</v>
       </c>
       <c r="AJ107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>599</v>
       </c>
       <c r="AK107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>1242</v>
       </c>
       <c r="AL107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>2082</v>
       </c>
       <c r="AM107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>521</v>
       </c>
       <c r="AN107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>200</v>
       </c>
       <c r="AO107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>2128</v>
       </c>
       <c r="AP107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>2351</v>
       </c>
       <c r="AQ107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>466</v>
       </c>
       <c r="AR107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>554</v>
       </c>
       <c r="AS107" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="170"/>
         <v>2096</v>
       </c>
       <c r="BG107" s="1">
-        <f t="shared" ref="BG107" si="145">BG105+BG106</f>
+        <f t="shared" ref="BG107" si="171">BG105+BG106</f>
         <v>4885</v>
       </c>
       <c r="BH107" s="1">
-        <f t="shared" ref="BH107" si="146">BH105+BH106</f>
+        <f t="shared" ref="BH107" si="172">BH105+BH106</f>
         <v>5978</v>
       </c>
       <c r="BI107" s="1">
-        <f t="shared" ref="BI107" si="147">BI105+BI106</f>
+        <f t="shared" ref="BI107" si="173">BI105+BI106</f>
         <v>4580</v>
       </c>
       <c r="BJ107" s="1">
-        <f t="shared" ref="BJ107" si="148">BJ105+BJ106</f>
+        <f t="shared" ref="BJ107" si="174">BJ105+BJ106</f>
         <v>5200</v>
       </c>
     </row>
@@ -27188,75 +27188,75 @@
         <v>121</v>
       </c>
       <c r="AA108" s="44">
-        <f t="shared" ref="AA108:AR108" si="149">AA59</f>
+        <f t="shared" ref="AA108:AR108" si="175">AA59</f>
         <v>1341.9</v>
       </c>
       <c r="AB108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1344.4</v>
       </c>
       <c r="AC108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1346.4</v>
       </c>
       <c r="AD108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1344.9</v>
       </c>
       <c r="AE108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1344.5</v>
       </c>
       <c r="AF108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1345.1</v>
       </c>
       <c r="AG108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1343.7</v>
       </c>
       <c r="AH108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1342.4</v>
       </c>
       <c r="AI108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1329.4</v>
       </c>
       <c r="AJ108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1329.4</v>
       </c>
       <c r="AK108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1330.2</v>
       </c>
       <c r="AL108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1329.8</v>
       </c>
       <c r="AM108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1330.5</v>
       </c>
       <c r="AN108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1330.2</v>
       </c>
       <c r="AO108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1329.7</v>
       </c>
       <c r="AP108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1327.7</v>
       </c>
       <c r="AQ108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1293.3</v>
       </c>
       <c r="AR108" s="44">
-        <f t="shared" si="149"/>
+        <f t="shared" si="175"/>
         <v>1282.4000000000001</v>
       </c>
       <c r="AS108" s="44">
@@ -27264,15 +27264,15 @@
         <v>1282.4000000000001</v>
       </c>
       <c r="BG108" s="44">
-        <f t="shared" ref="BG108:BI108" si="150">BG59</f>
+        <f t="shared" ref="BG108:BI108" si="176">BG59</f>
         <v>1341.9</v>
       </c>
       <c r="BH108" s="44">
-        <f t="shared" si="150"/>
+        <f t="shared" si="176"/>
         <v>1342.4</v>
       </c>
       <c r="BI108" s="44">
-        <f t="shared" si="150"/>
+        <f t="shared" si="176"/>
         <v>1329.8</v>
       </c>
       <c r="BJ108" s="44">
@@ -27285,75 +27285,75 @@
         <v>122</v>
       </c>
       <c r="AA109" s="41">
-        <f t="shared" ref="AA109:AR109" si="151">AA107/AA108</f>
+        <f t="shared" ref="AA109:AR109" si="177">AA107/AA108</f>
         <v>-4.1731872717788207E-2</v>
       </c>
       <c r="AB109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.1752454626599225</v>
       </c>
       <c r="AC109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.4802436125965537</v>
       </c>
       <c r="AD109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.0171759982154807</v>
       </c>
       <c r="AE109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.67980661956117516</v>
       </c>
       <c r="AF109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.1136718459594084</v>
       </c>
       <c r="AG109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.4125176750762818</v>
       </c>
       <c r="AH109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.2425506555423123</v>
       </c>
       <c r="AI109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.49420791334436587</v>
       </c>
       <c r="AJ109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.45057920866556339</v>
       </c>
       <c r="AK109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.93369418132611637</v>
       </c>
       <c r="AL109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.5656489697698903</v>
       </c>
       <c r="AM109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.39158211198797443</v>
       </c>
       <c r="AN109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.15035333032626672</v>
       </c>
       <c r="AO109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.6003609836805295</v>
       </c>
       <c r="AP109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>1.7707313399111244</v>
       </c>
       <c r="AQ109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.3603185649114668</v>
       </c>
       <c r="AR109" s="41">
-        <f t="shared" si="151"/>
+        <f t="shared" si="177"/>
         <v>0.43200249532127261</v>
       </c>
       <c r="AS109" s="41">
@@ -27361,15 +27361,15 @@
         <v>1.634435433562071</v>
       </c>
       <c r="BG109" s="41">
-        <f t="shared" ref="BG109:BI109" si="152">BG107/BG108</f>
+        <f t="shared" ref="BG109:BI109" si="178">BG107/BG108</f>
         <v>3.6403606826142036</v>
       </c>
       <c r="BH109" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="178"/>
         <v>4.4532181168057212</v>
       </c>
       <c r="BI109" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="178"/>
         <v>3.4441269363814109</v>
       </c>
       <c r="BJ109" s="41">
@@ -27390,8 +27390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA2194"/>
   <sheetViews>
-    <sheetView topLeftCell="U297" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD318" sqref="AD318"/>
+    <sheetView tabSelected="1" topLeftCell="H225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P248" sqref="P248:P261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3E1F73-964A-4D2D-8348-FE925587400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85459CC3-7B55-4C1E-847E-6E9A10003240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="10110" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15112,11 +15112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:DV109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BF47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BM84" sqref="BM84"/>
+      <selection pane="bottomRight" activeCell="BO78" sqref="BO78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23571,7 +23571,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="65" spans="2:68">
+    <row r="65" spans="2:67">
       <c r="B65" s="38" t="s">
         <v>105</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>0.16412560277286484</v>
       </c>
     </row>
-    <row r="66" spans="2:68">
+    <row r="66" spans="2:67">
       <c r="B66" s="38" t="s">
         <v>106</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="67" spans="2:68">
+    <row r="67" spans="2:67">
       <c r="B67" s="38" t="s">
         <v>107</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>0.13284384110748929</v>
       </c>
     </row>
-    <row r="68" spans="2:68">
+    <row r="68" spans="2:67">
       <c r="B68" s="38" t="s">
         <v>2241</v>
       </c>
@@ -24382,27 +24382,27 @@
         <v>-2.0272946974249861E-2</v>
       </c>
       <c r="BK68" s="65">
-        <f>BK60/BJ60</f>
-        <v>1.0296806237072356</v>
+        <f>BK60/BJ60-1</f>
+        <v>2.9680623707235565E-2</v>
       </c>
       <c r="BL68" s="65">
-        <f t="shared" ref="BL68:BO68" si="135">BL60/BK60</f>
-        <v>1.0983116824516346</v>
+        <f>BL60/BK60-1</f>
+        <v>9.8311682451634574E-2</v>
       </c>
       <c r="BM68" s="65">
-        <f t="shared" si="135"/>
-        <v>1.1054803169615366</v>
+        <f>BM60/BL60-1</f>
+        <v>0.10548031696153659</v>
       </c>
       <c r="BN68" s="65">
-        <f t="shared" si="135"/>
-        <v>1.0912182914131459</v>
+        <f>BN60/BM60-1</f>
+        <v>9.1218291413145858E-2</v>
       </c>
       <c r="BO68" s="65">
-        <f t="shared" si="135"/>
-        <v>1.0417090105750257</v>
-      </c>
-    </row>
-    <row r="70" spans="2:68">
+        <f>BO60/BN60-1</f>
+        <v>4.170901057502574E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:67">
       <c r="B70" s="1" t="s">
         <v>108</v>
       </c>
@@ -24455,19 +24455,19 @@
         <v>1240</v>
       </c>
       <c r="BG70" s="1">
-        <f t="shared" ref="BG70:BG80" si="136">AD70</f>
+        <f t="shared" ref="BG70:BG80" si="135">AD70</f>
         <v>3593</v>
       </c>
       <c r="BH70" s="1">
-        <f t="shared" ref="BH70:BH80" si="137">AH70</f>
+        <f t="shared" ref="BH70:BH80" si="136">AH70</f>
         <v>3714</v>
       </c>
       <c r="BI70" s="1">
-        <f t="shared" ref="BI70:BI80" si="138">AL70</f>
+        <f t="shared" ref="BI70:BI80" si="137">AL70</f>
         <v>1543</v>
       </c>
       <c r="BJ70" s="1">
-        <f t="shared" ref="BJ70:BJ80" si="139">AP70</f>
+        <f t="shared" ref="BJ70:BJ80" si="138">AP70</f>
         <v>1284</v>
       </c>
       <c r="BK70" s="68">
@@ -24475,23 +24475,23 @@
         <v>5069.9612350749985</v>
       </c>
       <c r="BL70" s="68">
-        <f t="shared" ref="BL70:BO70" si="140">BK70+BL58</f>
+        <f t="shared" ref="BL70:BO70" si="139">BK70+BL58</f>
         <v>9228.1266888668888</v>
       </c>
       <c r="BM70" s="68">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>13824.896752703258</v>
       </c>
       <c r="BN70" s="68">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>18840.976327781878</v>
       </c>
       <c r="BO70" s="68">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>24066.271618902625</v>
       </c>
     </row>
-    <row r="71" spans="2:68">
+    <row r="71" spans="2:67">
       <c r="B71" s="1" t="s">
         <v>109</v>
       </c>
@@ -24544,23 +24544,23 @@
         <v>6682</v>
       </c>
       <c r="BG71" s="1">
+        <f t="shared" si="135"/>
+        <v>7224</v>
+      </c>
+      <c r="BH71" s="1">
         <f t="shared" si="136"/>
-        <v>7224</v>
-      </c>
-      <c r="BH71" s="1">
+        <v>6859</v>
+      </c>
+      <c r="BI71" s="1">
         <f t="shared" si="137"/>
-        <v>6859</v>
-      </c>
-      <c r="BI71" s="1">
+        <v>6416</v>
+      </c>
+      <c r="BJ71" s="1">
         <f t="shared" si="138"/>
-        <v>6416</v>
-      </c>
-      <c r="BJ71" s="1">
-        <f t="shared" si="139"/>
         <v>6721</v>
       </c>
     </row>
-    <row r="72" spans="2:68">
+    <row r="72" spans="2:67">
       <c r="B72" s="1" t="s">
         <v>2260</v>
       </c>
@@ -24613,23 +24613,23 @@
         <v>6115</v>
       </c>
       <c r="BG72" s="1">
+        <f t="shared" si="135"/>
+        <v>5462</v>
+      </c>
+      <c r="BH72" s="1">
         <f t="shared" si="136"/>
-        <v>5462</v>
-      </c>
-      <c r="BH72" s="1">
+        <v>5551</v>
+      </c>
+      <c r="BI72" s="1">
         <f t="shared" si="137"/>
-        <v>5551</v>
-      </c>
-      <c r="BI72" s="1">
+        <v>5998</v>
+      </c>
+      <c r="BJ72" s="1">
         <f t="shared" si="138"/>
-        <v>5998</v>
-      </c>
-      <c r="BJ72" s="1">
-        <f t="shared" si="139"/>
         <v>6128</v>
       </c>
     </row>
-    <row r="73" spans="2:68" ht="15" customHeight="1">
+    <row r="73" spans="2:67" ht="15" customHeight="1">
       <c r="B73" s="1" t="s">
         <v>2261</v>
       </c>
@@ -24682,19 +24682,19 @@
         <v>5610</v>
       </c>
       <c r="BG73" s="1">
+        <f t="shared" si="135"/>
+        <v>4313</v>
+      </c>
+      <c r="BH73" s="1">
         <f t="shared" si="136"/>
-        <v>4313</v>
-      </c>
-      <c r="BH73" s="1">
+        <v>4616</v>
+      </c>
+      <c r="BI73" s="1">
         <f t="shared" si="137"/>
-        <v>4616</v>
-      </c>
-      <c r="BI73" s="1">
+        <v>5293</v>
+      </c>
+      <c r="BJ73" s="1">
         <f t="shared" si="138"/>
-        <v>5293</v>
-      </c>
-      <c r="BJ73" s="1">
-        <f t="shared" si="139"/>
         <v>5217</v>
       </c>
       <c r="BL73" s="64" t="s">
@@ -24703,8 +24703,11 @@
       <c r="BM73" s="65">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="74" spans="2:68" ht="15" customHeight="1">
+      <c r="BO73" s="62" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="74" spans="2:67" ht="15" customHeight="1">
       <c r="B74" s="1" t="s">
         <v>2265</v>
       </c>
@@ -24757,19 +24760,19 @@
         <v>2865</v>
       </c>
       <c r="BG74" s="1">
+        <f t="shared" si="135"/>
+        <v>1955</v>
+      </c>
+      <c r="BH74" s="1">
         <f t="shared" si="136"/>
-        <v>1955</v>
-      </c>
-      <c r="BH74" s="1">
+        <v>2318</v>
+      </c>
+      <c r="BI74" s="1">
         <f t="shared" si="137"/>
-        <v>2318</v>
-      </c>
-      <c r="BI74" s="1">
+        <v>2425</v>
+      </c>
+      <c r="BJ74" s="1">
         <f t="shared" si="138"/>
-        <v>2425</v>
-      </c>
-      <c r="BJ74" s="1">
-        <f t="shared" si="139"/>
         <v>2584</v>
       </c>
       <c r="BL74" s="64" t="s">
@@ -24778,11 +24781,8 @@
       <c r="BM74" s="70">
         <v>2.75E-2</v>
       </c>
-      <c r="BP74" s="62" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="75" spans="2:68" ht="15" customHeight="1">
+    </row>
+    <row r="75" spans="2:67" ht="15" customHeight="1">
       <c r="B75" s="1" t="s">
         <v>2262</v>
       </c>
@@ -24836,19 +24836,19 @@
         <v>6593</v>
       </c>
       <c r="BG75" s="1">
+        <f t="shared" si="135"/>
+        <v>5221</v>
+      </c>
+      <c r="BH75" s="1">
         <f t="shared" si="136"/>
-        <v>5221</v>
-      </c>
-      <c r="BH75" s="1">
+        <v>5413</v>
+      </c>
+      <c r="BI75" s="1">
         <f t="shared" si="137"/>
-        <v>5413</v>
-      </c>
-      <c r="BI75" s="1">
+        <v>5569</v>
+      </c>
+      <c r="BJ75" s="1">
         <f t="shared" si="138"/>
-        <v>5569</v>
-      </c>
-      <c r="BJ75" s="1">
-        <f t="shared" si="139"/>
         <v>6131</v>
       </c>
       <c r="BL75" s="64" t="s">
@@ -24858,7 +24858,7 @@
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:68" ht="15" customHeight="1">
+    <row r="76" spans="2:67" ht="15" customHeight="1">
       <c r="B76" s="1" t="s">
         <v>2263</v>
       </c>
@@ -24911,19 +24911,19 @@
         <v>40819</v>
       </c>
       <c r="BG76" s="1">
+        <f t="shared" si="135"/>
+        <v>41961</v>
+      </c>
+      <c r="BH76" s="1">
         <f t="shared" si="136"/>
-        <v>41961</v>
-      </c>
-      <c r="BH76" s="1">
+        <v>40502</v>
+      </c>
+      <c r="BI76" s="1">
         <f t="shared" si="137"/>
-        <v>40502</v>
-      </c>
-      <c r="BI76" s="1">
+        <v>41425</v>
+      </c>
+      <c r="BJ76" s="1">
         <f t="shared" si="138"/>
-        <v>41425</v>
-      </c>
-      <c r="BJ76" s="1">
-        <f t="shared" si="139"/>
         <v>40986</v>
       </c>
       <c r="BL76" s="64" t="s">
@@ -24934,7 +24934,7 @@
         <v>3.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:68" ht="15" customHeight="1">
+    <row r="77" spans="2:67" ht="15" customHeight="1">
       <c r="B77" s="1" t="s">
         <v>2267</v>
       </c>
@@ -24987,19 +24987,19 @@
         <v>12184</v>
       </c>
       <c r="BG77" s="1">
+        <f t="shared" si="135"/>
+        <v>17740</v>
+      </c>
+      <c r="BH77" s="1">
         <f t="shared" si="136"/>
-        <v>17740</v>
-      </c>
-      <c r="BH77" s="1">
+        <v>15595</v>
+      </c>
+      <c r="BI77" s="1">
         <f t="shared" si="137"/>
-        <v>15595</v>
-      </c>
-      <c r="BI77" s="1">
+        <v>14844</v>
+      </c>
+      <c r="BJ77" s="1">
         <f t="shared" si="138"/>
-        <v>14844</v>
-      </c>
-      <c r="BJ77" s="1">
-        <f t="shared" si="139"/>
         <v>13225</v>
       </c>
       <c r="BL77" s="64" t="s">
@@ -25009,7 +25009,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="78" spans="2:68" ht="15" customHeight="1">
+    <row r="78" spans="2:67" ht="15" customHeight="1">
       <c r="B78" s="1" t="s">
         <v>2266</v>
       </c>
@@ -25062,19 +25062,19 @@
         <v>3614</v>
       </c>
       <c r="BG78" s="1">
+        <f t="shared" si="135"/>
+        <v>3169</v>
+      </c>
+      <c r="BH78" s="1">
         <f t="shared" si="136"/>
-        <v>3169</v>
-      </c>
-      <c r="BH78" s="1">
+        <v>3403</v>
+      </c>
+      <c r="BI78" s="1">
         <f t="shared" si="137"/>
-        <v>3403</v>
-      </c>
-      <c r="BI78" s="1">
+        <v>3477</v>
+      </c>
+      <c r="BJ78" s="1">
         <f t="shared" si="138"/>
-        <v>3477</v>
-      </c>
-      <c r="BJ78" s="1">
-        <f t="shared" si="139"/>
         <v>3657</v>
       </c>
       <c r="BL78" s="64" t="s">
@@ -25085,7 +25085,7 @@
         <v>6.9695999999999994E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:68" ht="15" customHeight="1">
+    <row r="79" spans="2:67" ht="15" customHeight="1">
       <c r="B79" s="1" t="s">
         <v>2264</v>
       </c>
@@ -25138,85 +25138,85 @@
         <v>4251</v>
       </c>
       <c r="BG79" s="1">
+        <f t="shared" si="135"/>
+        <v>2446</v>
+      </c>
+      <c r="BH79" s="1">
         <f t="shared" si="136"/>
-        <v>2446</v>
-      </c>
-      <c r="BH79" s="1">
+        <v>3010</v>
+      </c>
+      <c r="BI79" s="1">
         <f t="shared" si="137"/>
-        <v>3010</v>
-      </c>
-      <c r="BI79" s="1">
+        <v>3958</v>
+      </c>
+      <c r="BJ79" s="1">
         <f t="shared" si="138"/>
-        <v>3958</v>
-      </c>
-      <c r="BJ79" s="1">
-        <f t="shared" si="139"/>
         <v>4048</v>
       </c>
       <c r="BL79" s="64"/>
     </row>
-    <row r="80" spans="2:68" ht="15" customHeight="1">
+    <row r="80" spans="2:67" ht="15" customHeight="1">
       <c r="B80" s="1" t="s">
         <v>2276</v>
       </c>
       <c r="AD80" s="1">
-        <f t="shared" ref="AD80:AR80" si="141">SUM(AD70:AD79)</f>
+        <f t="shared" ref="AD80:AR80" si="140">SUM(AD70:AD79)</f>
         <v>93084</v>
       </c>
       <c r="AE80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>91802</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>91756</v>
       </c>
       <c r="AG80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>91804</v>
       </c>
       <c r="AH80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>90981</v>
       </c>
       <c r="AI80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>89914</v>
       </c>
       <c r="AJ80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>93241</v>
       </c>
       <c r="AK80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>94134</v>
       </c>
       <c r="AL80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>90948</v>
       </c>
       <c r="AM80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>90776</v>
       </c>
       <c r="AN80" s="1">
-        <f t="shared" ref="AN80" si="142">SUM(AN70:AN79)</f>
+        <f t="shared" ref="AN80" si="141">SUM(AN70:AN79)</f>
         <v>90087</v>
       </c>
       <c r="AO80" s="1">
-        <f t="shared" ref="AO80" si="143">SUM(AO70:AO79)</f>
+        <f t="shared" ref="AO80" si="142">SUM(AO70:AO79)</f>
         <v>90836</v>
       </c>
       <c r="AP80" s="1">
-        <f t="shared" ref="AP80" si="144">SUM(AP70:AP79)</f>
+        <f t="shared" ref="AP80" si="143">SUM(AP70:AP79)</f>
         <v>89981</v>
       </c>
       <c r="AQ80" s="1">
-        <f t="shared" ref="AQ80" si="145">SUM(AQ70:AQ79)</f>
+        <f t="shared" ref="AQ80" si="144">SUM(AQ70:AQ79)</f>
         <v>89749</v>
       </c>
       <c r="AR80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>90042</v>
       </c>
       <c r="AS80" s="1">
@@ -25224,19 +25224,19 @@
         <v>89973</v>
       </c>
       <c r="BG80" s="1">
+        <f t="shared" si="135"/>
+        <v>93084</v>
+      </c>
+      <c r="BH80" s="1">
         <f t="shared" si="136"/>
-        <v>93084</v>
-      </c>
-      <c r="BH80" s="1">
+        <v>90981</v>
+      </c>
+      <c r="BI80" s="1">
         <f t="shared" si="137"/>
-        <v>90981</v>
-      </c>
-      <c r="BI80" s="1">
+        <v>90948</v>
+      </c>
+      <c r="BJ80" s="1">
         <f t="shared" si="138"/>
-        <v>90948</v>
-      </c>
-      <c r="BJ80" s="1">
-        <f t="shared" si="139"/>
         <v>89981</v>
       </c>
       <c r="BL80" s="64" t="s">
@@ -25309,19 +25309,19 @@
         <v>2622</v>
       </c>
       <c r="BG82" s="1">
-        <f t="shared" ref="BG82:BG94" si="146">AD82</f>
+        <f t="shared" ref="BG82:BG94" si="145">AD82</f>
         <v>11</v>
       </c>
       <c r="BH82" s="1">
-        <f t="shared" ref="BH82:BH94" si="147">AH82</f>
+        <f t="shared" ref="BH82:BH94" si="146">AH82</f>
         <v>3742</v>
       </c>
       <c r="BI82" s="1">
-        <f t="shared" ref="BI82:BI94" si="148">AL82</f>
+        <f t="shared" ref="BI82:BI94" si="147">AL82</f>
         <v>20</v>
       </c>
       <c r="BJ82" s="1">
-        <f t="shared" ref="BJ82:BJ94" si="149">AP82</f>
+        <f t="shared" ref="BJ82:BJ94" si="148">AP82</f>
         <v>1092</v>
       </c>
       <c r="BL82" s="64" t="s">
@@ -25385,19 +25385,19 @@
         <v>2286</v>
       </c>
       <c r="BG83" s="1">
+        <f t="shared" si="145"/>
+        <v>2106</v>
+      </c>
+      <c r="BH83" s="1">
         <f t="shared" si="146"/>
-        <v>2106</v>
-      </c>
-      <c r="BH83" s="1">
+        <v>2276</v>
+      </c>
+      <c r="BI83" s="1">
         <f t="shared" si="147"/>
-        <v>2276</v>
-      </c>
-      <c r="BI83" s="1">
+        <v>2662</v>
+      </c>
+      <c r="BJ83" s="1">
         <f t="shared" si="148"/>
-        <v>2662</v>
-      </c>
-      <c r="BJ83" s="1">
-        <f t="shared" si="149"/>
         <v>2410</v>
       </c>
       <c r="BL83" s="64" t="s">
@@ -25460,19 +25460,19 @@
         <v>2281</v>
       </c>
       <c r="BG84" s="1">
+        <f t="shared" si="145"/>
+        <v>2482</v>
+      </c>
+      <c r="BH84" s="1">
         <f t="shared" si="146"/>
-        <v>2482</v>
-      </c>
-      <c r="BH84" s="1">
+        <v>2121</v>
+      </c>
+      <c r="BI84" s="1">
         <f t="shared" si="147"/>
-        <v>2121</v>
-      </c>
-      <c r="BI84" s="1">
+        <v>1949</v>
+      </c>
+      <c r="BJ84" s="1">
         <f t="shared" si="148"/>
-        <v>1949</v>
-      </c>
-      <c r="BJ84" s="1">
-        <f t="shared" si="149"/>
         <v>2375</v>
       </c>
       <c r="BL84" s="64" t="s">
@@ -25540,19 +25540,19 @@
         <v>1125</v>
       </c>
       <c r="BG85" s="1">
+        <f t="shared" si="145"/>
+        <v>435</v>
+      </c>
+      <c r="BH85" s="1">
         <f t="shared" si="146"/>
-        <v>435</v>
-      </c>
-      <c r="BH85" s="1">
+        <v>704</v>
+      </c>
+      <c r="BI85" s="1">
         <f t="shared" si="147"/>
-        <v>704</v>
-      </c>
-      <c r="BI85" s="1">
+        <v>840</v>
+      </c>
+      <c r="BJ85" s="1">
         <f t="shared" si="148"/>
-        <v>840</v>
-      </c>
-      <c r="BJ85" s="1">
-        <f t="shared" si="149"/>
         <v>1330</v>
       </c>
     </row>
@@ -25609,19 +25609,19 @@
         <v>3226</v>
       </c>
       <c r="BG86" s="1">
+        <f t="shared" si="145"/>
+        <v>3475</v>
+      </c>
+      <c r="BH86" s="1">
         <f t="shared" si="146"/>
-        <v>3475</v>
-      </c>
-      <c r="BH86" s="1">
+        <v>3551</v>
+      </c>
+      <c r="BI86" s="1">
         <f t="shared" si="147"/>
-        <v>3551</v>
-      </c>
-      <c r="BI86" s="1">
+        <v>3581</v>
+      </c>
+      <c r="BJ86" s="1">
         <f t="shared" si="148"/>
-        <v>3581</v>
-      </c>
-      <c r="BJ86" s="1">
-        <f t="shared" si="149"/>
         <v>3582</v>
       </c>
     </row>
@@ -25678,19 +25678,19 @@
         <v>23985</v>
       </c>
       <c r="BG87" s="1">
+        <f t="shared" si="145"/>
+        <v>26378</v>
+      </c>
+      <c r="BH87" s="1">
         <f t="shared" si="146"/>
-        <v>26378</v>
-      </c>
-      <c r="BH87" s="1">
+        <v>20372</v>
+      </c>
+      <c r="BI87" s="1">
         <f t="shared" si="147"/>
-        <v>20372</v>
-      </c>
-      <c r="BI87" s="1">
+        <v>24344</v>
+      </c>
+      <c r="BJ87" s="1">
         <f t="shared" si="148"/>
-        <v>24344</v>
-      </c>
-      <c r="BJ87" s="1">
-        <f t="shared" si="149"/>
         <v>23932</v>
       </c>
     </row>
@@ -25747,19 +25747,19 @@
         <v>1063</v>
       </c>
       <c r="BG88" s="1">
+        <f t="shared" si="145"/>
+        <v>1557</v>
+      </c>
+      <c r="BH88" s="1">
         <f t="shared" si="146"/>
-        <v>1557</v>
-      </c>
-      <c r="BH88" s="1">
+        <v>1113</v>
+      </c>
+      <c r="BI88" s="1">
         <f t="shared" si="147"/>
-        <v>1113</v>
-      </c>
-      <c r="BI88" s="1">
+        <v>1093</v>
+      </c>
+      <c r="BJ88" s="1">
         <f t="shared" si="148"/>
-        <v>1093</v>
-      </c>
-      <c r="BJ88" s="1">
-        <f t="shared" si="149"/>
         <v>1101</v>
       </c>
     </row>
@@ -25816,19 +25816,19 @@
         <v>1485</v>
       </c>
       <c r="BG89" s="1">
+        <f t="shared" si="145"/>
+        <v>2251</v>
+      </c>
+      <c r="BH89" s="1">
         <f t="shared" si="146"/>
-        <v>2251</v>
-      </c>
-      <c r="BH89" s="1">
+        <v>2087</v>
+      </c>
+      <c r="BI89" s="1">
         <f t="shared" si="147"/>
-        <v>2087</v>
-      </c>
-      <c r="BI89" s="1">
+        <v>2360</v>
+      </c>
+      <c r="BJ89" s="1">
         <f t="shared" si="148"/>
-        <v>2360</v>
-      </c>
-      <c r="BJ89" s="1">
-        <f t="shared" si="149"/>
         <v>1859</v>
       </c>
     </row>
@@ -25885,19 +25885,19 @@
         <v>452</v>
       </c>
       <c r="BG90" s="1">
+        <f t="shared" si="145"/>
+        <v>1028</v>
+      </c>
+      <c r="BH90" s="1">
         <f t="shared" si="146"/>
-        <v>1028</v>
-      </c>
-      <c r="BH90" s="1">
+        <v>884</v>
+      </c>
+      <c r="BI90" s="1">
         <f t="shared" si="147"/>
-        <v>884</v>
-      </c>
-      <c r="BI90" s="1">
+        <v>708</v>
+      </c>
+      <c r="BJ90" s="1">
         <f t="shared" si="148"/>
-        <v>708</v>
-      </c>
-      <c r="BJ90" s="1">
-        <f t="shared" si="149"/>
         <v>515</v>
       </c>
     </row>
@@ -25954,19 +25954,19 @@
         <v>1533</v>
       </c>
       <c r="BG91" s="1">
+        <f t="shared" si="145"/>
+        <v>1756</v>
+      </c>
+      <c r="BH91" s="1">
         <f t="shared" si="146"/>
-        <v>1756</v>
-      </c>
-      <c r="BH91" s="1">
+        <v>1410</v>
+      </c>
+      <c r="BI91" s="1">
         <f t="shared" si="147"/>
-        <v>1410</v>
-      </c>
-      <c r="BI91" s="1">
+        <v>1727</v>
+      </c>
+      <c r="BJ91" s="1">
         <f t="shared" si="148"/>
-        <v>1727</v>
-      </c>
-      <c r="BJ91" s="1">
-        <f t="shared" si="149"/>
         <v>1365</v>
       </c>
     </row>
@@ -25975,63 +25975,63 @@
         <v>2277</v>
       </c>
       <c r="AD92" s="1">
-        <f t="shared" ref="AD92:AR92" si="150">SUM(AD82:AD91)</f>
+        <f t="shared" ref="AD92:AR92" si="149">SUM(AD82:AD91)</f>
         <v>41479</v>
       </c>
       <c r="AE92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>40138</v>
       </c>
       <c r="AF92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>39596</v>
       </c>
       <c r="AG92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>39092</v>
       </c>
       <c r="AH92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>38260</v>
       </c>
       <c r="AI92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>37071</v>
       </c>
       <c r="AJ92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>41186</v>
       </c>
       <c r="AK92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>42516</v>
       </c>
       <c r="AL92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>39284</v>
       </c>
       <c r="AM92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>39411</v>
       </c>
       <c r="AN92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>38440</v>
       </c>
       <c r="AO92" s="1">
-        <f t="shared" ref="AO92" si="151">SUM(AO82:AO91)</f>
+        <f t="shared" ref="AO92" si="150">SUM(AO82:AO91)</f>
         <v>38840</v>
       </c>
       <c r="AP92" s="1">
-        <f t="shared" ref="AP92" si="152">SUM(AP82:AP91)</f>
+        <f t="shared" ref="AP92" si="151">SUM(AP82:AP91)</f>
         <v>39561</v>
       </c>
       <c r="AQ92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>41589</v>
       </c>
       <c r="AR92" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>41325</v>
       </c>
       <c r="AS92" s="1">
@@ -26039,19 +26039,19 @@
         <v>40058</v>
       </c>
       <c r="BG92" s="1">
+        <f t="shared" si="145"/>
+        <v>41479</v>
+      </c>
+      <c r="BH92" s="1">
         <f t="shared" si="146"/>
-        <v>41479</v>
-      </c>
-      <c r="BH92" s="1">
+        <v>38260</v>
+      </c>
+      <c r="BI92" s="1">
         <f t="shared" si="147"/>
-        <v>38260</v>
-      </c>
-      <c r="BI92" s="1">
+        <v>39284</v>
+      </c>
+      <c r="BJ92" s="1">
         <f t="shared" si="148"/>
-        <v>39284</v>
-      </c>
-      <c r="BJ92" s="1">
-        <f t="shared" si="149"/>
         <v>39561</v>
       </c>
     </row>
@@ -26108,19 +26108,19 @@
         <v>49615</v>
       </c>
       <c r="BG93" s="1">
+        <f t="shared" si="145"/>
+        <v>51605</v>
+      </c>
+      <c r="BH93" s="1">
         <f t="shared" si="146"/>
-        <v>51605</v>
-      </c>
-      <c r="BH93" s="1">
+        <v>52721</v>
+      </c>
+      <c r="BI93" s="1">
         <f t="shared" si="147"/>
-        <v>52721</v>
-      </c>
-      <c r="BI93" s="1">
+        <v>51664</v>
+      </c>
+      <c r="BJ93" s="1">
         <f t="shared" si="148"/>
-        <v>51664</v>
-      </c>
-      <c r="BJ93" s="1">
-        <f t="shared" si="149"/>
         <v>50420</v>
       </c>
     </row>
@@ -26129,63 +26129,63 @@
         <v>2278</v>
       </c>
       <c r="AD94" s="1">
-        <f t="shared" ref="AD94:AR94" si="153">AD92+AD93</f>
+        <f t="shared" ref="AD94:AR94" si="152">AD92+AD93</f>
         <v>93084</v>
       </c>
       <c r="AE94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>91802</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>91756</v>
       </c>
       <c r="AG94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>91804</v>
       </c>
       <c r="AH94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>90981</v>
       </c>
       <c r="AI94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>89914</v>
       </c>
       <c r="AJ94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>93241</v>
       </c>
       <c r="AK94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>94134</v>
       </c>
       <c r="AL94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>90948</v>
       </c>
       <c r="AM94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>90776</v>
       </c>
       <c r="AN94" s="1">
-        <f t="shared" ref="AN94" si="154">AN92+AN93</f>
+        <f t="shared" ref="AN94" si="153">AN92+AN93</f>
         <v>90087</v>
       </c>
       <c r="AO94" s="1">
-        <f t="shared" ref="AO94" si="155">AO92+AO93</f>
+        <f t="shared" ref="AO94" si="154">AO92+AO93</f>
         <v>90836</v>
       </c>
       <c r="AP94" s="1">
-        <f t="shared" ref="AP94" si="156">AP92+AP93</f>
+        <f t="shared" ref="AP94" si="155">AP92+AP93</f>
         <v>89981</v>
       </c>
       <c r="AQ94" s="1">
-        <f t="shared" ref="AQ94" si="157">AQ92+AQ93</f>
+        <f t="shared" ref="AQ94" si="156">AQ92+AQ93</f>
         <v>89749</v>
       </c>
       <c r="AR94" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>90042</v>
       </c>
       <c r="AS94" s="1">
@@ -26193,19 +26193,19 @@
         <v>89673</v>
       </c>
       <c r="BG94" s="1">
+        <f t="shared" si="145"/>
+        <v>93084</v>
+      </c>
+      <c r="BH94" s="1">
         <f t="shared" si="146"/>
-        <v>93084</v>
-      </c>
-      <c r="BH94" s="1">
+        <v>90981</v>
+      </c>
+      <c r="BI94" s="1">
         <f t="shared" si="147"/>
-        <v>90981</v>
-      </c>
-      <c r="BI94" s="1">
+        <v>90948</v>
+      </c>
+      <c r="BJ94" s="1">
         <f t="shared" si="148"/>
-        <v>90948</v>
-      </c>
-      <c r="BJ94" s="1">
-        <f t="shared" si="149"/>
         <v>89981</v>
       </c>
     </row>
@@ -26214,63 +26214,63 @@
         <v>110</v>
       </c>
       <c r="AD96" s="41">
-        <f t="shared" ref="AD96:AR96" si="158">SUM(AD70:AD75)/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD96:AR96" si="157">SUM(AD70:AD75)/SUM(AD82:AD86)</f>
         <v>3.2633681983781879</v>
       </c>
       <c r="AE96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>3.5543534260690364</v>
       </c>
       <c r="AF96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>3.5779828271177752</v>
       </c>
       <c r="AG96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>3.198610955528173</v>
       </c>
       <c r="AH96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.2971599160884297</v>
       </c>
       <c r="AI96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>1.9517334662205452</v>
       </c>
       <c r="AJ96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.1220877981334256</v>
       </c>
       <c r="AK96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.1358435614728521</v>
       </c>
       <c r="AL96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>3.009721608484313</v>
       </c>
       <c r="AM96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>3.0433292804244503</v>
       </c>
       <c r="AN96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.8799958583557674</v>
       </c>
       <c r="AO96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.8954248366013071</v>
       </c>
       <c r="AP96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.6012605431457967</v>
       </c>
       <c r="AQ96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.7441430932244582</v>
       </c>
       <c r="AR96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.3678556785567855</v>
       </c>
       <c r="AS96" s="41">
@@ -26280,11 +26280,11 @@
       <c r="BE96" s="41"/>
       <c r="BF96" s="41"/>
       <c r="BG96" s="41">
-        <f t="shared" ref="BG96:BH96" si="159">SUM(BG70:BG75)/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG96:BH96" si="158">SUM(BG70:BG75)/SUM(BG82:BG86)</f>
         <v>3.2633681983781879</v>
       </c>
       <c r="BH96" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2.2971599160884297</v>
       </c>
       <c r="BI96" s="41">
@@ -26301,63 +26301,63 @@
         <v>111</v>
       </c>
       <c r="AD97" s="41">
-        <f t="shared" ref="AD97:AR97" si="160">(SUM(AD70:AD74)-AD73)/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD97:AR97" si="159">(SUM(AD70:AD74)-AD73)/SUM(AD82:AD86)</f>
         <v>2.1429075096956165</v>
       </c>
       <c r="AE97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2.3371973209685728</v>
       </c>
       <c r="AF97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2.3557606048955528</v>
       </c>
       <c r="AG97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2.1047384339643775</v>
       </c>
       <c r="AH97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.4879780538970468</v>
       </c>
       <c r="AI97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.2334306257563892</v>
       </c>
       <c r="AJ97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.4063601797442102</v>
       </c>
       <c r="AK97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.3861035989182442</v>
       </c>
       <c r="AL97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.8097657976137871</v>
       </c>
       <c r="AM97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.7906488338675803</v>
       </c>
       <c r="AN97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.6904120936011597</v>
       </c>
       <c r="AO97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.7144607843137254</v>
       </c>
       <c r="AP97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.5494485123737141</v>
       </c>
       <c r="AQ97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.6071741032370954</v>
       </c>
       <c r="AR97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1.3906519065190652</v>
       </c>
       <c r="AS97" s="41">
@@ -26367,11 +26367,11 @@
       <c r="BE97" s="41"/>
       <c r="BF97" s="41"/>
       <c r="BG97" s="41">
-        <f t="shared" ref="BG97:BH97" si="161">(SUM(BG70:BG74)-BG73)/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG97:BH97" si="160">(SUM(BG70:BG74)-BG73)/SUM(BG82:BG86)</f>
         <v>2.1429075096956165</v>
       </c>
       <c r="BH97" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>1.4879780538970468</v>
       </c>
       <c r="BI97" s="41">
@@ -26388,63 +26388,63 @@
         <v>112</v>
       </c>
       <c r="AD98" s="41">
-        <f t="shared" ref="AD98:AR98" si="162">AD70/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD98:AR98" si="161">AD70/SUM(AD82:AD86)</f>
         <v>0.42225878481607709</v>
       </c>
       <c r="AE98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.38691396187532201</v>
       </c>
       <c r="AF98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.37165192874535435</v>
       </c>
       <c r="AG98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.38971659011986109</v>
       </c>
       <c r="AH98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.29966112635146036</v>
       </c>
       <c r="AI98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.15234569659001923</v>
       </c>
       <c r="AJ98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.33377117179398547</v>
       </c>
       <c r="AK98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.31350114416475972</v>
       </c>
       <c r="AL98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.17045956694653117</v>
       </c>
       <c r="AM98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.14800486349065989</v>
       </c>
       <c r="AN98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.1357423897287223</v>
       </c>
       <c r="AO98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.16574754901960784</v>
       </c>
       <c r="AP98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.11901010288256558</v>
       </c>
       <c r="AQ98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.1274424030329542</v>
       </c>
       <c r="AR98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>0.11430914309143092</v>
       </c>
       <c r="AS98" s="41">
@@ -26454,11 +26454,11 @@
       <c r="BE98" s="41"/>
       <c r="BF98" s="41"/>
       <c r="BG98" s="41">
-        <f t="shared" ref="BG98:BH98" si="163">BG70/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG98:BH98" si="162">BG70/SUM(BG82:BG86)</f>
         <v>0.42225878481607709</v>
       </c>
       <c r="BH98" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.29966112635146036</v>
       </c>
       <c r="BI98" s="41">
@@ -26475,67 +26475,67 @@
         <v>113</v>
       </c>
       <c r="AD99" s="41">
-        <f t="shared" ref="AD99:AS99" si="164">AD43/AD80</f>
+        <f t="shared" ref="AD99:AS99" si="163">AD43/AD80</f>
         <v>8.7963559795453575E-2</v>
       </c>
       <c r="AE99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.7002461820003915E-2</v>
       </c>
       <c r="AF99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.55202929508697E-2</v>
       </c>
       <c r="AG99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.4560585595398891E-2</v>
       </c>
       <c r="AH99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.8908673239467578E-2</v>
       </c>
       <c r="AI99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.1978334853304274E-2</v>
       </c>
       <c r="AJ99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.1348333887452939E-2</v>
       </c>
       <c r="AK99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.2085112711666353E-2</v>
       </c>
       <c r="AL99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>9.3943792056999598E-2</v>
       </c>
       <c r="AM99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.4846214858552926E-2</v>
       </c>
       <c r="AN99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.8625439852586946E-2</v>
       </c>
       <c r="AO99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.9050596679730504E-2</v>
       </c>
       <c r="AP99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>9.5453484624531848E-2</v>
       </c>
       <c r="AQ99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>8.8190397664597936E-2</v>
       </c>
       <c r="AR99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>9.3323115879256346E-2</v>
       </c>
       <c r="AS99" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>9.2160981627821686E-2</v>
       </c>
       <c r="BE99" s="41"/>
@@ -26562,67 +26562,67 @@
         <v>114</v>
       </c>
       <c r="AD100" s="41">
-        <f t="shared" ref="AD100:AS100" si="165">AD44/AVERAGE(AA73:AD73)</f>
+        <f t="shared" ref="AD100:AS100" si="164">AD44/AVERAGE(AA73:AD73)</f>
         <v>0.61488523069789014</v>
       </c>
       <c r="AE100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.60411580048831526</v>
       </c>
       <c r="AF100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.57845559845559846</v>
       </c>
       <c r="AG100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.56321575813101232</v>
       </c>
       <c r="AH100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.58332864298981257</v>
       </c>
       <c r="AI100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.55030621172353456</v>
       </c>
       <c r="AJ100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.53385279561966936</v>
       </c>
       <c r="AK100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.54172752455300932</v>
       </c>
       <c r="AL100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.58036236119228524</v>
       </c>
       <c r="AM100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.49142162591744193</v>
       </c>
       <c r="AN100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.49995473064735174</v>
       </c>
       <c r="AO100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.49587808029945191</v>
       </c>
       <c r="AP100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.54460093896713613</v>
       </c>
       <c r="AQ100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.49947989688390393</v>
       </c>
       <c r="AR100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.53965927825609084</v>
       </c>
       <c r="AS100" s="41">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.51178637200736643</v>
       </c>
       <c r="BE100" s="41"/>
@@ -26649,67 +26649,67 @@
         <v>115</v>
       </c>
       <c r="AD101" s="61">
-        <f t="shared" ref="AD101:AS101" si="166">AD58/AD80</f>
+        <f t="shared" ref="AD101:AS101" si="165">AD58/AD80</f>
         <v>1.4610459370031369E-2</v>
       </c>
       <c r="AE101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>8.3113657654517326E-3</v>
       </c>
       <c r="AF101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.4287893979685252E-2</v>
       </c>
       <c r="AG101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.612130190405647E-2</v>
       </c>
       <c r="AH101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.6322089227421111E-2</v>
       </c>
       <c r="AI101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.0332095113108081E-2</v>
       </c>
       <c r="AJ101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>4.5795304640662369E-3</v>
       </c>
       <c r="AK101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.2981494465336647E-2</v>
       </c>
       <c r="AL101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.2974446936711088E-2</v>
       </c>
       <c r="AM101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>8.7137569401603953E-3</v>
       </c>
       <c r="AN101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.0090246095441074E-2</v>
       </c>
       <c r="AO101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.4553701175745299E-2</v>
       </c>
       <c r="AP101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>7.2682010646692077E-3</v>
       </c>
       <c r="AQ101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.1621299401664642E-2</v>
       </c>
       <c r="AR101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.4104528997578908E-2</v>
       </c>
       <c r="AS101" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.4382092405499428E-2</v>
       </c>
       <c r="BE101" s="61"/>
@@ -26736,67 +26736,67 @@
         <v>116</v>
       </c>
       <c r="AD102" s="61">
-        <f t="shared" ref="AD102:AS102" si="167">AD58/AD93</f>
+        <f t="shared" ref="AD102:AS102" si="166">AD58/AD93</f>
         <v>2.6354035461680071E-2</v>
       </c>
       <c r="AE102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.4768504180860948E-2</v>
       </c>
       <c r="AF102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.5134202453987731E-2</v>
       </c>
       <c r="AG102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.8077098193959631E-2</v>
       </c>
       <c r="AH102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.8167144022306103E-2</v>
       </c>
       <c r="AI102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.7580379615086197E-2</v>
       </c>
       <c r="AJ102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>8.2028623571222745E-3</v>
       </c>
       <c r="AK102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.3673912201170134E-2</v>
       </c>
       <c r="AL102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.2839888510374728E-2</v>
       </c>
       <c r="AM102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.5399591161296603E-2</v>
       </c>
       <c r="AN102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.7600247836273161E-2</v>
       </c>
       <c r="AO102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.5425032694822679E-2</v>
       </c>
       <c r="AP102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.297104323681079E-2</v>
       </c>
       <c r="AQ102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.1656976744186048E-2</v>
       </c>
       <c r="AR102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.6068928710716997E-2</v>
       </c>
       <c r="AS102" s="61">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>2.6080822331956063E-2</v>
       </c>
       <c r="BE102" s="61"/>
@@ -26823,75 +26823,75 @@
         <v>117</v>
       </c>
       <c r="AA104" s="1">
-        <f t="shared" ref="AA104:AR104" si="168">AA58</f>
+        <f t="shared" ref="AA104:AR104" si="167">AA58</f>
         <v>487</v>
       </c>
       <c r="AB104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>489</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1270</v>
       </c>
       <c r="AD104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1360</v>
       </c>
       <c r="AE104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>763</v>
       </c>
       <c r="AF104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1311</v>
       </c>
       <c r="AG104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1480</v>
       </c>
       <c r="AH104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1485</v>
       </c>
       <c r="AI104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>929</v>
       </c>
       <c r="AJ104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>427</v>
       </c>
       <c r="AK104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1222</v>
       </c>
       <c r="AL104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1180</v>
       </c>
       <c r="AM104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>791</v>
       </c>
       <c r="AN104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>909</v>
       </c>
       <c r="AO104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1322</v>
       </c>
       <c r="AP104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>654</v>
       </c>
       <c r="AQ104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1043</v>
       </c>
       <c r="AR104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1270</v>
       </c>
       <c r="AS104" s="1">
@@ -26899,15 +26899,15 @@
         <v>1294</v>
       </c>
       <c r="BG104" s="1">
-        <f t="shared" ref="BG104:BI104" si="169">BG58</f>
+        <f t="shared" ref="BG104:BI104" si="168">BG58</f>
         <v>3606</v>
       </c>
       <c r="BH104" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>5039</v>
       </c>
       <c r="BI104" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>3758</v>
       </c>
       <c r="BJ104" s="1">
@@ -27103,83 +27103,83 @@
         <v>1993</v>
       </c>
       <c r="AD107" s="1">
-        <f t="shared" ref="AD107:AS107" si="170">AD105+AD106</f>
+        <f t="shared" ref="AD107:AS107" si="169">AD105+AD106</f>
         <v>1368</v>
       </c>
       <c r="AE107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>914</v>
       </c>
       <c r="AF107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>1498</v>
       </c>
       <c r="AG107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>1898</v>
       </c>
       <c r="AH107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>1668</v>
       </c>
       <c r="AI107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>657</v>
       </c>
       <c r="AJ107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>599</v>
       </c>
       <c r="AK107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>1242</v>
       </c>
       <c r="AL107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>2082</v>
       </c>
       <c r="AM107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>521</v>
       </c>
       <c r="AN107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>200</v>
       </c>
       <c r="AO107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>2128</v>
       </c>
       <c r="AP107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>2351</v>
       </c>
       <c r="AQ107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>466</v>
       </c>
       <c r="AR107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>554</v>
       </c>
       <c r="AS107" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>2096</v>
       </c>
       <c r="BG107" s="1">
-        <f t="shared" ref="BG107" si="171">BG105+BG106</f>
+        <f t="shared" ref="BG107" si="170">BG105+BG106</f>
         <v>4885</v>
       </c>
       <c r="BH107" s="1">
-        <f t="shared" ref="BH107" si="172">BH105+BH106</f>
+        <f t="shared" ref="BH107" si="171">BH105+BH106</f>
         <v>5978</v>
       </c>
       <c r="BI107" s="1">
-        <f t="shared" ref="BI107" si="173">BI105+BI106</f>
+        <f t="shared" ref="BI107" si="172">BI105+BI106</f>
         <v>4580</v>
       </c>
       <c r="BJ107" s="1">
-        <f t="shared" ref="BJ107" si="174">BJ105+BJ106</f>
+        <f t="shared" ref="BJ107" si="173">BJ105+BJ106</f>
         <v>5200</v>
       </c>
     </row>
@@ -27188,75 +27188,75 @@
         <v>121</v>
       </c>
       <c r="AA108" s="44">
-        <f t="shared" ref="AA108:AR108" si="175">AA59</f>
+        <f t="shared" ref="AA108:AR108" si="174">AA59</f>
         <v>1341.9</v>
       </c>
       <c r="AB108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1344.4</v>
       </c>
       <c r="AC108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1346.4</v>
       </c>
       <c r="AD108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1344.9</v>
       </c>
       <c r="AE108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1344.5</v>
       </c>
       <c r="AF108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1345.1</v>
       </c>
       <c r="AG108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1343.7</v>
       </c>
       <c r="AH108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1342.4</v>
       </c>
       <c r="AI108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1329.4</v>
       </c>
       <c r="AJ108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1329.4</v>
       </c>
       <c r="AK108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1330.2</v>
       </c>
       <c r="AL108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1329.8</v>
       </c>
       <c r="AM108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1330.5</v>
       </c>
       <c r="AN108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1330.2</v>
       </c>
       <c r="AO108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1329.7</v>
       </c>
       <c r="AP108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1327.7</v>
       </c>
       <c r="AQ108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1293.3</v>
       </c>
       <c r="AR108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1282.4000000000001</v>
       </c>
       <c r="AS108" s="44">
@@ -27264,15 +27264,15 @@
         <v>1282.4000000000001</v>
       </c>
       <c r="BG108" s="44">
-        <f t="shared" ref="BG108:BI108" si="176">BG59</f>
+        <f t="shared" ref="BG108:BI108" si="175">BG59</f>
         <v>1341.9</v>
       </c>
       <c r="BH108" s="44">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>1342.4</v>
       </c>
       <c r="BI108" s="44">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>1329.8</v>
       </c>
       <c r="BJ108" s="44">
@@ -27285,75 +27285,75 @@
         <v>122</v>
       </c>
       <c r="AA109" s="41">
-        <f t="shared" ref="AA109:AR109" si="177">AA107/AA108</f>
+        <f t="shared" ref="AA109:AR109" si="176">AA107/AA108</f>
         <v>-4.1731872717788207E-2</v>
       </c>
       <c r="AB109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.1752454626599225</v>
       </c>
       <c r="AC109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.4802436125965537</v>
       </c>
       <c r="AD109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.0171759982154807</v>
       </c>
       <c r="AE109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.67980661956117516</v>
       </c>
       <c r="AF109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.1136718459594084</v>
       </c>
       <c r="AG109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.4125176750762818</v>
       </c>
       <c r="AH109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.2425506555423123</v>
       </c>
       <c r="AI109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.49420791334436587</v>
       </c>
       <c r="AJ109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.45057920866556339</v>
       </c>
       <c r="AK109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.93369418132611637</v>
       </c>
       <c r="AL109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.5656489697698903</v>
       </c>
       <c r="AM109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.39158211198797443</v>
       </c>
       <c r="AN109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.15035333032626672</v>
       </c>
       <c r="AO109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.6003609836805295</v>
       </c>
       <c r="AP109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>1.7707313399111244</v>
       </c>
       <c r="AQ109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.3603185649114668</v>
       </c>
       <c r="AR109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>0.43200249532127261</v>
       </c>
       <c r="AS109" s="41">
@@ -27361,15 +27361,15 @@
         <v>1.634435433562071</v>
       </c>
       <c r="BG109" s="41">
-        <f t="shared" ref="BG109:BI109" si="178">BG107/BG108</f>
+        <f t="shared" ref="BG109:BI109" si="177">BG107/BG108</f>
         <v>3.6403606826142036</v>
       </c>
       <c r="BH109" s="41">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>4.4532181168057212</v>
       </c>
       <c r="BI109" s="41">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>3.4441269363814109</v>
       </c>
       <c r="BJ109" s="41">
@@ -27390,7 +27390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA2194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P248" sqref="P248:P261"/>
     </sheetView>
   </sheetViews>

--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85459CC3-7B55-4C1E-847E-6E9A10003240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A6FB2-32C2-4B23-AFDE-351013DDE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15113,10 +15113,10 @@
   <dimension ref="B1:DV109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BF47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BF42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BO78" sqref="BO78"/>
+      <selection pane="bottomRight" activeCell="BP58" sqref="BP58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/MDT_Model.xlsx
+++ b/MDT_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A6FB2-32C2-4B23-AFDE-351013DDE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E96A87-0B3F-48DC-B109-EABD29C865FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14780,8 +14780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15113,10 +15113,10 @@
   <dimension ref="B1:DV109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BF42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BD48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BP58" sqref="BP58"/>
+      <selection pane="bottomRight" activeCell="BM76" sqref="BM76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21111,23 +21111,23 @@
       </c>
       <c r="BK52" s="68">
         <f>-BJ70*($BM$73)</f>
-        <v>-64.2</v>
+        <v>-92.447999999999993</v>
       </c>
       <c r="BL52" s="68">
         <f t="shared" ref="BL52:BO52" si="66">-BK70*($BM$73)</f>
-        <v>-253.49806175374994</v>
+        <v>-366.60327804539986</v>
       </c>
       <c r="BM52" s="68">
         <f t="shared" si="66"/>
-        <v>-461.40633444334446</v>
+        <v>-672.26174390962501</v>
       </c>
       <c r="BN52" s="68">
         <f t="shared" si="66"/>
-        <v>-691.24483763516298</v>
+        <v>-1014.9190124066542</v>
       </c>
       <c r="BO52" s="68">
         <f t="shared" si="66"/>
-        <v>-942.04881638909399</v>
+        <v>-1394.0212380616463</v>
       </c>
     </row>
     <row r="53" spans="2:123">
@@ -21498,23 +21498,23 @@
       </c>
       <c r="BK54" s="68">
         <f>BK51-SUM(BK52:BK53)</f>
-        <v>4957.5080974999983</v>
+        <v>4985.7560974999988</v>
       </c>
       <c r="BL54" s="68">
         <f t="shared" ref="BL54:BO54" si="70">BL51-SUM(BL52:BL53)</f>
-        <v>5444.1442257037543</v>
+        <v>5557.2494419954037</v>
       </c>
       <c r="BM54" s="68">
         <f t="shared" si="70"/>
-        <v>6017.2749504368448</v>
+        <v>6228.1303599031253</v>
       </c>
       <c r="BN54" s="68">
         <f t="shared" si="70"/>
-        <v>6565.6282531410652</v>
+        <v>6889.3024279125566</v>
       </c>
       <c r="BO54" s="68">
         <f t="shared" si="70"/>
-        <v>6841.4361108414896</v>
+        <v>7293.4085325140422</v>
       </c>
     </row>
     <row r="55" spans="2:123">
@@ -21672,23 +21672,23 @@
       </c>
       <c r="BK55" s="68">
         <f>BK54*(BK66)</f>
-        <v>1140.2268624249996</v>
+        <v>1146.7239024249998</v>
       </c>
       <c r="BL55" s="68">
         <f t="shared" ref="BL55:BO55" si="71">BL54*(BL66)</f>
-        <v>1252.1531719118636</v>
+        <v>1278.167371658943</v>
       </c>
       <c r="BM55" s="68">
         <f t="shared" si="71"/>
-        <v>1383.9732386004744</v>
+        <v>1432.4699827777188</v>
       </c>
       <c r="BN55" s="68">
         <f t="shared" si="71"/>
-        <v>1510.0944982224451</v>
+        <v>1584.5395584198882</v>
       </c>
       <c r="BO55" s="68">
         <f t="shared" si="71"/>
-        <v>1573.5303054935428</v>
+        <v>1677.4839624782298</v>
       </c>
     </row>
     <row r="56" spans="2:123">
@@ -21885,23 +21885,23 @@
       </c>
       <c r="BK56" s="68">
         <f>BK54-BK55</f>
-        <v>3817.2812350749987</v>
+        <v>3839.032195074999</v>
       </c>
       <c r="BL56" s="68">
         <f t="shared" ref="BL56:BO56" si="74">BL54-BL55</f>
-        <v>4191.9910537918904</v>
+        <v>4279.0820703364607</v>
       </c>
       <c r="BM56" s="68">
         <f t="shared" si="74"/>
-        <v>4633.3017118363705</v>
+        <v>4795.6603771254067</v>
       </c>
       <c r="BN56" s="68">
         <f t="shared" si="74"/>
-        <v>5055.5337549186206</v>
+        <v>5304.762869492668</v>
       </c>
       <c r="BO56" s="68">
         <f t="shared" si="74"/>
-        <v>5267.9058053479466</v>
+        <v>5615.9245700358124</v>
       </c>
     </row>
     <row r="57" spans="2:123">
@@ -22299,247 +22299,247 @@
       </c>
       <c r="BK58" s="66">
         <f>BK56+BK57</f>
-        <v>3785.9612350749985</v>
+        <v>3807.7121950749988</v>
       </c>
       <c r="BL58" s="66">
         <f t="shared" ref="BL58:BO58" si="101">BL56+BL57</f>
-        <v>4158.1654537918903</v>
+        <v>4245.2564703364606</v>
       </c>
       <c r="BM58" s="66">
         <f t="shared" si="101"/>
-        <v>4596.7700638363704</v>
+        <v>4759.1287291254066</v>
       </c>
       <c r="BN58" s="66">
         <f t="shared" si="101"/>
-        <v>5016.079575078621</v>
+        <v>5265.3086896526684</v>
       </c>
       <c r="BO58" s="66">
         <f t="shared" si="101"/>
-        <v>5225.2952911207467</v>
+        <v>5573.3140558086125</v>
       </c>
       <c r="BP58" s="66">
         <f>BO58*(1+$BM$74)</f>
-        <v>5368.990911626568</v>
+        <v>5698.713622064306</v>
       </c>
       <c r="BQ58" s="66">
         <f t="shared" ref="BQ58:DS58" si="102">BP58*(1+$BM$74)</f>
-        <v>5516.638161696299</v>
+        <v>5826.9346785607531</v>
       </c>
       <c r="BR58" s="66">
         <f t="shared" si="102"/>
-        <v>5668.3457111429479</v>
+        <v>5958.04070882837</v>
       </c>
       <c r="BS58" s="66">
         <f t="shared" si="102"/>
-        <v>5824.2252181993799</v>
+        <v>6092.0966247770084</v>
       </c>
       <c r="BT58" s="66">
         <f t="shared" si="102"/>
-        <v>5984.3914116998631</v>
+        <v>6229.1687988344911</v>
       </c>
       <c r="BU58" s="66">
         <f t="shared" si="102"/>
-        <v>6148.9621755216094</v>
+        <v>6369.3250968082666</v>
       </c>
       <c r="BV58" s="66">
         <f t="shared" si="102"/>
-        <v>6318.0586353484541</v>
+        <v>6512.6349114864524</v>
       </c>
       <c r="BW58" s="66">
         <f t="shared" si="102"/>
-        <v>6491.8052478205373</v>
+        <v>6659.169196994897</v>
       </c>
       <c r="BX58" s="66">
         <f t="shared" si="102"/>
-        <v>6670.3298921356027</v>
+        <v>6809.0005039272819</v>
       </c>
       <c r="BY58" s="66">
         <f t="shared" si="102"/>
-        <v>6853.7639641693322</v>
+        <v>6962.2030152656453</v>
       </c>
       <c r="BZ58" s="66">
         <f t="shared" si="102"/>
-        <v>7042.2424731839892</v>
+        <v>7118.852583109122</v>
       </c>
       <c r="CA58" s="66">
         <f t="shared" si="102"/>
-        <v>7235.9041411965491</v>
+        <v>7279.0267662290771</v>
       </c>
       <c r="CB58" s="66">
         <f t="shared" si="102"/>
-        <v>7434.8915050794549</v>
+        <v>7442.8048684692312</v>
       </c>
       <c r="CC58" s="66">
         <f t="shared" si="102"/>
-        <v>7639.3510214691405</v>
+        <v>7610.2679780097887</v>
       </c>
       <c r="CD58" s="66">
         <f t="shared" si="102"/>
-        <v>7849.4331745595427</v>
+        <v>7781.499007515009</v>
       </c>
       <c r="CE58" s="66">
         <f t="shared" si="102"/>
-        <v>8065.2925868599305</v>
+        <v>7956.5827351840962</v>
       </c>
       <c r="CF58" s="66">
         <f t="shared" si="102"/>
-        <v>8287.0881329985787</v>
+        <v>8135.605846725738</v>
       </c>
       <c r="CG58" s="66">
         <f t="shared" si="102"/>
-        <v>8514.9830566560395</v>
+        <v>8318.6569782770675</v>
       </c>
       <c r="CH58" s="66">
         <f t="shared" si="102"/>
-        <v>8749.1450907140807</v>
+        <v>8505.8267602883006</v>
       </c>
       <c r="CI58" s="66">
         <f t="shared" si="102"/>
-        <v>8989.7465807087192</v>
+        <v>8697.2078623947873</v>
       </c>
       <c r="CJ58" s="66">
         <f t="shared" si="102"/>
-        <v>9236.9646116782096</v>
+        <v>8892.8950392986699</v>
       </c>
       <c r="CK58" s="66">
         <f t="shared" si="102"/>
-        <v>9490.9811384993609</v>
+        <v>9092.9851776828891</v>
       </c>
       <c r="CL58" s="66">
         <f t="shared" si="102"/>
-        <v>9751.9831198080938</v>
+        <v>9297.5773441807542</v>
       </c>
       <c r="CM58" s="66">
         <f t="shared" si="102"/>
-        <v>10020.162655602817</v>
+        <v>9506.7728344248208</v>
       </c>
       <c r="CN58" s="66">
         <f t="shared" si="102"/>
-        <v>10295.717128631895</v>
+        <v>9720.6752231993796</v>
       </c>
       <c r="CO58" s="66">
         <f t="shared" si="102"/>
-        <v>10578.849349669274</v>
+        <v>9939.3904157213656</v>
       </c>
       <c r="CP58" s="66">
         <f t="shared" si="102"/>
-        <v>10869.76770678518</v>
+        <v>10163.026700075096</v>
       </c>
       <c r="CQ58" s="66">
         <f t="shared" si="102"/>
-        <v>11168.686318721773</v>
+        <v>10391.694800826785</v>
       </c>
       <c r="CR58" s="66">
         <f t="shared" si="102"/>
-        <v>11475.825192486624</v>
+        <v>10625.507933845387</v>
       </c>
       <c r="CS58" s="66">
         <f t="shared" si="102"/>
-        <v>11791.410385280007</v>
+        <v>10864.581862356908</v>
       </c>
       <c r="CT58" s="66">
         <f t="shared" si="102"/>
-        <v>12115.674170875209</v>
+        <v>11109.034954259938</v>
       </c>
       <c r="CU58" s="66">
         <f t="shared" si="102"/>
-        <v>12448.855210574278</v>
+        <v>11358.988240730787</v>
       </c>
       <c r="CV58" s="66">
         <f t="shared" si="102"/>
-        <v>12791.198728865073</v>
+        <v>11614.565476147229</v>
       </c>
       <c r="CW58" s="66">
         <f t="shared" si="102"/>
-        <v>13142.956693908864</v>
+        <v>11875.89319936054</v>
       </c>
       <c r="CX58" s="66">
         <f t="shared" si="102"/>
-        <v>13504.388002991358</v>
+        <v>12143.100796346152</v>
       </c>
       <c r="CY58" s="66">
         <f t="shared" si="102"/>
-        <v>13875.758673073622</v>
+        <v>12416.32056426394</v>
       </c>
       <c r="CZ58" s="66">
         <f t="shared" si="102"/>
-        <v>14257.342036583148</v>
+        <v>12695.68777695988</v>
       </c>
       <c r="DA58" s="66">
         <f t="shared" si="102"/>
-        <v>14649.418942589185</v>
+        <v>12981.340751941476</v>
       </c>
       <c r="DB58" s="66">
         <f t="shared" si="102"/>
-        <v>15052.277963510389</v>
+        <v>13273.420918860158</v>
       </c>
       <c r="DC58" s="66">
         <f t="shared" si="102"/>
-        <v>15466.215607506925</v>
+        <v>13572.072889534511</v>
       </c>
       <c r="DD58" s="66">
         <f t="shared" si="102"/>
-        <v>15891.536536713367</v>
+        <v>13877.444529549037</v>
       </c>
       <c r="DE58" s="66">
         <f t="shared" si="102"/>
-        <v>16328.553791472987</v>
+        <v>14189.687031463889</v>
       </c>
       <c r="DF58" s="66">
         <f t="shared" si="102"/>
-        <v>16777.589020738495</v>
+        <v>14508.954989671825</v>
       </c>
       <c r="DG58" s="66">
         <f t="shared" si="102"/>
-        <v>17238.972718808804</v>
+        <v>14835.406476939441</v>
       </c>
       <c r="DH58" s="66">
         <f t="shared" si="102"/>
-        <v>17713.044468576049</v>
+        <v>15169.203122670579</v>
       </c>
       <c r="DI58" s="66">
         <f t="shared" si="102"/>
-        <v>18200.15319146189</v>
+        <v>15510.510192930666</v>
       </c>
       <c r="DJ58" s="66">
         <f t="shared" si="102"/>
-        <v>18700.657404227095</v>
+        <v>15859.496672271605</v>
       </c>
       <c r="DK58" s="66">
         <f t="shared" si="102"/>
-        <v>19214.92548284334</v>
+        <v>16216.335347397717</v>
       </c>
       <c r="DL58" s="66">
         <f t="shared" si="102"/>
-        <v>19743.335933621533</v>
+        <v>16581.202892714166</v>
       </c>
       <c r="DM58" s="66">
         <f t="shared" si="102"/>
-        <v>20286.277671796128</v>
+        <v>16954.279957800234</v>
       </c>
       <c r="DN58" s="66">
         <f t="shared" si="102"/>
-        <v>20844.150307770524</v>
+        <v>17335.751256850737</v>
       </c>
       <c r="DO58" s="66">
         <f t="shared" si="102"/>
-        <v>21417.364441234215</v>
+        <v>17725.805660129878</v>
       </c>
       <c r="DP58" s="66">
         <f t="shared" si="102"/>
-        <v>22006.341963368159</v>
+        <v>18124.636287482801</v>
       </c>
       <c r="DQ58" s="66">
         <f t="shared" si="102"/>
-        <v>22611.516367360786</v>
+        <v>18532.440603951163</v>
       </c>
       <c r="DR58" s="66">
         <f t="shared" si="102"/>
-        <v>23233.333067463209</v>
+        <v>18949.420517540064</v>
       </c>
       <c r="DS58" s="66">
         <f t="shared" si="102"/>
-        <v>23872.249726818449</v>
+        <v>19375.782479184716</v>
       </c>
     </row>
     <row r="59" spans="2:123">
@@ -22928,23 +22928,23 @@
       </c>
       <c r="BK60" s="67">
         <f>BK58/BK59</f>
-        <v>2.8508744240022579</v>
+        <v>2.8672531589420172</v>
       </c>
       <c r="BL60" s="67">
         <f t="shared" ref="BL60:BO60" si="123">BL58/BL59</f>
-        <v>3.1311486850842547</v>
+        <v>3.196729269831672</v>
       </c>
       <c r="BM60" s="67">
         <f t="shared" si="123"/>
-        <v>3.4614232408406402</v>
+        <v>3.5836812719317819</v>
       </c>
       <c r="BN60" s="67">
         <f t="shared" si="123"/>
-        <v>3.7771683547278774</v>
+        <v>3.9648408807625515</v>
       </c>
       <c r="BO60" s="67">
         <f t="shared" si="123"/>
-        <v>3.9347103095788754</v>
+        <v>4.1967726323860033</v>
       </c>
     </row>
     <row r="62" spans="2:123">
@@ -24186,23 +24186,23 @@
       </c>
       <c r="BK67" s="65">
         <f>BK58/BK43</f>
-        <v>0.11303614768132821</v>
+        <v>0.11368555864306563</v>
       </c>
       <c r="BL67" s="65">
         <f t="shared" ref="BL67:BO67" si="133">BL58/BL43</f>
-        <v>0.11863114158905114</v>
+        <v>0.12111582066919974</v>
       </c>
       <c r="BM67" s="65">
         <f t="shared" si="133"/>
-        <v>0.12439229933707958</v>
+        <v>0.12878585555419156</v>
       </c>
       <c r="BN67" s="65">
         <f t="shared" si="133"/>
-        <v>0.12952913006305675</v>
+        <v>0.1359649191915927</v>
       </c>
       <c r="BO67" s="65">
         <f t="shared" si="133"/>
-        <v>0.13284384110748929</v>
+        <v>0.14169159934943609</v>
       </c>
     </row>
     <row r="68" spans="2:67">
@@ -24370,36 +24370,36 @@
       </c>
       <c r="BG68" s="46"/>
       <c r="BH68" s="46">
-        <f>BH60/BG60-1</f>
+        <f t="shared" ref="BH68:BO68" si="135">BH60/BG60-1</f>
         <v>0.39687275032276381</v>
       </c>
       <c r="BI68" s="46">
-        <f>BI60/BH60-1</f>
+        <f t="shared" si="135"/>
         <v>-0.24715073233411655</v>
       </c>
       <c r="BJ68" s="46">
-        <f>BJ60/BI60-1</f>
+        <f t="shared" si="135"/>
         <v>-2.0272946974249861E-2</v>
       </c>
       <c r="BK68" s="65">
-        <f>BK60/BJ60-1</f>
-        <v>2.9680623707235565E-2</v>
+        <f t="shared" si="135"/>
+        <v>3.5596305529737693E-2</v>
       </c>
       <c r="BL68" s="65">
-        <f>BL60/BK60-1</f>
-        <v>9.8311682451634574E-2</v>
+        <f t="shared" si="135"/>
+        <v>0.11491001757627428</v>
       </c>
       <c r="BM68" s="65">
-        <f>BM60/BL60-1</f>
-        <v>0.10548031696153659</v>
+        <f t="shared" si="135"/>
+        <v>0.12104622238482055</v>
       </c>
       <c r="BN68" s="65">
-        <f>BN60/BM60-1</f>
-        <v>9.1218291413145858E-2</v>
+        <f t="shared" si="135"/>
+        <v>0.10635979594951683</v>
       </c>
       <c r="BO68" s="65">
-        <f>BO60/BN60-1</f>
-        <v>4.170901057502574E-2</v>
+        <f t="shared" si="135"/>
+        <v>5.8497114663235816E-2</v>
       </c>
     </row>
     <row r="70" spans="2:67">
@@ -24455,40 +24455,40 @@
         <v>1240</v>
       </c>
       <c r="BG70" s="1">
-        <f t="shared" ref="BG70:BG80" si="135">AD70</f>
+        <f t="shared" ref="BG70:BG80" si="136">AD70</f>
         <v>3593</v>
       </c>
       <c r="BH70" s="1">
-        <f t="shared" ref="BH70:BH80" si="136">AH70</f>
+        <f t="shared" ref="BH70:BH80" si="137">AH70</f>
         <v>3714</v>
       </c>
       <c r="BI70" s="1">
-        <f t="shared" ref="BI70:BI80" si="137">AL70</f>
+        <f t="shared" ref="BI70:BI80" si="138">AL70</f>
         <v>1543</v>
       </c>
       <c r="BJ70" s="1">
-        <f t="shared" ref="BJ70:BJ80" si="138">AP70</f>
+        <f t="shared" ref="BJ70:BJ80" si="139">AP70</f>
         <v>1284</v>
       </c>
       <c r="BK70" s="68">
         <f>BJ70+BK58</f>
-        <v>5069.9612350749985</v>
+        <v>5091.7121950749988</v>
       </c>
       <c r="BL70" s="68">
-        <f t="shared" ref="BL70:BO70" si="139">BK70+BL58</f>
-        <v>9228.1266888668888</v>
+        <f t="shared" ref="BL70:BO70" si="140">BK70+BL58</f>
+        <v>9336.9686654114594</v>
       </c>
       <c r="BM70" s="68">
-        <f t="shared" si="139"/>
-        <v>13824.896752703258</v>
+        <f t="shared" si="140"/>
+        <v>14096.097394536866</v>
       </c>
       <c r="BN70" s="68">
-        <f t="shared" si="139"/>
-        <v>18840.976327781878</v>
+        <f t="shared" si="140"/>
+        <v>19361.406084189533</v>
       </c>
       <c r="BO70" s="68">
-        <f t="shared" si="139"/>
-        <v>24066.271618902625</v>
+        <f t="shared" si="140"/>
+        <v>24934.720139998146</v>
       </c>
     </row>
     <row r="71" spans="2:67">
@@ -24544,19 +24544,19 @@
         <v>6682</v>
       </c>
       <c r="BG71" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>7224</v>
       </c>
       <c r="BH71" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>6859</v>
       </c>
       <c r="BI71" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>6416</v>
       </c>
       <c r="BJ71" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6721</v>
       </c>
     </row>
@@ -24613,19 +24613,19 @@
         <v>6115</v>
       </c>
       <c r="BG72" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>5462</v>
       </c>
       <c r="BH72" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>5551</v>
       </c>
       <c r="BI72" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>5998</v>
       </c>
       <c r="BJ72" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6128</v>
       </c>
     </row>
@@ -24682,26 +24682,26 @@
         <v>5610</v>
       </c>
       <c r="BG73" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4313</v>
       </c>
       <c r="BH73" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>4616</v>
       </c>
       <c r="BI73" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>5293</v>
       </c>
       <c r="BJ73" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>5217</v>
       </c>
       <c r="BL73" s="64" t="s">
         <v>2282</v>
       </c>
       <c r="BM73" s="65">
-        <v>0.05</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="BO73" s="62" t="s">
         <v>2293</v>
@@ -24760,26 +24760,26 @@
         <v>2865</v>
       </c>
       <c r="BG74" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1955</v>
       </c>
       <c r="BH74" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>2318</v>
       </c>
       <c r="BI74" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2425</v>
       </c>
       <c r="BJ74" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>2584</v>
       </c>
       <c r="BL74" s="64" t="s">
         <v>2283</v>
       </c>
       <c r="BM74" s="70">
-        <v>2.75E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="2:67" ht="15" customHeight="1">
@@ -24836,19 +24836,19 @@
         <v>6593</v>
       </c>
       <c r="BG75" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>5221</v>
       </c>
       <c r="BH75" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>5413</v>
       </c>
       <c r="BI75" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>5569</v>
       </c>
       <c r="BJ75" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6131</v>
       </c>
       <c r="BL75" s="64" t="s">
@@ -24911,27 +24911,27 @@
         <v>40819</v>
       </c>
       <c r="BG76" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>41961</v>
       </c>
       <c r="BH76" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>40502</v>
       </c>
       <c r="BI76" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>41425</v>
       </c>
       <c r="BJ76" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>40986</v>
       </c>
       <c r="BL76" s="64" t="s">
         <v>2285</v>
       </c>
       <c r="BM76" s="70">
-        <f>7.5%-BM75</f>
-        <v>3.1199999999999999E-2</v>
+        <f>7.25%-BM75</f>
+        <v>2.8699999999999996E-2</v>
       </c>
     </row>
     <row r="77" spans="2:67" ht="15" customHeight="1">
@@ -24987,19 +24987,19 @@
         <v>12184</v>
       </c>
       <c r="BG77" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>17740</v>
       </c>
       <c r="BH77" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>15595</v>
       </c>
       <c r="BI77" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>14844</v>
       </c>
       <c r="BJ77" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>13225</v>
       </c>
       <c r="BL77" s="64" t="s">
@@ -25062,19 +25062,19 @@
         <v>3614</v>
       </c>
       <c r="BG78" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>3169</v>
       </c>
       <c r="BH78" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>3403</v>
       </c>
       <c r="BI78" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3477</v>
       </c>
       <c r="BJ78" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>3657</v>
       </c>
       <c r="BL78" s="64" t="s">
@@ -25082,7 +25082,7 @@
       </c>
       <c r="BM78" s="69">
         <f>+BM75+(BM76*BM77)</f>
-        <v>6.9695999999999994E-2</v>
+        <v>6.7620999999999987E-2</v>
       </c>
     </row>
     <row r="79" spans="2:67" ht="15" customHeight="1">
@@ -25138,19 +25138,19 @@
         <v>4251</v>
       </c>
       <c r="BG79" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2446</v>
       </c>
       <c r="BH79" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>3010</v>
       </c>
       <c r="BI79" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3958</v>
       </c>
       <c r="BJ79" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>4048</v>
       </c>
       <c r="BL79" s="64"/>
@@ -25160,63 +25160,63 @@
         <v>2276</v>
       </c>
       <c r="AD80" s="1">
-        <f t="shared" ref="AD80:AR80" si="140">SUM(AD70:AD79)</f>
+        <f t="shared" ref="AD80:AR80" si="141">SUM(AD70:AD79)</f>
         <v>93084</v>
       </c>
       <c r="AE80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>91802</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>91756</v>
       </c>
       <c r="AG80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>91804</v>
       </c>
       <c r="AH80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>90981</v>
       </c>
       <c r="AI80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>89914</v>
       </c>
       <c r="AJ80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>93241</v>
       </c>
       <c r="AK80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>94134</v>
       </c>
       <c r="AL80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>90948</v>
       </c>
       <c r="AM80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>90776</v>
       </c>
       <c r="AN80" s="1">
-        <f t="shared" ref="AN80" si="141">SUM(AN70:AN79)</f>
+        <f t="shared" ref="AN80" si="142">SUM(AN70:AN79)</f>
         <v>90087</v>
       </c>
       <c r="AO80" s="1">
-        <f t="shared" ref="AO80" si="142">SUM(AO70:AO79)</f>
+        <f t="shared" ref="AO80" si="143">SUM(AO70:AO79)</f>
         <v>90836</v>
       </c>
       <c r="AP80" s="1">
-        <f t="shared" ref="AP80" si="143">SUM(AP70:AP79)</f>
+        <f t="shared" ref="AP80" si="144">SUM(AP70:AP79)</f>
         <v>89981</v>
       </c>
       <c r="AQ80" s="1">
-        <f t="shared" ref="AQ80" si="144">SUM(AQ70:AQ79)</f>
+        <f t="shared" ref="AQ80" si="145">SUM(AQ70:AQ79)</f>
         <v>89749</v>
       </c>
       <c r="AR80" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>90042</v>
       </c>
       <c r="AS80" s="1">
@@ -25224,19 +25224,19 @@
         <v>89973</v>
       </c>
       <c r="BG80" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>93084</v>
       </c>
       <c r="BH80" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>90981</v>
       </c>
       <c r="BI80" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>90948</v>
       </c>
       <c r="BJ80" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>89981</v>
       </c>
       <c r="BL80" s="64" t="s">
@@ -25244,7 +25244,7 @@
       </c>
       <c r="BM80" s="68">
         <f>NPV(BM78,BK58:DS58)</f>
-        <v>99800.209268189748</v>
+        <v>102218.27544540638</v>
       </c>
     </row>
     <row r="81" spans="2:66" ht="15" customHeight="1">
@@ -25309,19 +25309,19 @@
         <v>2622</v>
       </c>
       <c r="BG82" s="1">
-        <f t="shared" ref="BG82:BG94" si="145">AD82</f>
+        <f t="shared" ref="BG82:BG94" si="146">AD82</f>
         <v>11</v>
       </c>
       <c r="BH82" s="1">
-        <f t="shared" ref="BH82:BH94" si="146">AH82</f>
+        <f t="shared" ref="BH82:BH94" si="147">AH82</f>
         <v>3742</v>
       </c>
       <c r="BI82" s="1">
-        <f t="shared" ref="BI82:BI94" si="147">AL82</f>
+        <f t="shared" ref="BI82:BI94" si="148">AL82</f>
         <v>20</v>
       </c>
       <c r="BJ82" s="1">
-        <f t="shared" ref="BJ82:BJ94" si="148">AP82</f>
+        <f t="shared" ref="BJ82:BJ94" si="149">AP82</f>
         <v>1092</v>
       </c>
       <c r="BL82" s="64" t="s">
@@ -25329,7 +25329,7 @@
       </c>
       <c r="BM82" s="67">
         <f>BM80/BM81</f>
-        <v>77.814318325537428</v>
+        <v>79.699686829530393</v>
       </c>
     </row>
     <row r="83" spans="2:66" ht="15" customHeight="1">
@@ -25385,19 +25385,19 @@
         <v>2286</v>
       </c>
       <c r="BG83" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2106</v>
       </c>
       <c r="BH83" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>2276</v>
       </c>
       <c r="BI83" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2662</v>
       </c>
       <c r="BJ83" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>2410</v>
       </c>
       <c r="BL83" s="64" t="s">
@@ -25460,19 +25460,19 @@
         <v>2281</v>
       </c>
       <c r="BG84" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2482</v>
       </c>
       <c r="BH84" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>2121</v>
       </c>
       <c r="BI84" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1949</v>
       </c>
       <c r="BJ84" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>2375</v>
       </c>
       <c r="BL84" s="64" t="s">
@@ -25480,7 +25480,7 @@
       </c>
       <c r="BM84" s="70">
         <f>BM82/BM83-1</f>
-        <v>-9.3706984328704501E-2</v>
+        <v>-7.1748348130323825E-2</v>
       </c>
       <c r="BN84" s="71" t="str">
         <f>IF(BM84&gt;0,"Upside","Downside")</f>
@@ -25540,19 +25540,19 @@
         <v>1125</v>
       </c>
       <c r="BG85" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>435</v>
       </c>
       <c r="BH85" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>704</v>
       </c>
       <c r="BI85" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>840</v>
       </c>
       <c r="BJ85" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1330</v>
       </c>
     </row>
@@ -25609,19 +25609,19 @@
         <v>3226</v>
       </c>
       <c r="BG86" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>3475</v>
       </c>
       <c r="BH86" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>3551</v>
       </c>
       <c r="BI86" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>3581</v>
       </c>
       <c r="BJ86" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>3582</v>
       </c>
     </row>
@@ -25678,19 +25678,19 @@
         <v>23985</v>
       </c>
       <c r="BG87" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>26378</v>
       </c>
       <c r="BH87" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>20372</v>
       </c>
       <c r="BI87" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>24344</v>
       </c>
       <c r="BJ87" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>23932</v>
       </c>
     </row>
@@ -25747,19 +25747,19 @@
         <v>1063</v>
       </c>
       <c r="BG88" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1557</v>
       </c>
       <c r="BH88" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1113</v>
       </c>
       <c r="BI88" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1093</v>
       </c>
       <c r="BJ88" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1101</v>
       </c>
     </row>
@@ -25816,19 +25816,19 @@
         <v>1485</v>
       </c>
       <c r="BG89" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>2251</v>
       </c>
       <c r="BH89" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>2087</v>
       </c>
       <c r="BI89" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2360</v>
       </c>
       <c r="BJ89" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1859</v>
       </c>
     </row>
@@ -25885,19 +25885,19 @@
         <v>452</v>
       </c>
       <c r="BG90" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1028</v>
       </c>
       <c r="BH90" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>884</v>
       </c>
       <c r="BI90" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>708</v>
       </c>
       <c r="BJ90" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>515</v>
       </c>
     </row>
@@ -25954,19 +25954,19 @@
         <v>1533</v>
       </c>
       <c r="BG91" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1756</v>
       </c>
       <c r="BH91" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1410</v>
       </c>
       <c r="BI91" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1727</v>
       </c>
       <c r="BJ91" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1365</v>
       </c>
     </row>
@@ -25975,63 +25975,63 @@
         <v>2277</v>
       </c>
       <c r="AD92" s="1">
-        <f t="shared" ref="AD92:AR92" si="149">SUM(AD82:AD91)</f>
+        <f t="shared" ref="AD92:AR92" si="150">SUM(AD82:AD91)</f>
         <v>41479</v>
       </c>
       <c r="AE92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>40138</v>
       </c>
       <c r="AF92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>39596</v>
       </c>
       <c r="AG92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>39092</v>
       </c>
       <c r="AH92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>38260</v>
       </c>
       <c r="AI92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>37071</v>
       </c>
       <c r="AJ92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>41186</v>
       </c>
       <c r="AK92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>42516</v>
       </c>
       <c r="AL92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>39284</v>
       </c>
       <c r="AM92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>39411</v>
       </c>
       <c r="AN92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>38440</v>
       </c>
       <c r="AO92" s="1">
-        <f t="shared" ref="AO92" si="150">SUM(AO82:AO91)</f>
+        <f t="shared" ref="AO92" si="151">SUM(AO82:AO91)</f>
         <v>38840</v>
       </c>
       <c r="AP92" s="1">
-        <f t="shared" ref="AP92" si="151">SUM(AP82:AP91)</f>
+        <f t="shared" ref="AP92" si="152">SUM(AP82:AP91)</f>
         <v>39561</v>
       </c>
       <c r="AQ92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>41589</v>
       </c>
       <c r="AR92" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>41325</v>
       </c>
       <c r="AS92" s="1">
@@ -26039,19 +26039,19 @@
         <v>40058</v>
       </c>
       <c r="BG92" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>41479</v>
       </c>
       <c r="BH92" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>38260</v>
       </c>
       <c r="BI92" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>39284</v>
       </c>
       <c r="BJ92" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>39561</v>
       </c>
     </row>
@@ -26108,19 +26108,19 @@
         <v>49615</v>
       </c>
       <c r="BG93" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>51605</v>
       </c>
       <c r="BH93" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>52721</v>
       </c>
       <c r="BI93" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>51664</v>
       </c>
       <c r="BJ93" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>50420</v>
       </c>
     </row>
@@ -26129,63 +26129,63 @@
         <v>2278</v>
       </c>
       <c r="AD94" s="1">
-        <f t="shared" ref="AD94:AR94" si="152">AD92+AD93</f>
+        <f t="shared" ref="AD94:AR94" si="153">AD92+AD93</f>
         <v>93084</v>
       </c>
       <c r="AE94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>91802</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>91756</v>
       </c>
       <c r="AG94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>91804</v>
       </c>
       <c r="AH94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>90981</v>
       </c>
       <c r="AI94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>89914</v>
       </c>
       <c r="AJ94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>93241</v>
       </c>
       <c r="AK94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>94134</v>
       </c>
       <c r="AL94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>90948</v>
       </c>
       <c r="AM94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>90776</v>
       </c>
       <c r="AN94" s="1">
-        <f t="shared" ref="AN94" si="153">AN92+AN93</f>
+        <f t="shared" ref="AN94" si="154">AN92+AN93</f>
         <v>90087</v>
       </c>
       <c r="AO94" s="1">
-        <f t="shared" ref="AO94" si="154">AO92+AO93</f>
+        <f t="shared" ref="AO94" si="155">AO92+AO93</f>
         <v>90836</v>
       </c>
       <c r="AP94" s="1">
-        <f t="shared" ref="AP94" si="155">AP92+AP93</f>
+        <f t="shared" ref="AP94" si="156">AP92+AP93</f>
         <v>89981</v>
       </c>
       <c r="AQ94" s="1">
-        <f t="shared" ref="AQ94" si="156">AQ92+AQ93</f>
+        <f t="shared" ref="AQ94" si="157">AQ92+AQ93</f>
         <v>89749</v>
       </c>
       <c r="AR94" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>90042</v>
       </c>
       <c r="AS94" s="1">
@@ -26193,19 +26193,19 @@
         <v>89673</v>
       </c>
       <c r="BG94" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>93084</v>
       </c>
       <c r="BH94" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>90981</v>
       </c>
       <c r="BI94" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>90948</v>
       </c>
       <c r="BJ94" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>89981</v>
       </c>
     </row>
@@ -26214,63 +26214,63 @@
         <v>110</v>
       </c>
       <c r="AD96" s="41">
-        <f t="shared" ref="AD96:AR96" si="157">SUM(AD70:AD75)/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD96:AR96" si="158">SUM(AD70:AD75)/SUM(AD82:AD86)</f>
         <v>3.2633681983781879</v>
       </c>
       <c r="AE96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.5543534260690364</v>
       </c>
       <c r="AF96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.5779828271177752</v>
       </c>
       <c r="AG96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.198610955528173</v>
       </c>
       <c r="AH96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.2971599160884297</v>
       </c>
       <c r="AI96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.9517334662205452</v>
       </c>
       <c r="AJ96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1220877981334256</v>
       </c>
       <c r="AK96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1358435614728521</v>
       </c>
       <c r="AL96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.009721608484313</v>
       </c>
       <c r="AM96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.0433292804244503</v>
       </c>
       <c r="AN96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.8799958583557674</v>
       </c>
       <c r="AO96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.8954248366013071</v>
       </c>
       <c r="AP96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.6012605431457967</v>
       </c>
       <c r="AQ96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.7441430932244582</v>
       </c>
       <c r="AR96" s="41">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.3678556785567855</v>
       </c>
       <c r="AS96" s="41">
@@ -26280,11 +26280,11 @@
       <c r="BE96" s="41"/>
       <c r="BF96" s="41"/>
       <c r="BG96" s="41">
-        <f t="shared" ref="BG96:BH96" si="158">SUM(BG70:BG75)/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG96:BH96" si="159">SUM(BG70:BG75)/SUM(BG82:BG86)</f>
         <v>3.2633681983781879</v>
       </c>
       <c r="BH96" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>2.2971599160884297</v>
       </c>
       <c r="BI96" s="41">
@@ -26301,63 +26301,63 @@
         <v>111</v>
       </c>
       <c r="AD97" s="41">
-        <f t="shared" ref="AD97:AR97" si="159">(SUM(AD70:AD74)-AD73)/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD97:AR97" si="160">(SUM(AD70:AD74)-AD73)/SUM(AD82:AD86)</f>
         <v>2.1429075096956165</v>
       </c>
       <c r="AE97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2.3371973209685728</v>
       </c>
       <c r="AF97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2.3557606048955528</v>
       </c>
       <c r="AG97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2.1047384339643775</v>
       </c>
       <c r="AH97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.4879780538970468</v>
       </c>
       <c r="AI97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.2334306257563892</v>
       </c>
       <c r="AJ97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.4063601797442102</v>
       </c>
       <c r="AK97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3861035989182442</v>
       </c>
       <c r="AL97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.8097657976137871</v>
       </c>
       <c r="AM97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.7906488338675803</v>
       </c>
       <c r="AN97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.6904120936011597</v>
       </c>
       <c r="AO97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.7144607843137254</v>
       </c>
       <c r="AP97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.5494485123737141</v>
       </c>
       <c r="AQ97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.6071741032370954</v>
       </c>
       <c r="AR97" s="41">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3906519065190652</v>
       </c>
       <c r="AS97" s="41">
@@ -26367,11 +26367,11 @@
       <c r="BE97" s="41"/>
       <c r="BF97" s="41"/>
       <c r="BG97" s="41">
-        <f t="shared" ref="BG97:BH97" si="160">(SUM(BG70:BG74)-BG73)/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG97:BH97" si="161">(SUM(BG70:BG74)-BG73)/SUM(BG82:BG86)</f>
         <v>2.1429075096956165</v>
       </c>
       <c r="BH97" s="41">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.4879780538970468</v>
       </c>
       <c r="BI97" s="41">
@@ -26388,63 +26388,63 @@
         <v>112</v>
       </c>
       <c r="AD98" s="41">
-        <f t="shared" ref="AD98:AR98" si="161">AD70/SUM(AD82:AD86)</f>
+        <f t="shared" ref="AD98:AR98" si="162">AD70/SUM(AD82:AD86)</f>
         <v>0.42225878481607709</v>
       </c>
       <c r="AE98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.38691396187532201</v>
       </c>
       <c r="AF98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.37165192874535435</v>
       </c>
       <c r="AG98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.38971659011986109</v>
       </c>
       <c r="AH98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.29966112635146036</v>
       </c>
       <c r="AI98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.15234569659001923</v>
       </c>
       <c r="AJ98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.33377117179398547</v>
       </c>
       <c r="AK98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.31350114416475972</v>
       </c>
       <c r="AL98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.17045956694653117</v>
       </c>
       <c r="AM98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.14800486349065989</v>
       </c>
       <c r="AN98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.1357423897287223</v>
       </c>
       <c r="AO98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.16574754901960784</v>
       </c>
       <c r="AP98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.11901010288256558</v>
       </c>
       <c r="AQ98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.1274424030329542</v>
       </c>
       <c r="AR98" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.11430914309143092</v>
       </c>
       <c r="AS98" s="41">
@@ -26454,11 +26454,11 @@
       <c r="BE98" s="41"/>
       <c r="BF98" s="41"/>
       <c r="BG98" s="41">
-        <f t="shared" ref="BG98:BH98" si="162">BG70/SUM(BG82:BG86)</f>
+        <f t="shared" ref="BG98:BH98" si="163">BG70/SUM(BG82:BG86)</f>
         <v>0.42225878481607709</v>
       </c>
       <c r="BH98" s="41">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.29966112635146036</v>
       </c>
       <c r="BI98" s="41">
@@ -26475,67 +26475,67 @@
         <v>113</v>
       </c>
       <c r="AD99" s="41">
-        <f t="shared" ref="AD99:AS99" si="163">AD43/AD80</f>
+        <f t="shared" ref="AD99:AS99" si="164">AD43/AD80</f>
         <v>8.7963559795453575E-2</v>
       </c>
       <c r="AE99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.7002461820003915E-2</v>
       </c>
       <c r="AF99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.55202929508697E-2</v>
       </c>
       <c r="AG99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.4560585595398891E-2</v>
       </c>
       <c r="AH99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.8908673239467578E-2</v>
       </c>
       <c r="AI99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.1978334853304274E-2</v>
       </c>
       <c r="AJ99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.1348333887452939E-2</v>
       </c>
       <c r="AK99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.2085112711666353E-2</v>
       </c>
       <c r="AL99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.3943792056999598E-2</v>
       </c>
       <c r="AM99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.4846214858552926E-2</v>
       </c>
       <c r="AN99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.8625439852586946E-2</v>
       </c>
       <c r="AO99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.9050596679730504E-2</v>
       </c>
       <c r="AP99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.5453484624531848E-2</v>
       </c>
       <c r="AQ99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.8190397664597936E-2</v>
       </c>
       <c r="AR99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.3323115879256346E-2</v>
       </c>
       <c r="AS99" s="41">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.2160981627821686E-2</v>
       </c>
       <c r="BE99" s="41"/>
@@ -26562,67 +26562,67 @@
         <v>114</v>
       </c>
       <c r="AD100" s="41">
-        <f t="shared" ref="AD100:AS100" si="164">AD44/AVERAGE(AA73:AD73)</f>
+        <f t="shared" ref="AD100:AS100" si="165">AD44/AVERAGE(AA73:AD73)</f>
         <v>0.61488523069789014</v>
       </c>
       <c r="AE100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.60411580048831526</v>
       </c>
       <c r="AF100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.57845559845559846</v>
       </c>
       <c r="AG100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.56321575813101232</v>
       </c>
       <c r="AH100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.58332864298981257</v>
       </c>
       <c r="AI100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.55030621172353456</v>
       </c>
       <c r="AJ100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.53385279561966936</v>
       </c>
       <c r="AK100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.54172752455300932</v>
       </c>
       <c r="AL100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.58036236119228524</v>
       </c>
       <c r="AM100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.49142162591744193</v>
       </c>
       <c r="AN100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.49995473064735174</v>
       </c>
       <c r="AO100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.49587808029945191</v>
       </c>
       <c r="AP100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.54460093896713613</v>
       </c>
       <c r="AQ100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.49947989688390393</v>
       </c>
       <c r="AR100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.53965927825609084</v>
       </c>
       <c r="AS100" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.51178637200736643</v>
       </c>
       <c r="BE100" s="41"/>
@@ -26649,67 +26649,67 @@
         <v>115</v>
       </c>
       <c r="AD101" s="61">
-        <f t="shared" ref="AD101:AS101" si="165">AD58/AD80</f>
+        <f t="shared" ref="AD101:AS101" si="166">AD58/AD80</f>
         <v>1.4610459370031369E-2</v>
       </c>
       <c r="AE101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>8.3113657654517326E-3</v>
       </c>
       <c r="AF101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.4287893979685252E-2</v>
       </c>
       <c r="AG101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.612130190405647E-2</v>
       </c>
       <c r="AH101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.6322089227421111E-2</v>
       </c>
       <c r="AI101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.0332095113108081E-2</v>
       </c>
       <c r="AJ101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>4.5795304640662369E-3</v>
       </c>
       <c r="AK101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.2981494465336647E-2</v>
       </c>
       <c r="AL101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.2974446936711088E-2</v>
       </c>
       <c r="AM101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>8.7137569401603953E-3</v>
       </c>
       <c r="AN101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.0090246095441074E-2</v>
       </c>
       <c r="AO101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.4553701175745299E-2</v>
       </c>
       <c r="AP101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>7.2682010646692077E-3</v>
       </c>
       <c r="AQ101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.1621299401664642E-2</v>
       </c>
       <c r="AR101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.4104528997578908E-2</v>
       </c>
       <c r="AS101" s="61">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.4382092405499428E-2</v>
       </c>
       <c r="BE101" s="61"/>
@@ -26736,67 +26736,67 @@
         <v>116</v>
       </c>
       <c r="AD102" s="61">
-        <f t="shared" ref="AD102:AS102" si="166">AD58/AD93</f>
+        <f t="shared" ref="AD102:AS102" si="167">AD58/AD93</f>
         <v>2.6354035461680071E-2</v>
       </c>
       <c r="AE102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.4768504180860948E-2</v>
       </c>
       <c r="AF102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.5134202453987731E-2</v>
       </c>
       <c r="AG102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.8077098193959631E-2</v>
       </c>
       <c r="AH102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.8167144022306103E-2</v>
       </c>
       <c r="AI102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.7580379615086197E-2</v>
       </c>
       <c r="AJ102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>8.2028623571222745E-3</v>
       </c>
       <c r="AK102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.3673912201170134E-2</v>
       </c>
       <c r="AL102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.2839888510374728E-2</v>
       </c>
       <c r="AM102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.5399591161296603E-2</v>
       </c>
       <c r="AN102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.7600247836273161E-2</v>
       </c>
       <c r="AO102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.5425032694822679E-2</v>
       </c>
       <c r="AP102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.297104323681079E-2</v>
       </c>
       <c r="AQ102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.1656976744186048E-2</v>
       </c>
       <c r="AR102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.6068928710716997E-2</v>
       </c>
       <c r="AS102" s="61">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2.6080822331956063E-2</v>
       </c>
       <c r="BE102" s="61"/>
@@ -26823,75 +26823,75 @@
         <v>117</v>
       </c>
       <c r="AA104" s="1">
-        <f t="shared" ref="AA104:AR104" si="167">AA58</f>
+        <f t="shared" ref="AA104:AR104" si="168">AA58</f>
         <v>487</v>
       </c>
       <c r="AB104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>489</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1270</v>
       </c>
       <c r="AD104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1360</v>
       </c>
       <c r="AE104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>763</v>
       </c>
       <c r="AF104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1311</v>
       </c>
       <c r="AG104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1480</v>
       </c>
       <c r="AH104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1485</v>
       </c>
       <c r="AI104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>929</v>
       </c>
       <c r="AJ104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>427</v>
       </c>
       <c r="AK104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1222</v>
       </c>
       <c r="AL104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1180</v>
       </c>
       <c r="AM104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>791</v>
       </c>
       <c r="AN104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>909</v>
       </c>
       <c r="AO104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1322</v>
       </c>
       <c r="AP104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>654</v>
       </c>
       <c r="AQ104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1043</v>
       </c>
       <c r="AR104" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1270</v>
       </c>
       <c r="AS104" s="1">
@@ -26899,15 +26899,15 @@
         <v>1294</v>
       </c>
       <c r="BG104" s="1">
-        <f t="shared" ref="BG104:BI104" si="168">BG58</f>
+        <f t="shared" ref="BG104:BI104" si="169">BG58</f>
         <v>3606</v>
       </c>
       <c r="BH104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>5039</v>
       </c>
       <c r="BI104" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>3758</v>
       </c>
       <c r="BJ104" s="1">
@@ -27103,83 +27103,83 @@
         <v>1993</v>
       </c>
       <c r="AD107" s="1">
-        <f t="shared" ref="AD107:AS107" si="169">AD105+AD106</f>
+        <f t="shared" ref="AD107:AS107" si="170">AD105+AD106</f>
         <v>1368</v>
       </c>
       <c r="AE107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>914</v>
       </c>
       <c r="AF107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>1498</v>
       </c>
       <c r="AG107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>1898</v>
       </c>
       <c r="AH107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>1668</v>
       </c>
       <c r="AI107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>657</v>
       </c>
       <c r="AJ107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>599</v>
       </c>
       <c r="AK107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>1242</v>
       </c>
       <c r="AL107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2082</v>
       </c>
       <c r="AM107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>521</v>
       </c>
       <c r="AN107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>200</v>
       </c>
       <c r="AO107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2128</v>
       </c>
       <c r="AP107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2351</v>
       </c>
       <c r="AQ107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>466</v>
       </c>
       <c r="AR107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>554</v>
       </c>
       <c r="AS107" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2096</v>
       </c>
       <c r="BG107" s="1">
-        <f t="shared" ref="BG107" si="170">BG105+BG106</f>
+        <f t="shared" ref="BG107" si="171">BG105+BG106</f>
         <v>4885</v>
       </c>
       <c r="BH107" s="1">
-        <f t="shared" ref="BH107" si="171">BH105+BH106</f>
+        <f t="shared" ref="BH107" si="172">BH105+BH106</f>
         <v>5978</v>
       </c>
       <c r="BI107" s="1">
-        <f t="shared" ref="BI107" si="172">BI105+BI106</f>
+        <f t="shared" ref="BI107" si="173">BI105+BI106</f>
         <v>4580</v>
       </c>
       <c r="BJ107" s="1">
-        <f t="shared" ref="BJ107" si="173">BJ105+BJ106</f>
+        <f t="shared" ref="BJ107" si="174">BJ105+BJ106</f>
         <v>5200</v>
       </c>
     </row>
@@ -27188,75 +27188,75 @@
         <v>121</v>
       </c>
       <c r="AA108" s="44">
-        <f t="shared" ref="AA108:AR108" si="174">AA59</f>
+        <f t="shared" ref="AA108:AR108" si="175">AA59</f>
         <v>1341.9</v>
       </c>
       <c r="AB108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1344.4</v>
       </c>
       <c r="AC108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1346.4</v>
       </c>
       <c r="AD108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1344.9</v>
       </c>
       <c r="AE108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1344.5</v>
       </c>
       <c r="AF108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1345.1</v>
       </c>
       <c r="AG108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1343.7</v>
       </c>
       <c r="AH108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1342.4</v>
       </c>
       <c r="AI108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1329.4</v>
       </c>
       <c r="AJ108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1329.4</v>
       </c>
       <c r="AK108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1330.2</v>
       </c>
       <c r="AL108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1329.8</v>
       </c>
       <c r="AM108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1330.5</v>
       </c>
       <c r="AN108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1330.2</v>
       </c>
       <c r="AO108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1329.7</v>
       </c>
       <c r="AP108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1327.7</v>
       </c>
       <c r="AQ108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1293.3</v>
       </c>
       <c r="AR108" s="44">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1282.4000000000001</v>
       </c>
       <c r="AS108" s="44">
@@ -27264,15 +27264,15 @@
         <v>1282.4000000000001</v>
       </c>
       <c r="BG108" s="44">
-        <f t="shared" ref="BG108:BI108" si="175">BG59</f>
+        <f t="shared" ref="BG108:BI108" si="176">BG59</f>
         <v>1341.9</v>
       </c>
       <c r="BH108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1342.4</v>
       </c>
       <c r="BI108" s="44">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1329.8</v>
       </c>
       <c r="BJ108" s="44">
@@ -27285,75 +27285,75 @@
         <v>122</v>
       </c>
       <c r="AA109" s="41">
-        <f t="shared" ref="AA109:AR109" si="176">AA107/AA108</f>
+        <f t="shared" ref="AA109:AR109" si="177">AA107/AA108</f>
         <v>-4.1731872717788207E-2</v>
       </c>
       <c r="AB109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.1752454626599225</v>
       </c>
       <c r="AC109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.4802436125965537</v>
       </c>
       <c r="AD109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.0171759982154807</v>
       </c>
       <c r="AE109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.67980661956117516</v>
       </c>
       <c r="AF109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.1136718459594084</v>
       </c>
       <c r="AG109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.4125176750762818</v>
       </c>
       <c r="AH109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.2425506555423123</v>
       </c>
       <c r="AI109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.49420791334436587</v>
       </c>
       <c r="AJ109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.45057920866556339</v>
       </c>
       <c r="AK109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.93369418132611637</v>
       </c>
       <c r="AL109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.5656489697698903</v>
       </c>
       <c r="AM109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.39158211198797443</v>
       </c>
       <c r="AN109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.15035333032626672</v>
       </c>
       <c r="AO109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.6003609836805295</v>
       </c>
       <c r="AP109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1.7707313399111244</v>
       </c>
       <c r="AQ109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.3603185649114668</v>
       </c>
       <c r="AR109" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.43200249532127261</v>
       </c>
       <c r="AS109" s="41">
@@ -27361,15 +27361,15 @@
         <v>1.634435433562071</v>
       </c>
       <c r="BG109" s="41">
-        <f t="shared" ref="BG109:BI109" si="177">BG107/BG108</f>
+        <f t="shared" ref="BG109:BI109" si="178">BG107/BG108</f>
         <v>3.6403606826142036</v>
       </c>
       <c r="BH109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>4.4532181168057212</v>
       </c>
       <c r="BI109" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>3.4441269363814109</v>
       </c>
       <c r="BJ109" s="41">
@@ -27390,7 +27390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA2194"/>
   <sheetViews>
-    <sheetView topLeftCell="H213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P248" sqref="P248:P261"/>
     </sheetView>
   </sheetViews>
